--- a/InputData/trans/FoVObE/Fraction of Veh Owned by Entity.xlsx
+++ b/InputData/trans/FoVObE/Fraction of Veh Owned by Entity.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\trans\FoVObE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56164E49-86FE-4D92-8C83-DC2F9D71C0E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17540" tabRatio="917"/>
+    <workbookView xWindow="16455" yWindow="150" windowWidth="29520" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,17 +24,31 @@
     <sheet name="Taxis and Limos" sheetId="8" r:id="rId9"/>
     <sheet name="Population" sheetId="9" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="outputfrac_bio">#REF!</definedName>
+    <definedName name="outputfrac_coal">#REF!</definedName>
+    <definedName name="outputfrac_elec">#REF!</definedName>
+    <definedName name="outputfrac_ngps">#REF!</definedName>
+    <definedName name="outputfrac_nonenergy">#REF!</definedName>
+    <definedName name="outputfrac_other">#REF!</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="305">
   <si>
     <t>LDVs, passenger</t>
   </si>
@@ -546,6 +566,9 @@
     <t>We assume all freight rail is industry-owned.</t>
   </si>
   <si>
+    <t>We assume consumers own all recreational boats.</t>
+  </si>
+  <si>
     <t>We assume industry owns all freight ships.</t>
   </si>
   <si>
@@ -669,9 +692,6 @@
     <t>FoVObE Fraction of Vehicles Owned by Entity</t>
   </si>
   <si>
-    <t>Vehicle type</t>
-  </si>
-  <si>
     <t>LDVs</t>
   </si>
   <si>
@@ -691,12 +711,6 @@
   </si>
   <si>
     <t>government</t>
-  </si>
-  <si>
-    <t>industry</t>
-  </si>
-  <si>
-    <t>consumers</t>
   </si>
   <si>
     <t>National Transportation Statistics 2015</t>
@@ -2272,35 +2286,59 @@
     <t>available, because we are taking ratios.</t>
   </si>
   <si>
-    <t>Canadian notes :</t>
-  </si>
-  <si>
-    <t>We leave US values in place, except for passenger ships,</t>
-  </si>
-  <si>
-    <t>a value which in this version represents ferries rather than personal leisure craft.</t>
-  </si>
-  <si>
-    <t>ferry services, BC Ferries and Northumberland Ferries, are both privately owned).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We therefore assign ownership to industry as oppposed to consumers (as the two major national </t>
-  </si>
-  <si>
-    <t>We assume industry owns all passenger ferries.</t>
+    <t>foreign entities</t>
+  </si>
+  <si>
+    <t>Vehicles produced and sold for export (sold and used outside the modeled region) should not be included here.</t>
+  </si>
+  <si>
+    <t>The transportation sector in the EPS only tracks transportation within the modeled region.</t>
+  </si>
+  <si>
+    <t>(Exported vehicles may be included in grouped Industry Sector outputs, where exports are handled.)</t>
+  </si>
+  <si>
+    <t>Therefore, the share of vehicles assigned to "foreign entities" in this variable should be zero.</t>
+  </si>
+  <si>
+    <t>Even if a foreign entity owns vehicles in the modeled region, classify those vehicles as government-, industry-,</t>
+  </si>
+  <si>
+    <t>or consumer-owned, depending on the nature of the foreign entitiy.</t>
+  </si>
+  <si>
+    <t>Vehicle Exports</t>
+  </si>
+  <si>
+    <t>labor and consumers</t>
+  </si>
+  <si>
+    <t>In the output tab, we show more decimal places than the source data</t>
+  </si>
+  <si>
+    <t>provide in order to avoid rounding error in Vensim (each column must</t>
+  </si>
+  <si>
+    <t>add to 1).</t>
+  </si>
+  <si>
+    <t>Fraction Owned by Entity (dimensionless)</t>
+  </si>
+  <si>
+    <t>domestic industries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,###"/>
     <numFmt numFmtId="165" formatCode="\(\R\)\ #,##0"/>
     <numFmt numFmtId="166" formatCode="&quot;(R)&quot;\ #,##0;&quot;(R) -&quot;#,##0;&quot;(R) &quot;\ 0"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2430,6 +2468,14 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2485,29 +2531,29 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2515,60 +2561,60 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -2576,10 +2622,10 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -2587,10 +2633,10 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -2598,277 +2644,277 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2877,7 +2923,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2886,7 +2932,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2903,21 +2949,21 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2925,56 +2971,56 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2982,23 +3028,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3023,7 +3069,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3309,7 +3355,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3358,59 +3403,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3426,6 +3420,60 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3448,22 +3496,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Data_Sheet1 (2)_1" xfId="5"/>
-    <cellStyle name="Hed Side" xfId="3"/>
-    <cellStyle name="Hed Side_Sheet1 (2)_1" xfId="4"/>
+    <cellStyle name="Data_Sheet1 (2)_1" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Hed Side" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Hed Side_Sheet1 (2)_1" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Source Text" xfId="7"/>
-    <cellStyle name="Table Title" xfId="1"/>
-    <cellStyle name="Title-1" xfId="2"/>
+    <cellStyle name="Source Text" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Table Title" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Title-1" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3512,7 +3566,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3545,9 +3599,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3580,6 +3651,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3755,351 +3843,371 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="73">
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="73">
         <v>2011</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="76" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="73">
         <v>2013</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="76" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="73">
         <v>2010</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="76" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="73">
         <v>2013</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="76" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="72" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="73" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="73">
         <v>2009</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="73" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="117" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="73"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="72" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="73" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B42" s="117" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B43" s="73"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B44" s="72" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B45" s="73" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="73">
         <v>2013</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="73" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="117" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="73"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="72" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="73" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" s="73">
         <v>2012</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" s="73" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" s="117" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>296</v>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B21" r:id="rId1"/>
-    <hyperlink ref="B35" r:id="rId2"/>
-    <hyperlink ref="B48" r:id="rId3"/>
-    <hyperlink ref="B54" r:id="rId4"/>
-    <hyperlink ref="B42" r:id="rId5"/>
+    <hyperlink ref="B21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B35" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B48" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B54" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B42" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" style="119" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="119" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B1" s="112" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C1" s="113" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="114">
         <v>2000</v>
       </c>
@@ -4107,10 +4215,10 @@
         <v>282171957</v>
       </c>
       <c r="C2" s="116" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -4118,10 +4226,10 @@
         <v>285081556</v>
       </c>
       <c r="C3" s="116" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="114">
         <v>2002</v>
       </c>
@@ -4129,10 +4237,10 @@
         <v>287803914</v>
       </c>
       <c r="C4" s="116" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -4140,10 +4248,10 @@
         <v>290326418</v>
       </c>
       <c r="C5" s="116" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="114">
         <v>2004</v>
       </c>
@@ -4151,10 +4259,10 @@
         <v>293045739</v>
       </c>
       <c r="C6" s="116" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -4162,10 +4270,10 @@
         <v>295753151</v>
       </c>
       <c r="C7" s="116" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="114">
         <v>2006</v>
       </c>
@@ -4173,10 +4281,10 @@
         <v>298593212</v>
       </c>
       <c r="C8" s="116" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -4184,10 +4292,10 @@
         <v>301579895</v>
       </c>
       <c r="C9" s="116" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="114">
         <v>2008</v>
       </c>
@@ -4195,10 +4303,10 @@
         <v>304374846</v>
       </c>
       <c r="C10" s="116" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -4206,10 +4314,10 @@
         <v>307006550</v>
       </c>
       <c r="C11" s="116" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="114">
         <v>2010</v>
       </c>
@@ -4217,10 +4325,10 @@
         <v>309326295</v>
       </c>
       <c r="C12" s="116" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -4228,10 +4336,10 @@
         <v>311582564</v>
       </c>
       <c r="C13" s="116" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -4239,10 +4347,10 @@
         <v>313873685</v>
       </c>
       <c r="C14" s="116" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -4250,10 +4358,10 @@
         <v>316128839</v>
       </c>
       <c r="C15" s="116" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -4262,10 +4370,10 @@
         <v>318735175.47888714</v>
       </c>
       <c r="C16" s="119" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -4273,10 +4381,10 @@
         <v>321363000</v>
       </c>
       <c r="C17" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -4284,10 +4392,10 @@
         <v>323849000</v>
       </c>
       <c r="C18" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -4295,10 +4403,10 @@
         <v>326348000</v>
       </c>
       <c r="C19" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -4306,10 +4414,10 @@
         <v>328857000</v>
       </c>
       <c r="C20" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -4317,10 +4425,10 @@
         <v>331375000</v>
       </c>
       <c r="C21" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -4328,10 +4436,10 @@
         <v>333896000</v>
       </c>
       <c r="C22" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2021</v>
       </c>
@@ -4339,10 +4447,10 @@
         <v>336416000</v>
       </c>
       <c r="C23" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -4350,10 +4458,10 @@
         <v>338930000</v>
       </c>
       <c r="C24" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2023</v>
       </c>
@@ -4361,10 +4469,10 @@
         <v>341436000</v>
       </c>
       <c r="C25" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2024</v>
       </c>
@@ -4372,10 +4480,10 @@
         <v>343929000</v>
       </c>
       <c r="C26" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2025</v>
       </c>
@@ -4383,10 +4491,10 @@
         <v>346407000</v>
       </c>
       <c r="C27" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2026</v>
       </c>
@@ -4394,10 +4502,10 @@
         <v>348867000</v>
       </c>
       <c r="C28" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2027</v>
       </c>
@@ -4405,10 +4513,10 @@
         <v>351304000</v>
       </c>
       <c r="C29" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2028</v>
       </c>
@@ -4416,10 +4524,10 @@
         <v>353718000</v>
       </c>
       <c r="C30" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2029</v>
       </c>
@@ -4427,10 +4535,10 @@
         <v>356107000</v>
       </c>
       <c r="C31" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2030</v>
       </c>
@@ -4438,10 +4546,10 @@
         <v>358471000</v>
       </c>
       <c r="C32" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2031</v>
       </c>
@@ -4449,10 +4557,10 @@
         <v>360792000</v>
       </c>
       <c r="C33" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2032</v>
       </c>
@@ -4460,10 +4568,10 @@
         <v>363070000</v>
       </c>
       <c r="C34" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2033</v>
       </c>
@@ -4471,10 +4579,10 @@
         <v>365307000</v>
       </c>
       <c r="C35" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2034</v>
       </c>
@@ -4482,10 +4590,10 @@
         <v>367503000</v>
       </c>
       <c r="C36" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2035</v>
       </c>
@@ -4493,10 +4601,10 @@
         <v>369662000</v>
       </c>
       <c r="C37" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2036</v>
       </c>
@@ -4504,10 +4612,10 @@
         <v>371788000</v>
       </c>
       <c r="C38" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2037</v>
       </c>
@@ -4515,10 +4623,10 @@
         <v>373883000</v>
       </c>
       <c r="C39" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2038</v>
       </c>
@@ -4526,10 +4634,10 @@
         <v>375950000</v>
       </c>
       <c r="C40" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2039</v>
       </c>
@@ -4537,10 +4645,10 @@
         <v>377993000</v>
       </c>
       <c r="C41" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2040</v>
       </c>
@@ -4548,10 +4656,10 @@
         <v>380016000</v>
       </c>
       <c r="C42" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2041</v>
       </c>
@@ -4559,10 +4667,10 @@
         <v>382021000</v>
       </c>
       <c r="C43" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2042</v>
       </c>
@@ -4570,10 +4678,10 @@
         <v>384012000</v>
       </c>
       <c r="C44" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2043</v>
       </c>
@@ -4581,10 +4689,10 @@
         <v>385992000</v>
       </c>
       <c r="C45" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2044</v>
       </c>
@@ -4592,10 +4700,10 @@
         <v>387965000</v>
       </c>
       <c r="C46" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2045</v>
       </c>
@@ -4603,10 +4711,10 @@
         <v>389934000</v>
       </c>
       <c r="C47" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2046</v>
       </c>
@@ -4614,10 +4722,10 @@
         <v>391902000</v>
       </c>
       <c r="C48" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2047</v>
       </c>
@@ -4625,10 +4733,10 @@
         <v>393869000</v>
       </c>
       <c r="C49" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2048</v>
       </c>
@@ -4636,10 +4744,10 @@
         <v>395841000</v>
       </c>
       <c r="C50" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2049</v>
       </c>
@@ -4647,10 +4755,10 @@
         <v>397818000</v>
       </c>
       <c r="C51" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2050</v>
       </c>
@@ -4658,10 +4766,10 @@
         <v>399803000</v>
       </c>
       <c r="C52" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2051</v>
       </c>
@@ -4669,10 +4777,10 @@
         <v>401796000</v>
       </c>
       <c r="C53" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2052</v>
       </c>
@@ -4680,10 +4788,10 @@
         <v>403798000</v>
       </c>
       <c r="C54" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2053</v>
       </c>
@@ -4691,10 +4799,10 @@
         <v>405811000</v>
       </c>
       <c r="C55" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2054</v>
       </c>
@@ -4702,10 +4810,10 @@
         <v>407835000</v>
       </c>
       <c r="C56" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2055</v>
       </c>
@@ -4713,10 +4821,10 @@
         <v>409873000</v>
       </c>
       <c r="C57" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2056</v>
       </c>
@@ -4724,10 +4832,10 @@
         <v>411923000</v>
       </c>
       <c r="C58" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2057</v>
       </c>
@@ -4735,10 +4843,10 @@
         <v>413989000</v>
       </c>
       <c r="C59" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2058</v>
       </c>
@@ -4746,10 +4854,10 @@
         <v>416068000</v>
       </c>
       <c r="C60" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2059</v>
       </c>
@@ -4757,10 +4865,10 @@
         <v>418161000</v>
       </c>
       <c r="C61" s="119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2060</v>
       </c>
@@ -4768,35 +4876,30 @@
         <v>420268000</v>
       </c>
       <c r="C62" s="119" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="51.453125" customWidth="1"/>
-    <col min="3" max="4" width="16.453125" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" customWidth="1"/>
-    <col min="6" max="6" width="65.6328125" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" customWidth="1"/>
+    <col min="3" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="126" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="126" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="120" t="s">
         <v>1</v>
       </c>
@@ -4813,10 +4916,10 @@
         <v>24</v>
       </c>
       <c r="F1" s="125" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
         <v>0</v>
       </c>
@@ -4839,7 +4942,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
         <v>14</v>
       </c>
@@ -4858,10 +4961,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="84" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="83" t="s">
         <v>16</v>
       </c>
@@ -4878,10 +4981,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="84" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="83" t="s">
         <v>18</v>
       </c>
@@ -4901,7 +5004,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="98" t="s">
         <v>20</v>
       </c>
@@ -4912,21 +5015,21 @@
         <v>0</v>
       </c>
       <c r="D6" s="101">
+        <v>0</v>
+      </c>
+      <c r="E6" s="102">
         <v>1</v>
       </c>
-      <c r="E6" s="102">
-        <v>0</v>
-      </c>
       <c r="F6" s="103" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="85" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C7" s="111">
         <f>'Police Departments'!C5/'NTS 1-11'!Y9</f>
@@ -4940,10 +5043,10 @@
         <v>0.99843636087933096</v>
       </c>
       <c r="F7" s="88" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="104" t="s">
         <v>3</v>
       </c>
@@ -4960,10 +5063,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="106" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="83" t="s">
         <v>15</v>
       </c>
@@ -4982,10 +5085,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="84" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="83" t="s">
         <v>17</v>
       </c>
@@ -5002,10 +5105,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="84" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="83" t="s">
         <v>19</v>
       </c>
@@ -5025,7 +5128,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="98" t="s">
         <v>21</v>
       </c>
@@ -5042,27 +5145,27 @@
         <v>0</v>
       </c>
       <c r="F12" s="103" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="107" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B13" s="108" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
       <c r="E13" s="109"/>
       <c r="F13" s="88"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -5072,69 +5175,73 @@
   <ignoredErrors>
     <ignoredError sqref="C9" formulaRange="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
-    <col min="2" max="4" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="113" t="s">
+    <row r="1" spans="1:5" s="126" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="180" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="149" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="113" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="113" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C1" s="149" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="149" t="s">
+        <v>299</v>
+      </c>
+      <c r="E1" s="149" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="127">
+      <c r="B2">
         <f>Results!C2</f>
         <v>2.560717709316894E-3</v>
       </c>
-      <c r="C2" s="127">
+      <c r="C2">
         <f>Results!D2</f>
         <v>9.9640174100549227E-4</v>
       </c>
-      <c r="D2" s="127">
+      <c r="D2">
         <f>Results!E2</f>
         <v>0.99644288054967767</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="127">
+      <c r="B3">
         <f>Results!C3</f>
         <v>0.14030483557135651</v>
       </c>
-      <c r="C3" s="127">
+      <c r="C3">
         <f>Results!D3</f>
         <v>0.85969516442864347</v>
       </c>
@@ -5142,8 +5249,11 @@
         <f>Results!E3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -5159,8 +5269,11 @@
         <f>Results!E4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>198</v>
       </c>
@@ -5176,8 +5289,11 @@
         <f>Results!E5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>199</v>
       </c>
@@ -5187,18 +5303,21 @@
       </c>
       <c r="C6">
         <f>Results!D6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f>Results!E6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="127">
+      <c r="B7">
         <f>Results!C7</f>
         <v>1.5636391206690183E-3</v>
       </c>
@@ -5206,51 +5325,54 @@
         <f>Results!D7</f>
         <v>0</v>
       </c>
-      <c r="D7" s="127">
+      <c r="D7">
         <f>Results!E7</f>
         <v>0.99843636087933096</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
-    <col min="2" max="4" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="113" t="s">
+    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="180" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="149" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="113" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="113" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C1" s="149" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="149" t="s">
+        <v>299</v>
+      </c>
+      <c r="E1" s="149" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>195</v>
       </c>
@@ -5258,33 +5380,39 @@
         <f>Results!C8</f>
         <v>0</v>
       </c>
-      <c r="C2" s="75">
-        <f>Results!D8</f>
+      <c r="C2">
+        <f>Results!$D8</f>
         <v>1</v>
       </c>
       <c r="D2" s="75">
         <f>Results!E8</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="127">
+      <c r="B3">
         <f>Results!C9</f>
         <v>5.2668167033115575E-2</v>
       </c>
-      <c r="C3" s="127">
-        <f>Results!D9</f>
+      <c r="C3">
+        <f>Results!$D9</f>
         <v>0.94733183296688439</v>
       </c>
       <c r="D3" s="75">
         <f>Results!E9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -5292,16 +5420,19 @@
         <f>Results!C10</f>
         <v>0</v>
       </c>
-      <c r="C4" s="75">
-        <f>Results!D10</f>
+      <c r="C4">
+        <f>Results!$D10</f>
         <v>1</v>
       </c>
       <c r="D4" s="75">
         <f>Results!E10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>198</v>
       </c>
@@ -5309,16 +5440,19 @@
         <f>Results!C11</f>
         <v>0</v>
       </c>
-      <c r="C5" s="75">
-        <f>Results!D11</f>
+      <c r="C5">
+        <f>Results!$D11</f>
         <v>1</v>
       </c>
       <c r="D5" s="75">
         <f>Results!E11</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>199</v>
       </c>
@@ -5326,16 +5460,19 @@
         <f>Results!C12</f>
         <v>0</v>
       </c>
-      <c r="C6" s="75">
-        <f>Results!D12</f>
+      <c r="C6">
+        <f>Results!$D12</f>
         <v>1</v>
       </c>
       <c r="D6" s="75">
         <f>Results!E12</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>200</v>
       </c>
@@ -5343,79 +5480,77 @@
         <f>Results!C13</f>
         <v>0</v>
       </c>
-      <c r="C7" s="75">
-        <f>Results!D13</f>
+      <c r="C7">
+        <f>Results!$D13</f>
         <v>0</v>
       </c>
       <c r="D7" s="75">
         <f>Results!E13</f>
         <v>0</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AE108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" activeCellId="1" sqref="A16:XFD16 A19:XFD19"/>
+      <selection sqref="A1:AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.453125" style="128" customWidth="1"/>
-    <col min="2" max="3" width="9.6328125" style="128" customWidth="1"/>
-    <col min="4" max="19" width="10.6328125" style="128" customWidth="1"/>
-    <col min="20" max="20" width="10.6328125" style="149" customWidth="1"/>
-    <col min="21" max="31" width="10.6328125" style="128" customWidth="1"/>
-    <col min="32" max="16384" width="8.81640625" style="128"/>
+    <col min="1" max="1" width="50.5703125" style="127" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" style="127" customWidth="1"/>
+    <col min="4" max="19" width="10.7109375" style="127" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="148" customWidth="1"/>
+    <col min="21" max="31" width="10.7109375" style="127" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="127"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="169" t="s">
+    <row r="1" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="151" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="169"/>
-      <c r="T1" s="169"/>
-      <c r="U1" s="169"/>
-      <c r="V1" s="169"/>
-      <c r="W1" s="169"/>
-      <c r="X1" s="169"/>
-      <c r="Y1" s="169"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="169"/>
-      <c r="AB1" s="169"/>
-      <c r="AC1" s="169"/>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
-    </row>
-    <row r="2" spans="1:31" s="129" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="151"/>
+      <c r="AB1" s="151"/>
+      <c r="AC1" s="151"/>
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+    </row>
+    <row r="2" spans="1:31" s="128" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50"/>
       <c r="B2" s="51">
         <v>1960</v>
@@ -5508,7 +5643,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="131" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" s="130" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
         <v>97</v>
       </c>
@@ -5541,7 +5676,7 @@
       <c r="AB3" s="55"/>
       <c r="AC3" s="55"/>
       <c r="AD3" s="55"/>
-      <c r="AE3" s="130"/>
+      <c r="AE3" s="129"/>
     </row>
     <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="56" t="s">
@@ -5580,49 +5715,49 @@
       <c r="L4" s="54">
         <v>7370</v>
       </c>
-      <c r="M4" s="132">
+      <c r="M4" s="131">
         <v>6865</v>
       </c>
-      <c r="N4" s="132">
+      <c r="N4" s="131">
         <v>7077</v>
       </c>
-      <c r="O4" s="132">
+      <c r="O4" s="131">
         <v>7043</v>
       </c>
-      <c r="P4" s="132">
+      <c r="P4" s="131">
         <v>7451</v>
       </c>
-      <c r="Q4" s="132">
+      <c r="Q4" s="131">
         <v>7859</v>
       </c>
-      <c r="R4" s="132">
+      <c r="R4" s="131">
         <v>7826</v>
       </c>
-      <c r="S4" s="132">
+      <c r="S4" s="131">
         <v>7746</v>
       </c>
-      <c r="T4" s="132">
+      <c r="T4" s="131">
         <v>7673</v>
       </c>
-      <c r="U4" s="132">
+      <c r="U4" s="131">
         <v>7564</v>
       </c>
-      <c r="V4" s="132">
+      <c r="V4" s="131">
         <v>7764</v>
       </c>
-      <c r="W4" s="132">
+      <c r="W4" s="131">
         <v>7686</v>
       </c>
-      <c r="X4" s="132">
+      <c r="X4" s="131">
         <v>7637</v>
       </c>
-      <c r="Y4" s="132">
+      <c r="Y4" s="131">
         <v>7732</v>
       </c>
-      <c r="Z4" s="132">
+      <c r="Z4" s="131">
         <v>7337</v>
       </c>
-      <c r="AA4" s="132">
+      <c r="AA4" s="131">
         <v>7169</v>
       </c>
       <c r="AB4" s="59">
@@ -5634,7 +5769,7 @@
       <c r="AD4" s="59">
         <v>6914</v>
       </c>
-      <c r="AE4" s="133">
+      <c r="AE4" s="132">
         <v>6733</v>
       </c>
     </row>
@@ -5733,7 +5868,7 @@
         <v>199927</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="131" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" s="130" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="53" t="s">
         <v>101</v>
       </c>
@@ -5845,89 +5980,89 @@
         <f t="shared" si="1"/>
         <v>250070048.2666094</v>
       </c>
-      <c r="AC6" s="134">
+      <c r="AC6" s="133">
         <v>253215681</v>
       </c>
       <c r="AD6" s="58">
         <v>253639386</v>
       </c>
-      <c r="AE6" s="135">
+      <c r="AE6" s="134">
         <f>SUM(AE7,AE9,AE10,AE12,AE13,AE14)</f>
         <v>255876822.00000003</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H7" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I7" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J7" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K7" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L7" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M7" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N7" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O7" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P7" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="R7" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S7" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="T7" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="U7" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="V7" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="W7" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="X7" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Y7" s="54">
         <v>196491175.83247364</v>
@@ -5947,13 +6082,13 @@
       <c r="AD7" s="57">
         <v>183171881.637086</v>
       </c>
-      <c r="AE7" s="136">
+      <c r="AE7" s="135">
         <v>184497490.31559649</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B8" s="54">
         <v>61671390</v>
@@ -6025,25 +6160,25 @@
         <v>135399945</v>
       </c>
       <c r="Y8" s="54" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Z8" s="54" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AA8" s="54" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AB8" s="54" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AC8" s="54" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AD8" s="54" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AE8" s="54" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6137,82 +6272,82 @@
       <c r="AD9" s="57">
         <v>8454939</v>
       </c>
-      <c r="AE9" s="136">
+      <c r="AE9" s="135">
         <v>8404687</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G10" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H10" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I10" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J10" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K10" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L10" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M10" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N10" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O10" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P10" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="R10" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S10" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="T10" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="U10" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="V10" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="W10" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="X10" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Y10" s="60">
         <v>39186974.45205161</v>
@@ -6232,13 +6367,13 @@
       <c r="AD10" s="57">
         <v>50588676</v>
       </c>
-      <c r="AE10" s="136">
+      <c r="AE10" s="135">
         <v>51512739.866532281</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="56" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B11" s="60" t="s">
         <v>100</v>
@@ -6310,30 +6445,30 @@
         <v>99124775.010600001</v>
       </c>
       <c r="Y11" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Z11" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AA11" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AB11" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AC11" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AD11" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AE11" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="61" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B12" s="60" t="s">
         <v>100</v>
@@ -6422,13 +6557,13 @@
       <c r="AD12" s="57">
         <v>8190286.3639322901</v>
       </c>
-      <c r="AE12" s="136">
+      <c r="AE12" s="135">
         <v>8126007.221129314</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B13" s="54">
         <v>11914249</v>
@@ -6517,7 +6652,7 @@
       <c r="AD13" s="57">
         <v>2469094</v>
       </c>
-      <c r="AE13" s="136">
+      <c r="AE13" s="135">
         <v>2471348.7033206243</v>
       </c>
     </row>
@@ -6612,13 +6747,13 @@
       <c r="AD14" s="57">
         <v>764509</v>
       </c>
-      <c r="AE14" s="136">
+      <c r="AE14" s="135">
         <v>864548.89342128637</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="131" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" s="130" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="62" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="54"/>
@@ -6649,11 +6784,11 @@
       <c r="AB15" s="55"/>
       <c r="AC15" s="55"/>
       <c r="AD15" s="55"/>
-      <c r="AE15" s="135"/>
+      <c r="AE15" s="134"/>
     </row>
     <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="56" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B16" s="54">
         <v>49600</v>
@@ -6742,13 +6877,13 @@
       <c r="AD16" s="55">
         <v>59268</v>
       </c>
-      <c r="AE16" s="136">
+      <c r="AE16" s="135">
         <v>62576</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="56" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B17" s="54">
         <v>2856</v>
@@ -6834,10 +6969,10 @@
       <c r="AC17" s="55">
         <v>2284</v>
       </c>
-      <c r="AD17" s="137">
+      <c r="AD17" s="136">
         <v>2348</v>
       </c>
-      <c r="AE17" s="133">
+      <c r="AE17" s="132">
         <v>2842</v>
       </c>
     </row>
@@ -6932,7 +7067,7 @@
       <c r="AD18" s="55">
         <v>10469</v>
       </c>
-      <c r="AE18" s="136">
+      <c r="AE18" s="135">
         <v>10380</v>
       </c>
     </row>
@@ -7027,7 +7162,7 @@
       <c r="AD19" s="55">
         <v>570</v>
       </c>
-      <c r="AE19" s="136">
+      <c r="AE19" s="135">
         <v>560</v>
       </c>
     </row>
@@ -7122,13 +7257,13 @@
       <c r="AD20" s="55">
         <v>6938</v>
       </c>
-      <c r="AE20" s="136">
+      <c r="AE20" s="135">
         <v>7150</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B21" s="60" t="s">
         <v>100</v>
@@ -7214,16 +7349,16 @@
       <c r="AC21" s="55">
         <v>31846</v>
       </c>
-      <c r="AD21" s="137">
+      <c r="AD21" s="136">
         <v>27796</v>
       </c>
-      <c r="AE21" s="133">
+      <c r="AE21" s="132">
         <v>27543</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B22" s="60" t="s">
         <v>100</v>
@@ -7309,14 +7444,14 @@
       <c r="AC22" s="55">
         <v>18965</v>
       </c>
-      <c r="AD22" s="137">
+      <c r="AD22" s="136">
         <v>23106</v>
       </c>
-      <c r="AE22" s="133">
+      <c r="AE22" s="132">
         <v>25930</v>
       </c>
     </row>
-    <row r="23" spans="1:31" s="131" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" s="130" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="53" t="s">
         <v>107</v>
       </c>
@@ -7349,7 +7484,7 @@
       <c r="AB23" s="55"/>
       <c r="AC23" s="55"/>
       <c r="AD23" s="55"/>
-      <c r="AE23" s="135"/>
+      <c r="AE23" s="134"/>
     </row>
     <row r="24" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="56" t="s">
@@ -7442,7 +7577,7 @@
       <c r="AD24" s="57">
         <v>380641</v>
       </c>
-      <c r="AE24" s="136">
+      <c r="AE24" s="135">
         <v>373838</v>
       </c>
     </row>
@@ -7537,7 +7672,7 @@
       <c r="AD25" s="57">
         <v>24707</v>
       </c>
-      <c r="AE25" s="136">
+      <c r="AE25" s="135">
         <v>25033</v>
       </c>
     </row>
@@ -7632,7 +7767,7 @@
       <c r="AD26" s="57">
         <v>92742</v>
       </c>
-      <c r="AE26" s="136">
+      <c r="AE26" s="135">
         <v>88122</v>
       </c>
     </row>
@@ -7727,7 +7862,7 @@
       <c r="AD27" s="57">
         <v>842802</v>
       </c>
-      <c r="AE27" s="136">
+      <c r="AE27" s="135">
         <v>873679</v>
       </c>
     </row>
@@ -7921,7 +8056,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="30" spans="1:31" s="131" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" s="130" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="53" t="s">
         <v>114</v>
       </c>
@@ -7954,11 +8089,11 @@
       <c r="AB30" s="54"/>
       <c r="AC30" s="54"/>
       <c r="AD30" s="54"/>
-      <c r="AE30" s="135"/>
+      <c r="AE30" s="134"/>
     </row>
     <row r="31" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="56" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B31" s="54">
         <v>16777</v>
@@ -8044,16 +8179,16 @@
       <c r="AC31" s="57">
         <v>31498</v>
       </c>
-      <c r="AD31" s="138">
+      <c r="AD31" s="137">
         <v>31550</v>
       </c>
-      <c r="AE31" s="136">
+      <c r="AE31" s="135">
         <v>31081</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B32" s="54">
         <v>6543</v>
@@ -8142,90 +8277,90 @@
       <c r="AD32" s="57">
         <v>8980</v>
       </c>
-      <c r="AE32" s="136">
+      <c r="AE32" s="135">
         <v>8918</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="64" t="s">
+        <v>218</v>
+      </c>
+      <c r="B33" s="135">
+        <v>2926</v>
+      </c>
+      <c r="C33" s="135">
+        <v>2376</v>
+      </c>
+      <c r="D33" s="135">
+        <v>1579</v>
+      </c>
+      <c r="E33" s="135">
+        <v>857</v>
+      </c>
+      <c r="F33" s="135">
+        <v>864</v>
+      </c>
+      <c r="G33" s="135">
+        <v>737</v>
+      </c>
+      <c r="H33" s="135">
+        <v>636</v>
+      </c>
+      <c r="I33" s="135">
+        <v>619</v>
+      </c>
+      <c r="J33" s="135">
+        <v>603</v>
+      </c>
+      <c r="K33" s="135">
+        <v>565</v>
+      </c>
+      <c r="L33" s="135">
+        <v>543</v>
+      </c>
+      <c r="M33" s="135">
+        <v>509</v>
+      </c>
+      <c r="N33" s="135">
+        <v>495</v>
+      </c>
+      <c r="O33" s="135">
+        <v>477</v>
+      </c>
+      <c r="P33" s="135">
+        <v>470</v>
+      </c>
+      <c r="Q33" s="135">
+        <v>463</v>
+      </c>
+      <c r="R33" s="135">
+        <v>282</v>
+      </c>
+      <c r="S33" s="135">
+        <v>274</v>
+      </c>
+      <c r="T33" s="135">
+        <v>261</v>
+      </c>
+      <c r="U33" s="135">
+        <v>246</v>
+      </c>
+      <c r="V33" s="135">
+        <v>233</v>
+      </c>
+      <c r="W33" s="135">
+        <v>231</v>
+      </c>
+      <c r="X33" s="135">
+        <v>229</v>
+      </c>
+      <c r="Y33" s="135">
         <v>220</v>
       </c>
-      <c r="B33" s="136">
-        <v>2926</v>
-      </c>
-      <c r="C33" s="136">
-        <v>2376</v>
-      </c>
-      <c r="D33" s="136">
-        <v>1579</v>
-      </c>
-      <c r="E33" s="136">
-        <v>857</v>
-      </c>
-      <c r="F33" s="136">
-        <v>864</v>
-      </c>
-      <c r="G33" s="136">
-        <v>737</v>
-      </c>
-      <c r="H33" s="136">
-        <v>636</v>
-      </c>
-      <c r="I33" s="136">
-        <v>619</v>
-      </c>
-      <c r="J33" s="136">
-        <v>603</v>
-      </c>
-      <c r="K33" s="136">
-        <v>565</v>
-      </c>
-      <c r="L33" s="136">
-        <v>543</v>
-      </c>
-      <c r="M33" s="136">
-        <v>509</v>
-      </c>
-      <c r="N33" s="136">
-        <v>495</v>
-      </c>
-      <c r="O33" s="136">
-        <v>477</v>
-      </c>
-      <c r="P33" s="136">
-        <v>470</v>
-      </c>
-      <c r="Q33" s="136">
-        <v>463</v>
-      </c>
-      <c r="R33" s="136">
-        <v>282</v>
-      </c>
-      <c r="S33" s="136">
-        <v>274</v>
-      </c>
-      <c r="T33" s="136">
-        <v>261</v>
-      </c>
-      <c r="U33" s="136">
-        <v>246</v>
-      </c>
-      <c r="V33" s="136">
-        <v>233</v>
-      </c>
-      <c r="W33" s="136">
-        <v>231</v>
-      </c>
-      <c r="X33" s="136">
-        <v>229</v>
-      </c>
-      <c r="Y33" s="136">
-        <v>220</v>
-      </c>
-      <c r="Z33" s="136">
+      <c r="Z33" s="135">
         <v>225</v>
       </c>
-      <c r="AA33" s="136">
+      <c r="AA33" s="135">
         <v>217</v>
       </c>
       <c r="AB33" s="57">
@@ -8237,13 +8372,13 @@
       <c r="AD33" s="57">
         <v>198</v>
       </c>
-      <c r="AE33" s="139">
+      <c r="AE33" s="138">
         <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="65" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B34" s="66">
         <v>2450484</v>
@@ -8332,29 +8467,29 @@
       <c r="AD34" s="67">
         <v>12101936</v>
       </c>
-      <c r="AE34" s="140">
+      <c r="AE34" s="139">
         <v>12013496</v>
       </c>
     </row>
-    <row r="35" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="170" t="s">
-        <v>222</v>
-      </c>
-      <c r="B35" s="170"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="170"/>
-      <c r="G35" s="170"/>
-      <c r="H35" s="170"/>
-      <c r="I35" s="170"/>
-      <c r="J35" s="170"/>
-      <c r="K35" s="170"/>
-      <c r="L35" s="170"/>
-      <c r="M35" s="170"/>
-      <c r="N35" s="170"/>
-      <c r="O35" s="170"/>
-      <c r="P35" s="170"/>
+    <row r="35" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="152" t="s">
+        <v>220</v>
+      </c>
+      <c r="B35" s="152"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="152"/>
+      <c r="M35" s="152"/>
+      <c r="N35" s="152"/>
+      <c r="O35" s="152"/>
+      <c r="P35" s="152"/>
       <c r="Q35" s="68"/>
       <c r="R35" s="68"/>
       <c r="S35" s="68"/>
@@ -8368,1561 +8503,1612 @@
       <c r="AA35" s="68"/>
       <c r="AB35" s="68"/>
       <c r="AC35" s="68"/>
-      <c r="AE35" s="128"/>
-    </row>
-    <row r="36" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="171"/>
-      <c r="B36" s="171"/>
-      <c r="C36" s="171"/>
-      <c r="D36" s="171"/>
-      <c r="E36" s="171"/>
-      <c r="F36" s="171"/>
-      <c r="G36" s="171"/>
-      <c r="H36" s="171"/>
-      <c r="I36" s="171"/>
-      <c r="J36" s="171"/>
-      <c r="K36" s="171"/>
-      <c r="L36" s="171"/>
-      <c r="M36" s="171"/>
-      <c r="N36" s="171"/>
-      <c r="O36" s="171"/>
-      <c r="P36" s="171"/>
-      <c r="Q36" s="141"/>
-      <c r="R36" s="142"/>
-      <c r="S36" s="142"/>
-      <c r="T36" s="143"/>
-    </row>
-    <row r="37" spans="1:31" s="146" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="172" t="s">
+      <c r="AE35" s="127"/>
+    </row>
+    <row r="36" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="153"/>
+      <c r="B36" s="153"/>
+      <c r="C36" s="153"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="153"/>
+      <c r="H36" s="153"/>
+      <c r="I36" s="153"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="153"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
+      <c r="N36" s="153"/>
+      <c r="O36" s="153"/>
+      <c r="P36" s="153"/>
+      <c r="Q36" s="140"/>
+      <c r="R36" s="141"/>
+      <c r="S36" s="141"/>
+      <c r="T36" s="142"/>
+    </row>
+    <row r="37" spans="1:31" s="145" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="154" t="s">
+        <v>221</v>
+      </c>
+      <c r="B37" s="154"/>
+      <c r="C37" s="154"/>
+      <c r="D37" s="154"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="154"/>
+      <c r="G37" s="154"/>
+      <c r="H37" s="154"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="154"/>
+      <c r="K37" s="154"/>
+      <c r="L37" s="154"/>
+      <c r="M37" s="154"/>
+      <c r="N37" s="154"/>
+      <c r="O37" s="154"/>
+      <c r="P37" s="154"/>
+      <c r="Q37" s="143"/>
+      <c r="R37" s="143"/>
+      <c r="S37" s="143"/>
+      <c r="T37" s="144"/>
+    </row>
+    <row r="38" spans="1:31" s="145" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="155" t="s">
+        <v>222</v>
+      </c>
+      <c r="B38" s="155"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="155"/>
+      <c r="K38" s="155"/>
+      <c r="L38" s="155"/>
+      <c r="M38" s="155"/>
+      <c r="N38" s="155"/>
+      <c r="O38" s="155"/>
+      <c r="P38" s="155"/>
+      <c r="Q38" s="143"/>
+      <c r="R38" s="143"/>
+      <c r="S38" s="143"/>
+      <c r="T38" s="144"/>
+    </row>
+    <row r="39" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="150" t="s">
         <v>223</v>
       </c>
-      <c r="B37" s="172"/>
-      <c r="C37" s="172"/>
-      <c r="D37" s="172"/>
-      <c r="E37" s="172"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="172"/>
-      <c r="K37" s="172"/>
-      <c r="L37" s="172"/>
-      <c r="M37" s="172"/>
-      <c r="N37" s="172"/>
-      <c r="O37" s="172"/>
-      <c r="P37" s="172"/>
-      <c r="Q37" s="144"/>
-      <c r="R37" s="144"/>
-      <c r="S37" s="144"/>
-      <c r="T37" s="145"/>
-    </row>
-    <row r="38" spans="1:31" s="146" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="167" t="s">
+      <c r="B39" s="150"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
+      <c r="N39" s="150"/>
+      <c r="O39" s="150"/>
+      <c r="P39" s="150"/>
+      <c r="Q39" s="143"/>
+      <c r="R39" s="143"/>
+      <c r="S39" s="143"/>
+      <c r="T39" s="144"/>
+    </row>
+    <row r="40" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="157" t="s">
         <v>224</v>
       </c>
-      <c r="B38" s="167"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="167"/>
-      <c r="F38" s="167"/>
-      <c r="G38" s="167"/>
-      <c r="H38" s="167"/>
-      <c r="I38" s="167"/>
-      <c r="J38" s="167"/>
-      <c r="K38" s="167"/>
-      <c r="L38" s="167"/>
-      <c r="M38" s="167"/>
-      <c r="N38" s="167"/>
-      <c r="O38" s="167"/>
-      <c r="P38" s="167"/>
-      <c r="Q38" s="144"/>
-      <c r="R38" s="144"/>
-      <c r="S38" s="144"/>
-      <c r="T38" s="145"/>
-    </row>
-    <row r="39" spans="1:31" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="168" t="s">
+      <c r="B40" s="157"/>
+      <c r="C40" s="157"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="157"/>
+      <c r="H40" s="157"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="157"/>
+      <c r="K40" s="157"/>
+      <c r="L40" s="157"/>
+      <c r="M40" s="157"/>
+      <c r="N40" s="157"/>
+      <c r="O40" s="157"/>
+      <c r="P40" s="157"/>
+      <c r="Q40" s="143"/>
+      <c r="R40" s="143"/>
+      <c r="S40" s="143"/>
+      <c r="T40" s="144"/>
+    </row>
+    <row r="41" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="157" t="s">
         <v>225</v>
       </c>
-      <c r="B39" s="168"/>
-      <c r="C39" s="168"/>
-      <c r="D39" s="168"/>
-      <c r="E39" s="168"/>
-      <c r="F39" s="168"/>
-      <c r="G39" s="168"/>
-      <c r="H39" s="168"/>
-      <c r="I39" s="168"/>
-      <c r="J39" s="168"/>
-      <c r="K39" s="168"/>
-      <c r="L39" s="168"/>
-      <c r="M39" s="168"/>
-      <c r="N39" s="168"/>
-      <c r="O39" s="168"/>
-      <c r="P39" s="168"/>
-      <c r="Q39" s="144"/>
-      <c r="R39" s="144"/>
-      <c r="S39" s="144"/>
-      <c r="T39" s="145"/>
-    </row>
-    <row r="40" spans="1:31" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="166" t="s">
+      <c r="B41" s="157"/>
+      <c r="C41" s="157"/>
+      <c r="D41" s="157"/>
+      <c r="E41" s="157"/>
+      <c r="F41" s="157"/>
+      <c r="G41" s="157"/>
+      <c r="H41" s="157"/>
+      <c r="I41" s="157"/>
+      <c r="J41" s="157"/>
+      <c r="K41" s="157"/>
+      <c r="L41" s="157"/>
+      <c r="M41" s="157"/>
+      <c r="N41" s="157"/>
+      <c r="O41" s="157"/>
+      <c r="P41" s="157"/>
+      <c r="Q41" s="143"/>
+      <c r="R41" s="143"/>
+      <c r="S41" s="143"/>
+      <c r="T41" s="144"/>
+    </row>
+    <row r="42" spans="1:31" s="145" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="155" t="s">
         <v>226</v>
       </c>
-      <c r="B40" s="166"/>
-      <c r="C40" s="166"/>
-      <c r="D40" s="166"/>
-      <c r="E40" s="166"/>
-      <c r="F40" s="166"/>
-      <c r="G40" s="166"/>
-      <c r="H40" s="166"/>
-      <c r="I40" s="166"/>
-      <c r="J40" s="166"/>
-      <c r="K40" s="166"/>
-      <c r="L40" s="166"/>
-      <c r="M40" s="166"/>
-      <c r="N40" s="166"/>
-      <c r="O40" s="166"/>
-      <c r="P40" s="166"/>
-      <c r="Q40" s="144"/>
-      <c r="R40" s="144"/>
-      <c r="S40" s="144"/>
-      <c r="T40" s="145"/>
-    </row>
-    <row r="41" spans="1:31" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="166" t="s">
+      <c r="B42" s="155"/>
+      <c r="C42" s="155"/>
+      <c r="D42" s="155"/>
+      <c r="E42" s="155"/>
+      <c r="F42" s="155"/>
+      <c r="G42" s="155"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="155"/>
+      <c r="K42" s="155"/>
+      <c r="L42" s="155"/>
+      <c r="M42" s="155"/>
+      <c r="N42" s="155"/>
+      <c r="O42" s="155"/>
+      <c r="P42" s="155"/>
+      <c r="T42" s="144"/>
+    </row>
+    <row r="43" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="150" t="s">
         <v>227</v>
       </c>
-      <c r="B41" s="166"/>
-      <c r="C41" s="166"/>
-      <c r="D41" s="166"/>
-      <c r="E41" s="166"/>
-      <c r="F41" s="166"/>
-      <c r="G41" s="166"/>
-      <c r="H41" s="166"/>
-      <c r="I41" s="166"/>
-      <c r="J41" s="166"/>
-      <c r="K41" s="166"/>
-      <c r="L41" s="166"/>
-      <c r="M41" s="166"/>
-      <c r="N41" s="166"/>
-      <c r="O41" s="166"/>
-      <c r="P41" s="166"/>
-      <c r="Q41" s="144"/>
-      <c r="R41" s="144"/>
-      <c r="S41" s="144"/>
-      <c r="T41" s="145"/>
-    </row>
-    <row r="42" spans="1:31" s="146" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="167" t="s">
+      <c r="B43" s="150"/>
+      <c r="C43" s="150"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
+      <c r="N43" s="150"/>
+      <c r="O43" s="150"/>
+      <c r="P43" s="150"/>
+      <c r="T43" s="144"/>
+    </row>
+    <row r="44" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="150" t="s">
         <v>228</v>
       </c>
-      <c r="B42" s="167"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
-      <c r="E42" s="167"/>
-      <c r="F42" s="167"/>
-      <c r="G42" s="167"/>
-      <c r="H42" s="167"/>
-      <c r="I42" s="167"/>
-      <c r="J42" s="167"/>
-      <c r="K42" s="167"/>
-      <c r="L42" s="167"/>
-      <c r="M42" s="167"/>
-      <c r="N42" s="167"/>
-      <c r="O42" s="167"/>
-      <c r="P42" s="167"/>
-      <c r="T42" s="145"/>
-    </row>
-    <row r="43" spans="1:31" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="168" t="s">
+      <c r="B44" s="150"/>
+      <c r="C44" s="150"/>
+      <c r="D44" s="150"/>
+      <c r="E44" s="150"/>
+      <c r="F44" s="150"/>
+      <c r="G44" s="150"/>
+      <c r="H44" s="150"/>
+      <c r="I44" s="150"/>
+      <c r="J44" s="150"/>
+      <c r="K44" s="150"/>
+      <c r="L44" s="150"/>
+      <c r="M44" s="150"/>
+      <c r="N44" s="150"/>
+      <c r="O44" s="150"/>
+      <c r="P44" s="150"/>
+      <c r="T44" s="144"/>
+    </row>
+    <row r="45" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="158" t="s">
         <v>229</v>
       </c>
-      <c r="B43" s="168"/>
-      <c r="C43" s="168"/>
-      <c r="D43" s="168"/>
-      <c r="E43" s="168"/>
-      <c r="F43" s="168"/>
-      <c r="G43" s="168"/>
-      <c r="H43" s="168"/>
-      <c r="I43" s="168"/>
-      <c r="J43" s="168"/>
-      <c r="K43" s="168"/>
-      <c r="L43" s="168"/>
-      <c r="M43" s="168"/>
-      <c r="N43" s="168"/>
-      <c r="O43" s="168"/>
-      <c r="P43" s="168"/>
-      <c r="T43" s="145"/>
-    </row>
-    <row r="44" spans="1:31" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="168" t="s">
+      <c r="B45" s="158"/>
+      <c r="C45" s="158"/>
+      <c r="D45" s="158"/>
+      <c r="E45" s="158"/>
+      <c r="F45" s="158"/>
+      <c r="G45" s="158"/>
+      <c r="H45" s="158"/>
+      <c r="I45" s="158"/>
+      <c r="J45" s="158"/>
+      <c r="K45" s="158"/>
+      <c r="L45" s="158"/>
+      <c r="M45" s="158"/>
+      <c r="N45" s="158"/>
+      <c r="O45" s="158"/>
+      <c r="P45" s="158"/>
+      <c r="T45" s="144"/>
+    </row>
+    <row r="46" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="157" t="s">
         <v>230</v>
       </c>
-      <c r="B44" s="168"/>
-      <c r="C44" s="168"/>
-      <c r="D44" s="168"/>
-      <c r="E44" s="168"/>
-      <c r="F44" s="168"/>
-      <c r="G44" s="168"/>
-      <c r="H44" s="168"/>
-      <c r="I44" s="168"/>
-      <c r="J44" s="168"/>
-      <c r="K44" s="168"/>
-      <c r="L44" s="168"/>
-      <c r="M44" s="168"/>
-      <c r="N44" s="168"/>
-      <c r="O44" s="168"/>
-      <c r="P44" s="168"/>
-      <c r="T44" s="145"/>
-    </row>
-    <row r="45" spans="1:31" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="159" t="s">
+      <c r="B46" s="157"/>
+      <c r="C46" s="157"/>
+      <c r="D46" s="157"/>
+      <c r="E46" s="157"/>
+      <c r="F46" s="157"/>
+      <c r="G46" s="157"/>
+      <c r="H46" s="157"/>
+      <c r="I46" s="157"/>
+      <c r="J46" s="157"/>
+      <c r="K46" s="157"/>
+      <c r="L46" s="157"/>
+      <c r="M46" s="157"/>
+      <c r="N46" s="157"/>
+      <c r="O46" s="157"/>
+      <c r="P46" s="157"/>
+      <c r="T46" s="144"/>
+    </row>
+    <row r="47" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="157" t="s">
         <v>231</v>
       </c>
-      <c r="B45" s="159"/>
-      <c r="C45" s="159"/>
-      <c r="D45" s="159"/>
-      <c r="E45" s="159"/>
-      <c r="F45" s="159"/>
-      <c r="G45" s="159"/>
-      <c r="H45" s="159"/>
-      <c r="I45" s="159"/>
-      <c r="J45" s="159"/>
-      <c r="K45" s="159"/>
-      <c r="L45" s="159"/>
-      <c r="M45" s="159"/>
-      <c r="N45" s="159"/>
-      <c r="O45" s="159"/>
-      <c r="P45" s="159"/>
-      <c r="T45" s="145"/>
-    </row>
-    <row r="46" spans="1:31" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="166" t="s">
+      <c r="B47" s="157"/>
+      <c r="C47" s="157"/>
+      <c r="D47" s="157"/>
+      <c r="E47" s="157"/>
+      <c r="F47" s="157"/>
+      <c r="G47" s="157"/>
+      <c r="H47" s="157"/>
+      <c r="I47" s="157"/>
+      <c r="J47" s="157"/>
+      <c r="K47" s="157"/>
+      <c r="L47" s="157"/>
+      <c r="M47" s="157"/>
+      <c r="N47" s="157"/>
+      <c r="O47" s="157"/>
+      <c r="P47" s="157"/>
+      <c r="T47" s="144"/>
+    </row>
+    <row r="48" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="157" t="s">
         <v>232</v>
       </c>
-      <c r="B46" s="166"/>
-      <c r="C46" s="166"/>
-      <c r="D46" s="166"/>
-      <c r="E46" s="166"/>
-      <c r="F46" s="166"/>
-      <c r="G46" s="166"/>
-      <c r="H46" s="166"/>
-      <c r="I46" s="166"/>
-      <c r="J46" s="166"/>
-      <c r="K46" s="166"/>
-      <c r="L46" s="166"/>
-      <c r="M46" s="166"/>
-      <c r="N46" s="166"/>
-      <c r="O46" s="166"/>
-      <c r="P46" s="166"/>
-      <c r="T46" s="145"/>
-    </row>
-    <row r="47" spans="1:31" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="166" t="s">
+      <c r="B48" s="157"/>
+      <c r="C48" s="157"/>
+      <c r="D48" s="157"/>
+      <c r="E48" s="157"/>
+      <c r="F48" s="157"/>
+      <c r="G48" s="157"/>
+      <c r="H48" s="157"/>
+      <c r="I48" s="157"/>
+      <c r="J48" s="157"/>
+      <c r="K48" s="157"/>
+      <c r="L48" s="157"/>
+      <c r="M48" s="157"/>
+      <c r="N48" s="157"/>
+      <c r="O48" s="157"/>
+      <c r="P48" s="157"/>
+      <c r="T48" s="144"/>
+    </row>
+    <row r="49" spans="1:20" s="145" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="157" t="s">
         <v>233</v>
       </c>
-      <c r="B47" s="166"/>
-      <c r="C47" s="166"/>
-      <c r="D47" s="166"/>
-      <c r="E47" s="166"/>
-      <c r="F47" s="166"/>
-      <c r="G47" s="166"/>
-      <c r="H47" s="166"/>
-      <c r="I47" s="166"/>
-      <c r="J47" s="166"/>
-      <c r="K47" s="166"/>
-      <c r="L47" s="166"/>
-      <c r="M47" s="166"/>
-      <c r="N47" s="166"/>
-      <c r="O47" s="166"/>
-      <c r="P47" s="166"/>
-      <c r="T47" s="145"/>
-    </row>
-    <row r="48" spans="1:31" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="166" t="s">
+      <c r="B49" s="157"/>
+      <c r="C49" s="157"/>
+      <c r="D49" s="157"/>
+      <c r="E49" s="157"/>
+      <c r="F49" s="157"/>
+      <c r="G49" s="157"/>
+      <c r="H49" s="157"/>
+      <c r="I49" s="157"/>
+      <c r="J49" s="157"/>
+      <c r="K49" s="157"/>
+      <c r="L49" s="157"/>
+      <c r="M49" s="157"/>
+      <c r="N49" s="157"/>
+      <c r="O49" s="157"/>
+      <c r="P49" s="157"/>
+      <c r="T49" s="144"/>
+    </row>
+    <row r="50" spans="1:20" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="157" t="s">
         <v>234</v>
       </c>
-      <c r="B48" s="166"/>
-      <c r="C48" s="166"/>
-      <c r="D48" s="166"/>
-      <c r="E48" s="166"/>
-      <c r="F48" s="166"/>
-      <c r="G48" s="166"/>
-      <c r="H48" s="166"/>
-      <c r="I48" s="166"/>
-      <c r="J48" s="166"/>
-      <c r="K48" s="166"/>
-      <c r="L48" s="166"/>
-      <c r="M48" s="166"/>
-      <c r="N48" s="166"/>
-      <c r="O48" s="166"/>
-      <c r="P48" s="166"/>
-      <c r="T48" s="145"/>
-    </row>
-    <row r="49" spans="1:20" s="146" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="166" t="s">
+      <c r="B50" s="157"/>
+      <c r="C50" s="157"/>
+      <c r="D50" s="157"/>
+      <c r="E50" s="157"/>
+      <c r="F50" s="157"/>
+      <c r="G50" s="157"/>
+      <c r="H50" s="157"/>
+      <c r="I50" s="157"/>
+      <c r="J50" s="157"/>
+      <c r="K50" s="157"/>
+      <c r="L50" s="157"/>
+      <c r="M50" s="157"/>
+      <c r="N50" s="157"/>
+      <c r="O50" s="157"/>
+      <c r="P50" s="157"/>
+      <c r="T50" s="144"/>
+    </row>
+    <row r="51" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="156"/>
+      <c r="B51" s="156"/>
+      <c r="C51" s="156"/>
+      <c r="D51" s="156"/>
+      <c r="E51" s="156"/>
+      <c r="F51" s="156"/>
+      <c r="G51" s="156"/>
+      <c r="H51" s="156"/>
+      <c r="I51" s="156"/>
+      <c r="J51" s="156"/>
+      <c r="K51" s="156"/>
+      <c r="L51" s="156"/>
+      <c r="M51" s="156"/>
+      <c r="N51" s="156"/>
+      <c r="O51" s="156"/>
+      <c r="P51" s="156"/>
+      <c r="T51" s="147"/>
+    </row>
+    <row r="52" spans="1:20" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="160" t="s">
         <v>235</v>
       </c>
-      <c r="B49" s="166"/>
-      <c r="C49" s="166"/>
-      <c r="D49" s="166"/>
-      <c r="E49" s="166"/>
-      <c r="F49" s="166"/>
-      <c r="G49" s="166"/>
-      <c r="H49" s="166"/>
-      <c r="I49" s="166"/>
-      <c r="J49" s="166"/>
-      <c r="K49" s="166"/>
-      <c r="L49" s="166"/>
-      <c r="M49" s="166"/>
-      <c r="N49" s="166"/>
-      <c r="O49" s="166"/>
-      <c r="P49" s="166"/>
-      <c r="T49" s="145"/>
-    </row>
-    <row r="50" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="166" t="s">
+      <c r="B52" s="160"/>
+      <c r="C52" s="160"/>
+      <c r="D52" s="160"/>
+      <c r="E52" s="160"/>
+      <c r="F52" s="160"/>
+      <c r="G52" s="160"/>
+      <c r="H52" s="160"/>
+      <c r="I52" s="160"/>
+      <c r="J52" s="160"/>
+      <c r="K52" s="160"/>
+      <c r="L52" s="160"/>
+      <c r="M52" s="160"/>
+      <c r="N52" s="160"/>
+      <c r="O52" s="160"/>
+      <c r="P52" s="160"/>
+      <c r="T52" s="144"/>
+    </row>
+    <row r="53" spans="1:20" s="145" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="158" t="s">
         <v>236</v>
       </c>
-      <c r="B50" s="166"/>
-      <c r="C50" s="166"/>
-      <c r="D50" s="166"/>
-      <c r="E50" s="166"/>
-      <c r="F50" s="166"/>
-      <c r="G50" s="166"/>
-      <c r="H50" s="166"/>
-      <c r="I50" s="166"/>
-      <c r="J50" s="166"/>
-      <c r="K50" s="166"/>
-      <c r="L50" s="166"/>
-      <c r="M50" s="166"/>
-      <c r="N50" s="166"/>
-      <c r="O50" s="166"/>
-      <c r="P50" s="166"/>
-      <c r="T50" s="145"/>
-    </row>
-    <row r="51" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="165"/>
-      <c r="B51" s="165"/>
-      <c r="C51" s="165"/>
-      <c r="D51" s="165"/>
-      <c r="E51" s="165"/>
-      <c r="F51" s="165"/>
-      <c r="G51" s="165"/>
-      <c r="H51" s="165"/>
-      <c r="I51" s="165"/>
-      <c r="J51" s="165"/>
-      <c r="K51" s="165"/>
-      <c r="L51" s="165"/>
-      <c r="M51" s="165"/>
-      <c r="N51" s="165"/>
-      <c r="O51" s="165"/>
-      <c r="P51" s="165"/>
-      <c r="T51" s="148"/>
-    </row>
-    <row r="52" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="158" t="s">
+      <c r="B53" s="158"/>
+      <c r="C53" s="158"/>
+      <c r="D53" s="158"/>
+      <c r="E53" s="158"/>
+      <c r="F53" s="158"/>
+      <c r="G53" s="158"/>
+      <c r="H53" s="158"/>
+      <c r="I53" s="158"/>
+      <c r="J53" s="158"/>
+      <c r="K53" s="158"/>
+      <c r="L53" s="158"/>
+      <c r="M53" s="158"/>
+      <c r="N53" s="158"/>
+      <c r="O53" s="158"/>
+      <c r="P53" s="158"/>
+      <c r="T53" s="144"/>
+    </row>
+    <row r="54" spans="1:20" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="161" t="s">
         <v>237</v>
       </c>
-      <c r="B52" s="158"/>
-      <c r="C52" s="158"/>
-      <c r="D52" s="158"/>
-      <c r="E52" s="158"/>
-      <c r="F52" s="158"/>
-      <c r="G52" s="158"/>
-      <c r="H52" s="158"/>
-      <c r="I52" s="158"/>
-      <c r="J52" s="158"/>
-      <c r="K52" s="158"/>
-      <c r="L52" s="158"/>
-      <c r="M52" s="158"/>
-      <c r="N52" s="158"/>
-      <c r="O52" s="158"/>
-      <c r="P52" s="158"/>
-      <c r="T52" s="145"/>
-    </row>
-    <row r="53" spans="1:20" s="146" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="159" t="s">
+      <c r="B54" s="161"/>
+      <c r="C54" s="161"/>
+      <c r="D54" s="161"/>
+      <c r="E54" s="161"/>
+      <c r="F54" s="161"/>
+      <c r="G54" s="161"/>
+      <c r="H54" s="161"/>
+      <c r="I54" s="161"/>
+      <c r="J54" s="161"/>
+      <c r="K54" s="161"/>
+      <c r="L54" s="161"/>
+      <c r="M54" s="161"/>
+      <c r="N54" s="161"/>
+      <c r="O54" s="161"/>
+      <c r="P54" s="161"/>
+      <c r="T54" s="144"/>
+    </row>
+    <row r="55" spans="1:20" s="145" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="162" t="s">
         <v>238</v>
       </c>
-      <c r="B53" s="159"/>
-      <c r="C53" s="159"/>
-      <c r="D53" s="159"/>
-      <c r="E53" s="159"/>
-      <c r="F53" s="159"/>
-      <c r="G53" s="159"/>
-      <c r="H53" s="159"/>
-      <c r="I53" s="159"/>
-      <c r="J53" s="159"/>
-      <c r="K53" s="159"/>
-      <c r="L53" s="159"/>
-      <c r="M53" s="159"/>
-      <c r="N53" s="159"/>
-      <c r="O53" s="159"/>
-      <c r="P53" s="159"/>
-      <c r="T53" s="145"/>
-    </row>
-    <row r="54" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="160" t="s">
+      <c r="B55" s="162"/>
+      <c r="C55" s="162"/>
+      <c r="D55" s="162"/>
+      <c r="E55" s="162"/>
+      <c r="F55" s="162"/>
+      <c r="G55" s="162"/>
+      <c r="H55" s="162"/>
+      <c r="I55" s="162"/>
+      <c r="J55" s="162"/>
+      <c r="K55" s="162"/>
+      <c r="L55" s="162"/>
+      <c r="M55" s="162"/>
+      <c r="N55" s="162"/>
+      <c r="O55" s="162"/>
+      <c r="P55" s="162"/>
+      <c r="T55" s="144"/>
+    </row>
+    <row r="56" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="161" t="s">
         <v>239</v>
       </c>
-      <c r="B54" s="160"/>
-      <c r="C54" s="160"/>
-      <c r="D54" s="160"/>
-      <c r="E54" s="160"/>
-      <c r="F54" s="160"/>
-      <c r="G54" s="160"/>
-      <c r="H54" s="160"/>
-      <c r="I54" s="160"/>
-      <c r="J54" s="160"/>
-      <c r="K54" s="160"/>
-      <c r="L54" s="160"/>
-      <c r="M54" s="160"/>
-      <c r="N54" s="160"/>
-      <c r="O54" s="160"/>
-      <c r="P54" s="160"/>
-      <c r="T54" s="145"/>
-    </row>
-    <row r="55" spans="1:20" s="146" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="161" t="s">
+      <c r="B56" s="161"/>
+      <c r="C56" s="161"/>
+      <c r="D56" s="161"/>
+      <c r="E56" s="161"/>
+      <c r="F56" s="161"/>
+      <c r="G56" s="161"/>
+      <c r="H56" s="161"/>
+      <c r="I56" s="161"/>
+      <c r="J56" s="161"/>
+      <c r="K56" s="161"/>
+      <c r="L56" s="161"/>
+      <c r="M56" s="161"/>
+      <c r="N56" s="161"/>
+      <c r="O56" s="161"/>
+      <c r="P56" s="161"/>
+      <c r="T56" s="147"/>
+    </row>
+    <row r="57" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="161" t="s">
         <v>240</v>
       </c>
-      <c r="B55" s="161"/>
-      <c r="C55" s="161"/>
-      <c r="D55" s="161"/>
-      <c r="E55" s="161"/>
-      <c r="F55" s="161"/>
-      <c r="G55" s="161"/>
-      <c r="H55" s="161"/>
-      <c r="I55" s="161"/>
-      <c r="J55" s="161"/>
-      <c r="K55" s="161"/>
-      <c r="L55" s="161"/>
-      <c r="M55" s="161"/>
-      <c r="N55" s="161"/>
-      <c r="O55" s="161"/>
-      <c r="P55" s="161"/>
-      <c r="T55" s="145"/>
-    </row>
-    <row r="56" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="160" t="s">
+      <c r="B57" s="161"/>
+      <c r="C57" s="161"/>
+      <c r="D57" s="161"/>
+      <c r="E57" s="161"/>
+      <c r="F57" s="161"/>
+      <c r="G57" s="161"/>
+      <c r="H57" s="161"/>
+      <c r="I57" s="161"/>
+      <c r="J57" s="161"/>
+      <c r="K57" s="161"/>
+      <c r="L57" s="161"/>
+      <c r="M57" s="161"/>
+      <c r="N57" s="161"/>
+      <c r="O57" s="161"/>
+      <c r="P57" s="161"/>
+      <c r="T57" s="147"/>
+    </row>
+    <row r="58" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="163"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
+      <c r="E58" s="163"/>
+      <c r="F58" s="163"/>
+      <c r="G58" s="163"/>
+      <c r="H58" s="163"/>
+      <c r="I58" s="163"/>
+      <c r="J58" s="163"/>
+      <c r="K58" s="163"/>
+      <c r="L58" s="163"/>
+      <c r="M58" s="163"/>
+      <c r="N58" s="163"/>
+      <c r="O58" s="163"/>
+      <c r="P58" s="163"/>
+      <c r="T58" s="147"/>
+    </row>
+    <row r="59" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="164" t="s">
         <v>241</v>
       </c>
-      <c r="B56" s="160"/>
-      <c r="C56" s="160"/>
-      <c r="D56" s="160"/>
-      <c r="E56" s="160"/>
-      <c r="F56" s="160"/>
-      <c r="G56" s="160"/>
-      <c r="H56" s="160"/>
-      <c r="I56" s="160"/>
-      <c r="J56" s="160"/>
-      <c r="K56" s="160"/>
-      <c r="L56" s="160"/>
-      <c r="M56" s="160"/>
-      <c r="N56" s="160"/>
-      <c r="O56" s="160"/>
-      <c r="P56" s="160"/>
-      <c r="T56" s="148"/>
-    </row>
-    <row r="57" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="160" t="s">
+      <c r="B59" s="164"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="164"/>
+      <c r="E59" s="164"/>
+      <c r="F59" s="164"/>
+      <c r="G59" s="164"/>
+      <c r="H59" s="164"/>
+      <c r="I59" s="164"/>
+      <c r="J59" s="164"/>
+      <c r="K59" s="164"/>
+      <c r="L59" s="164"/>
+      <c r="M59" s="164"/>
+      <c r="N59" s="164"/>
+      <c r="O59" s="164"/>
+      <c r="P59" s="164"/>
+      <c r="T59" s="147"/>
+    </row>
+    <row r="60" spans="1:20" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="164" t="s">
         <v>242</v>
       </c>
-      <c r="B57" s="160"/>
-      <c r="C57" s="160"/>
-      <c r="D57" s="160"/>
-      <c r="E57" s="160"/>
-      <c r="F57" s="160"/>
-      <c r="G57" s="160"/>
-      <c r="H57" s="160"/>
-      <c r="I57" s="160"/>
-      <c r="J57" s="160"/>
-      <c r="K57" s="160"/>
-      <c r="L57" s="160"/>
-      <c r="M57" s="160"/>
-      <c r="N57" s="160"/>
-      <c r="O57" s="160"/>
-      <c r="P57" s="160"/>
-      <c r="T57" s="148"/>
-    </row>
-    <row r="58" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="162"/>
-      <c r="B58" s="162"/>
-      <c r="C58" s="162"/>
-      <c r="D58" s="162"/>
-      <c r="E58" s="162"/>
-      <c r="F58" s="162"/>
-      <c r="G58" s="162"/>
-      <c r="H58" s="162"/>
-      <c r="I58" s="162"/>
-      <c r="J58" s="162"/>
-      <c r="K58" s="162"/>
-      <c r="L58" s="162"/>
-      <c r="M58" s="162"/>
-      <c r="N58" s="162"/>
-      <c r="O58" s="162"/>
-      <c r="P58" s="162"/>
-      <c r="T58" s="148"/>
-    </row>
-    <row r="59" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="163" t="s">
+      <c r="B60" s="164"/>
+      <c r="C60" s="164"/>
+      <c r="D60" s="164"/>
+      <c r="E60" s="164"/>
+      <c r="F60" s="164"/>
+      <c r="G60" s="164"/>
+      <c r="H60" s="164"/>
+      <c r="I60" s="164"/>
+      <c r="J60" s="164"/>
+      <c r="K60" s="164"/>
+      <c r="L60" s="164"/>
+      <c r="M60" s="164"/>
+      <c r="N60" s="164"/>
+      <c r="O60" s="164"/>
+      <c r="P60" s="164"/>
+      <c r="T60" s="144"/>
+    </row>
+    <row r="61" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="165" t="s">
         <v>243</v>
       </c>
-      <c r="B59" s="163"/>
-      <c r="C59" s="163"/>
-      <c r="D59" s="163"/>
-      <c r="E59" s="163"/>
-      <c r="F59" s="163"/>
-      <c r="G59" s="163"/>
-      <c r="H59" s="163"/>
-      <c r="I59" s="163"/>
-      <c r="J59" s="163"/>
-      <c r="K59" s="163"/>
-      <c r="L59" s="163"/>
-      <c r="M59" s="163"/>
-      <c r="N59" s="163"/>
-      <c r="O59" s="163"/>
-      <c r="P59" s="163"/>
-      <c r="T59" s="148"/>
-    </row>
-    <row r="60" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="163" t="s">
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
+      <c r="E61" s="165"/>
+      <c r="F61" s="165"/>
+      <c r="G61" s="165"/>
+      <c r="H61" s="165"/>
+      <c r="I61" s="165"/>
+      <c r="J61" s="165"/>
+      <c r="K61" s="165"/>
+      <c r="L61" s="165"/>
+      <c r="M61" s="165"/>
+      <c r="N61" s="165"/>
+      <c r="O61" s="165"/>
+      <c r="P61" s="165"/>
+      <c r="T61" s="147"/>
+    </row>
+    <row r="62" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="166" t="s">
         <v>244</v>
       </c>
-      <c r="B60" s="163"/>
-      <c r="C60" s="163"/>
-      <c r="D60" s="163"/>
-      <c r="E60" s="163"/>
-      <c r="F60" s="163"/>
-      <c r="G60" s="163"/>
-      <c r="H60" s="163"/>
-      <c r="I60" s="163"/>
-      <c r="J60" s="163"/>
-      <c r="K60" s="163"/>
-      <c r="L60" s="163"/>
-      <c r="M60" s="163"/>
-      <c r="N60" s="163"/>
-      <c r="O60" s="163"/>
-      <c r="P60" s="163"/>
-      <c r="T60" s="145"/>
-    </row>
-    <row r="61" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="151" t="s">
+      <c r="B62" s="166"/>
+      <c r="C62" s="166"/>
+      <c r="D62" s="166"/>
+      <c r="E62" s="166"/>
+      <c r="F62" s="166"/>
+      <c r="G62" s="166"/>
+      <c r="H62" s="166"/>
+      <c r="I62" s="166"/>
+      <c r="J62" s="166"/>
+      <c r="K62" s="166"/>
+      <c r="L62" s="166"/>
+      <c r="M62" s="166"/>
+      <c r="N62" s="166"/>
+      <c r="O62" s="166"/>
+      <c r="P62" s="166"/>
+      <c r="T62" s="147"/>
+    </row>
+    <row r="63" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="B61" s="151"/>
-      <c r="C61" s="151"/>
-      <c r="D61" s="151"/>
-      <c r="E61" s="151"/>
-      <c r="F61" s="151"/>
-      <c r="G61" s="151"/>
-      <c r="H61" s="151"/>
-      <c r="I61" s="151"/>
-      <c r="J61" s="151"/>
-      <c r="K61" s="151"/>
-      <c r="L61" s="151"/>
-      <c r="M61" s="151"/>
-      <c r="N61" s="151"/>
-      <c r="O61" s="151"/>
-      <c r="P61" s="151"/>
-      <c r="T61" s="148"/>
-    </row>
-    <row r="62" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="164" t="s">
+      <c r="B63" s="159"/>
+      <c r="C63" s="159"/>
+      <c r="D63" s="159"/>
+      <c r="E63" s="159"/>
+      <c r="F63" s="159"/>
+      <c r="G63" s="159"/>
+      <c r="H63" s="159"/>
+      <c r="I63" s="159"/>
+      <c r="J63" s="159"/>
+      <c r="K63" s="159"/>
+      <c r="L63" s="159"/>
+      <c r="M63" s="159"/>
+      <c r="N63" s="159"/>
+      <c r="O63" s="159"/>
+      <c r="P63" s="159"/>
+      <c r="T63" s="147"/>
+    </row>
+    <row r="64" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="159" t="s">
         <v>246</v>
       </c>
-      <c r="B62" s="164"/>
-      <c r="C62" s="164"/>
-      <c r="D62" s="164"/>
-      <c r="E62" s="164"/>
-      <c r="F62" s="164"/>
-      <c r="G62" s="164"/>
-      <c r="H62" s="164"/>
-      <c r="I62" s="164"/>
-      <c r="J62" s="164"/>
-      <c r="K62" s="164"/>
-      <c r="L62" s="164"/>
-      <c r="M62" s="164"/>
-      <c r="N62" s="164"/>
-      <c r="O62" s="164"/>
-      <c r="P62" s="164"/>
-      <c r="T62" s="148"/>
-    </row>
-    <row r="63" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="152" t="s">
+      <c r="B64" s="159"/>
+      <c r="C64" s="159"/>
+      <c r="D64" s="159"/>
+      <c r="E64" s="159"/>
+      <c r="F64" s="159"/>
+      <c r="G64" s="159"/>
+      <c r="H64" s="159"/>
+      <c r="I64" s="159"/>
+      <c r="J64" s="159"/>
+      <c r="K64" s="159"/>
+      <c r="L64" s="159"/>
+      <c r="M64" s="159"/>
+      <c r="N64" s="159"/>
+      <c r="O64" s="159"/>
+      <c r="P64" s="159"/>
+      <c r="T64" s="147"/>
+    </row>
+    <row r="65" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="159" t="s">
         <v>247</v>
       </c>
-      <c r="B63" s="152"/>
-      <c r="C63" s="152"/>
-      <c r="D63" s="152"/>
-      <c r="E63" s="152"/>
-      <c r="F63" s="152"/>
-      <c r="G63" s="152"/>
-      <c r="H63" s="152"/>
-      <c r="I63" s="152"/>
-      <c r="J63" s="152"/>
-      <c r="K63" s="152"/>
-      <c r="L63" s="152"/>
-      <c r="M63" s="152"/>
-      <c r="N63" s="152"/>
-      <c r="O63" s="152"/>
-      <c r="P63" s="152"/>
-      <c r="T63" s="148"/>
-    </row>
-    <row r="64" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="152" t="s">
+      <c r="B65" s="159"/>
+      <c r="C65" s="159"/>
+      <c r="D65" s="159"/>
+      <c r="E65" s="159"/>
+      <c r="F65" s="159"/>
+      <c r="G65" s="159"/>
+      <c r="H65" s="159"/>
+      <c r="I65" s="159"/>
+      <c r="J65" s="159"/>
+      <c r="K65" s="159"/>
+      <c r="L65" s="159"/>
+      <c r="M65" s="159"/>
+      <c r="N65" s="159"/>
+      <c r="O65" s="159"/>
+      <c r="P65" s="159"/>
+      <c r="T65" s="147"/>
+    </row>
+    <row r="66" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="159" t="s">
         <v>248</v>
       </c>
-      <c r="B64" s="152"/>
-      <c r="C64" s="152"/>
-      <c r="D64" s="152"/>
-      <c r="E64" s="152"/>
-      <c r="F64" s="152"/>
-      <c r="G64" s="152"/>
-      <c r="H64" s="152"/>
-      <c r="I64" s="152"/>
-      <c r="J64" s="152"/>
-      <c r="K64" s="152"/>
-      <c r="L64" s="152"/>
-      <c r="M64" s="152"/>
-      <c r="N64" s="152"/>
-      <c r="O64" s="152"/>
-      <c r="P64" s="152"/>
-      <c r="T64" s="148"/>
-    </row>
-    <row r="65" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="152" t="s">
+      <c r="B66" s="159"/>
+      <c r="C66" s="159"/>
+      <c r="D66" s="159"/>
+      <c r="E66" s="159"/>
+      <c r="F66" s="159"/>
+      <c r="G66" s="159"/>
+      <c r="H66" s="159"/>
+      <c r="I66" s="159"/>
+      <c r="J66" s="159"/>
+      <c r="K66" s="159"/>
+      <c r="L66" s="159"/>
+      <c r="M66" s="159"/>
+      <c r="N66" s="159"/>
+      <c r="O66" s="159"/>
+      <c r="P66" s="159"/>
+      <c r="T66" s="147"/>
+    </row>
+    <row r="67" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="159" t="s">
         <v>249</v>
       </c>
-      <c r="B65" s="152"/>
-      <c r="C65" s="152"/>
-      <c r="D65" s="152"/>
-      <c r="E65" s="152"/>
-      <c r="F65" s="152"/>
-      <c r="G65" s="152"/>
-      <c r="H65" s="152"/>
-      <c r="I65" s="152"/>
-      <c r="J65" s="152"/>
-      <c r="K65" s="152"/>
-      <c r="L65" s="152"/>
-      <c r="M65" s="152"/>
-      <c r="N65" s="152"/>
-      <c r="O65" s="152"/>
-      <c r="P65" s="152"/>
-      <c r="T65" s="148"/>
-    </row>
-    <row r="66" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="152" t="s">
+      <c r="B67" s="159"/>
+      <c r="C67" s="159"/>
+      <c r="D67" s="159"/>
+      <c r="E67" s="159"/>
+      <c r="F67" s="159"/>
+      <c r="G67" s="159"/>
+      <c r="H67" s="159"/>
+      <c r="I67" s="159"/>
+      <c r="J67" s="159"/>
+      <c r="K67" s="159"/>
+      <c r="L67" s="159"/>
+      <c r="M67" s="159"/>
+      <c r="N67" s="159"/>
+      <c r="O67" s="159"/>
+      <c r="P67" s="159"/>
+      <c r="T67" s="147"/>
+    </row>
+    <row r="68" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="165" t="s">
         <v>250</v>
       </c>
-      <c r="B66" s="152"/>
-      <c r="C66" s="152"/>
-      <c r="D66" s="152"/>
-      <c r="E66" s="152"/>
-      <c r="F66" s="152"/>
-      <c r="G66" s="152"/>
-      <c r="H66" s="152"/>
-      <c r="I66" s="152"/>
-      <c r="J66" s="152"/>
-      <c r="K66" s="152"/>
-      <c r="L66" s="152"/>
-      <c r="M66" s="152"/>
-      <c r="N66" s="152"/>
-      <c r="O66" s="152"/>
-      <c r="P66" s="152"/>
-      <c r="T66" s="148"/>
-    </row>
-    <row r="67" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="152" t="s">
+      <c r="B68" s="165"/>
+      <c r="C68" s="165"/>
+      <c r="D68" s="165"/>
+      <c r="E68" s="165"/>
+      <c r="F68" s="165"/>
+      <c r="G68" s="165"/>
+      <c r="H68" s="165"/>
+      <c r="I68" s="165"/>
+      <c r="J68" s="165"/>
+      <c r="K68" s="165"/>
+      <c r="L68" s="165"/>
+      <c r="M68" s="165"/>
+      <c r="N68" s="165"/>
+      <c r="O68" s="165"/>
+      <c r="P68" s="165"/>
+      <c r="T68" s="147"/>
+    </row>
+    <row r="69" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="159" t="s">
         <v>251</v>
       </c>
-      <c r="B67" s="152"/>
-      <c r="C67" s="152"/>
-      <c r="D67" s="152"/>
-      <c r="E67" s="152"/>
-      <c r="F67" s="152"/>
-      <c r="G67" s="152"/>
-      <c r="H67" s="152"/>
-      <c r="I67" s="152"/>
-      <c r="J67" s="152"/>
-      <c r="K67" s="152"/>
-      <c r="L67" s="152"/>
-      <c r="M67" s="152"/>
-      <c r="N67" s="152"/>
-      <c r="O67" s="152"/>
-      <c r="P67" s="152"/>
-      <c r="T67" s="148"/>
-    </row>
-    <row r="68" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="151" t="s">
+      <c r="B69" s="159"/>
+      <c r="C69" s="159"/>
+      <c r="D69" s="159"/>
+      <c r="E69" s="159"/>
+      <c r="F69" s="159"/>
+      <c r="G69" s="159"/>
+      <c r="H69" s="159"/>
+      <c r="I69" s="159"/>
+      <c r="J69" s="159"/>
+      <c r="K69" s="159"/>
+      <c r="L69" s="159"/>
+      <c r="M69" s="159"/>
+      <c r="N69" s="159"/>
+      <c r="O69" s="159"/>
+      <c r="P69" s="159"/>
+      <c r="T69" s="147"/>
+    </row>
+    <row r="70" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="159" t="s">
         <v>252</v>
       </c>
-      <c r="B68" s="151"/>
-      <c r="C68" s="151"/>
-      <c r="D68" s="151"/>
-      <c r="E68" s="151"/>
-      <c r="F68" s="151"/>
-      <c r="G68" s="151"/>
-      <c r="H68" s="151"/>
-      <c r="I68" s="151"/>
-      <c r="J68" s="151"/>
-      <c r="K68" s="151"/>
-      <c r="L68" s="151"/>
-      <c r="M68" s="151"/>
-      <c r="N68" s="151"/>
-      <c r="O68" s="151"/>
-      <c r="P68" s="151"/>
-      <c r="T68" s="148"/>
-    </row>
-    <row r="69" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="152" t="s">
+      <c r="B70" s="159"/>
+      <c r="C70" s="159"/>
+      <c r="D70" s="159"/>
+      <c r="E70" s="159"/>
+      <c r="F70" s="159"/>
+      <c r="G70" s="159"/>
+      <c r="H70" s="159"/>
+      <c r="I70" s="159"/>
+      <c r="J70" s="159"/>
+      <c r="K70" s="159"/>
+      <c r="L70" s="159"/>
+      <c r="M70" s="159"/>
+      <c r="N70" s="159"/>
+      <c r="O70" s="159"/>
+      <c r="P70" s="159"/>
+      <c r="T70" s="147"/>
+    </row>
+    <row r="71" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="159" t="s">
         <v>253</v>
       </c>
-      <c r="B69" s="152"/>
-      <c r="C69" s="152"/>
-      <c r="D69" s="152"/>
-      <c r="E69" s="152"/>
-      <c r="F69" s="152"/>
-      <c r="G69" s="152"/>
-      <c r="H69" s="152"/>
-      <c r="I69" s="152"/>
-      <c r="J69" s="152"/>
-      <c r="K69" s="152"/>
-      <c r="L69" s="152"/>
-      <c r="M69" s="152"/>
-      <c r="N69" s="152"/>
-      <c r="O69" s="152"/>
-      <c r="P69" s="152"/>
-      <c r="T69" s="148"/>
-    </row>
-    <row r="70" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="152" t="s">
+      <c r="B71" s="159"/>
+      <c r="C71" s="159"/>
+      <c r="D71" s="159"/>
+      <c r="E71" s="159"/>
+      <c r="F71" s="159"/>
+      <c r="G71" s="159"/>
+      <c r="H71" s="159"/>
+      <c r="I71" s="159"/>
+      <c r="J71" s="159"/>
+      <c r="K71" s="159"/>
+      <c r="L71" s="159"/>
+      <c r="M71" s="159"/>
+      <c r="N71" s="159"/>
+      <c r="O71" s="159"/>
+      <c r="P71" s="159"/>
+      <c r="T71" s="147"/>
+    </row>
+    <row r="72" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="159" t="s">
         <v>254</v>
       </c>
-      <c r="B70" s="152"/>
-      <c r="C70" s="152"/>
-      <c r="D70" s="152"/>
-      <c r="E70" s="152"/>
-      <c r="F70" s="152"/>
-      <c r="G70" s="152"/>
-      <c r="H70" s="152"/>
-      <c r="I70" s="152"/>
-      <c r="J70" s="152"/>
-      <c r="K70" s="152"/>
-      <c r="L70" s="152"/>
-      <c r="M70" s="152"/>
-      <c r="N70" s="152"/>
-      <c r="O70" s="152"/>
-      <c r="P70" s="152"/>
-      <c r="T70" s="148"/>
-    </row>
-    <row r="71" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="152" t="s">
+      <c r="B72" s="159"/>
+      <c r="C72" s="159"/>
+      <c r="D72" s="159"/>
+      <c r="E72" s="159"/>
+      <c r="F72" s="159"/>
+      <c r="G72" s="159"/>
+      <c r="H72" s="159"/>
+      <c r="I72" s="159"/>
+      <c r="J72" s="159"/>
+      <c r="K72" s="159"/>
+      <c r="L72" s="159"/>
+      <c r="M72" s="159"/>
+      <c r="N72" s="159"/>
+      <c r="O72" s="159"/>
+      <c r="P72" s="159"/>
+      <c r="T72" s="147"/>
+    </row>
+    <row r="73" spans="1:20" s="146" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="159" t="s">
         <v>255</v>
       </c>
-      <c r="B71" s="152"/>
-      <c r="C71" s="152"/>
-      <c r="D71" s="152"/>
-      <c r="E71" s="152"/>
-      <c r="F71" s="152"/>
-      <c r="G71" s="152"/>
-      <c r="H71" s="152"/>
-      <c r="I71" s="152"/>
-      <c r="J71" s="152"/>
-      <c r="K71" s="152"/>
-      <c r="L71" s="152"/>
-      <c r="M71" s="152"/>
-      <c r="N71" s="152"/>
-      <c r="O71" s="152"/>
-      <c r="P71" s="152"/>
-      <c r="T71" s="148"/>
-    </row>
-    <row r="72" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="152" t="s">
+      <c r="B73" s="159"/>
+      <c r="C73" s="159"/>
+      <c r="D73" s="159"/>
+      <c r="E73" s="159"/>
+      <c r="F73" s="159"/>
+      <c r="G73" s="159"/>
+      <c r="H73" s="159"/>
+      <c r="I73" s="159"/>
+      <c r="J73" s="159"/>
+      <c r="K73" s="159"/>
+      <c r="L73" s="159"/>
+      <c r="M73" s="159"/>
+      <c r="N73" s="159"/>
+      <c r="O73" s="159"/>
+      <c r="P73" s="159"/>
+      <c r="T73" s="147"/>
+    </row>
+    <row r="74" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="167" t="s">
         <v>256</v>
       </c>
-      <c r="B72" s="152"/>
-      <c r="C72" s="152"/>
-      <c r="D72" s="152"/>
-      <c r="E72" s="152"/>
-      <c r="F72" s="152"/>
-      <c r="G72" s="152"/>
-      <c r="H72" s="152"/>
-      <c r="I72" s="152"/>
-      <c r="J72" s="152"/>
-      <c r="K72" s="152"/>
-      <c r="L72" s="152"/>
-      <c r="M72" s="152"/>
-      <c r="N72" s="152"/>
-      <c r="O72" s="152"/>
-      <c r="P72" s="152"/>
-      <c r="T72" s="148"/>
-    </row>
-    <row r="73" spans="1:20" s="147" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="152" t="s">
+      <c r="B74" s="167"/>
+      <c r="C74" s="167"/>
+      <c r="D74" s="167"/>
+      <c r="E74" s="167"/>
+      <c r="F74" s="167"/>
+      <c r="G74" s="167"/>
+      <c r="H74" s="167"/>
+      <c r="I74" s="167"/>
+      <c r="J74" s="167"/>
+      <c r="K74" s="167"/>
+      <c r="L74" s="167"/>
+      <c r="M74" s="167"/>
+      <c r="N74" s="167"/>
+      <c r="O74" s="167"/>
+      <c r="P74" s="167"/>
+      <c r="T74" s="147"/>
+    </row>
+    <row r="75" spans="1:20" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="165" t="s">
         <v>257</v>
       </c>
-      <c r="B73" s="152"/>
-      <c r="C73" s="152"/>
-      <c r="D73" s="152"/>
-      <c r="E73" s="152"/>
-      <c r="F73" s="152"/>
-      <c r="G73" s="152"/>
-      <c r="H73" s="152"/>
-      <c r="I73" s="152"/>
-      <c r="J73" s="152"/>
-      <c r="K73" s="152"/>
-      <c r="L73" s="152"/>
-      <c r="M73" s="152"/>
-      <c r="N73" s="152"/>
-      <c r="O73" s="152"/>
-      <c r="P73" s="152"/>
-      <c r="T73" s="148"/>
-    </row>
-    <row r="74" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="153" t="s">
+      <c r="B75" s="165"/>
+      <c r="C75" s="165"/>
+      <c r="D75" s="165"/>
+      <c r="E75" s="165"/>
+      <c r="F75" s="165"/>
+      <c r="G75" s="165"/>
+      <c r="H75" s="165"/>
+      <c r="I75" s="165"/>
+      <c r="J75" s="165"/>
+      <c r="K75" s="165"/>
+      <c r="L75" s="165"/>
+      <c r="M75" s="165"/>
+      <c r="N75" s="165"/>
+      <c r="O75" s="165"/>
+      <c r="P75" s="165"/>
+      <c r="T75" s="144"/>
+    </row>
+    <row r="76" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="169" t="s">
         <v>258</v>
       </c>
-      <c r="B74" s="153"/>
-      <c r="C74" s="153"/>
-      <c r="D74" s="153"/>
-      <c r="E74" s="153"/>
-      <c r="F74" s="153"/>
-      <c r="G74" s="153"/>
-      <c r="H74" s="153"/>
-      <c r="I74" s="153"/>
-      <c r="J74" s="153"/>
-      <c r="K74" s="153"/>
-      <c r="L74" s="153"/>
-      <c r="M74" s="153"/>
-      <c r="N74" s="153"/>
-      <c r="O74" s="153"/>
-      <c r="P74" s="153"/>
-      <c r="T74" s="148"/>
-    </row>
-    <row r="75" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="151" t="s">
+      <c r="B76" s="169"/>
+      <c r="C76" s="169"/>
+      <c r="D76" s="169"/>
+      <c r="E76" s="169"/>
+      <c r="F76" s="169"/>
+      <c r="G76" s="169"/>
+      <c r="H76" s="169"/>
+      <c r="I76" s="169"/>
+      <c r="J76" s="169"/>
+      <c r="K76" s="169"/>
+      <c r="L76" s="169"/>
+      <c r="M76" s="169"/>
+      <c r="N76" s="169"/>
+      <c r="O76" s="169"/>
+      <c r="P76" s="169"/>
+      <c r="T76" s="147"/>
+    </row>
+    <row r="77" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="168" t="s">
         <v>259</v>
       </c>
-      <c r="B75" s="151"/>
-      <c r="C75" s="151"/>
-      <c r="D75" s="151"/>
-      <c r="E75" s="151"/>
-      <c r="F75" s="151"/>
-      <c r="G75" s="151"/>
-      <c r="H75" s="151"/>
-      <c r="I75" s="151"/>
-      <c r="J75" s="151"/>
-      <c r="K75" s="151"/>
-      <c r="L75" s="151"/>
-      <c r="M75" s="151"/>
-      <c r="N75" s="151"/>
-      <c r="O75" s="151"/>
-      <c r="P75" s="151"/>
-      <c r="T75" s="145"/>
-    </row>
-    <row r="76" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="154" t="s">
+      <c r="B77" s="168"/>
+      <c r="C77" s="168"/>
+      <c r="D77" s="168"/>
+      <c r="E77" s="168"/>
+      <c r="F77" s="168"/>
+      <c r="G77" s="168"/>
+      <c r="H77" s="168"/>
+      <c r="I77" s="168"/>
+      <c r="J77" s="168"/>
+      <c r="K77" s="168"/>
+      <c r="L77" s="168"/>
+      <c r="M77" s="168"/>
+      <c r="N77" s="168"/>
+      <c r="O77" s="168"/>
+      <c r="P77" s="168"/>
+      <c r="T77" s="147"/>
+    </row>
+    <row r="78" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="170" t="s">
         <v>260</v>
       </c>
-      <c r="B76" s="154"/>
-      <c r="C76" s="154"/>
-      <c r="D76" s="154"/>
-      <c r="E76" s="154"/>
-      <c r="F76" s="154"/>
-      <c r="G76" s="154"/>
-      <c r="H76" s="154"/>
-      <c r="I76" s="154"/>
-      <c r="J76" s="154"/>
-      <c r="K76" s="154"/>
-      <c r="L76" s="154"/>
-      <c r="M76" s="154"/>
-      <c r="N76" s="154"/>
-      <c r="O76" s="154"/>
-      <c r="P76" s="154"/>
-      <c r="T76" s="148"/>
-    </row>
-    <row r="77" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="156" t="s">
+      <c r="B78" s="170"/>
+      <c r="C78" s="170"/>
+      <c r="D78" s="170"/>
+      <c r="E78" s="170"/>
+      <c r="F78" s="170"/>
+      <c r="G78" s="170"/>
+      <c r="H78" s="170"/>
+      <c r="I78" s="170"/>
+      <c r="J78" s="170"/>
+      <c r="K78" s="170"/>
+      <c r="L78" s="170"/>
+      <c r="M78" s="170"/>
+      <c r="N78" s="170"/>
+      <c r="O78" s="170"/>
+      <c r="P78" s="170"/>
+      <c r="T78" s="147"/>
+    </row>
+    <row r="79" spans="1:20" s="146" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="168" t="s">
         <v>261</v>
       </c>
-      <c r="B77" s="156"/>
-      <c r="C77" s="156"/>
-      <c r="D77" s="156"/>
-      <c r="E77" s="156"/>
-      <c r="F77" s="156"/>
-      <c r="G77" s="156"/>
-      <c r="H77" s="156"/>
-      <c r="I77" s="156"/>
-      <c r="J77" s="156"/>
-      <c r="K77" s="156"/>
-      <c r="L77" s="156"/>
-      <c r="M77" s="156"/>
-      <c r="N77" s="156"/>
-      <c r="O77" s="156"/>
-      <c r="P77" s="156"/>
-      <c r="T77" s="148"/>
-    </row>
-    <row r="78" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="157" t="s">
+      <c r="B79" s="168"/>
+      <c r="C79" s="168"/>
+      <c r="D79" s="168"/>
+      <c r="E79" s="168"/>
+      <c r="F79" s="168"/>
+      <c r="G79" s="168"/>
+      <c r="H79" s="168"/>
+      <c r="I79" s="168"/>
+      <c r="J79" s="168"/>
+      <c r="K79" s="168"/>
+      <c r="L79" s="168"/>
+      <c r="M79" s="168"/>
+      <c r="N79" s="168"/>
+      <c r="O79" s="168"/>
+      <c r="P79" s="168"/>
+      <c r="T79" s="147"/>
+    </row>
+    <row r="80" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="165" t="s">
         <v>262</v>
       </c>
-      <c r="B78" s="157"/>
-      <c r="C78" s="157"/>
-      <c r="D78" s="157"/>
-      <c r="E78" s="157"/>
-      <c r="F78" s="157"/>
-      <c r="G78" s="157"/>
-      <c r="H78" s="157"/>
-      <c r="I78" s="157"/>
-      <c r="J78" s="157"/>
-      <c r="K78" s="157"/>
-      <c r="L78" s="157"/>
-      <c r="M78" s="157"/>
-      <c r="N78" s="157"/>
-      <c r="O78" s="157"/>
-      <c r="P78" s="157"/>
-      <c r="T78" s="148"/>
-    </row>
-    <row r="79" spans="1:20" s="147" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="156" t="s">
+      <c r="B80" s="165"/>
+      <c r="C80" s="165"/>
+      <c r="D80" s="165"/>
+      <c r="E80" s="165"/>
+      <c r="F80" s="165"/>
+      <c r="G80" s="165"/>
+      <c r="H80" s="165"/>
+      <c r="I80" s="165"/>
+      <c r="J80" s="165"/>
+      <c r="K80" s="165"/>
+      <c r="L80" s="165"/>
+      <c r="M80" s="165"/>
+      <c r="N80" s="165"/>
+      <c r="O80" s="165"/>
+      <c r="P80" s="165"/>
+      <c r="T80" s="147"/>
+    </row>
+    <row r="81" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="169" t="s">
         <v>263</v>
       </c>
-      <c r="B79" s="156"/>
-      <c r="C79" s="156"/>
-      <c r="D79" s="156"/>
-      <c r="E79" s="156"/>
-      <c r="F79" s="156"/>
-      <c r="G79" s="156"/>
-      <c r="H79" s="156"/>
-      <c r="I79" s="156"/>
-      <c r="J79" s="156"/>
-      <c r="K79" s="156"/>
-      <c r="L79" s="156"/>
-      <c r="M79" s="156"/>
-      <c r="N79" s="156"/>
-      <c r="O79" s="156"/>
-      <c r="P79" s="156"/>
-      <c r="T79" s="148"/>
-    </row>
-    <row r="80" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="151" t="s">
+      <c r="B81" s="169"/>
+      <c r="C81" s="169"/>
+      <c r="D81" s="169"/>
+      <c r="E81" s="169"/>
+      <c r="F81" s="169"/>
+      <c r="G81" s="169"/>
+      <c r="H81" s="169"/>
+      <c r="I81" s="169"/>
+      <c r="J81" s="169"/>
+      <c r="K81" s="169"/>
+      <c r="L81" s="169"/>
+      <c r="M81" s="169"/>
+      <c r="N81" s="169"/>
+      <c r="O81" s="169"/>
+      <c r="P81" s="169"/>
+      <c r="T81" s="147"/>
+    </row>
+    <row r="82" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="168" t="s">
         <v>264</v>
       </c>
-      <c r="B80" s="151"/>
-      <c r="C80" s="151"/>
-      <c r="D80" s="151"/>
-      <c r="E80" s="151"/>
-      <c r="F80" s="151"/>
-      <c r="G80" s="151"/>
-      <c r="H80" s="151"/>
-      <c r="I80" s="151"/>
-      <c r="J80" s="151"/>
-      <c r="K80" s="151"/>
-      <c r="L80" s="151"/>
-      <c r="M80" s="151"/>
-      <c r="N80" s="151"/>
-      <c r="O80" s="151"/>
-      <c r="P80" s="151"/>
-      <c r="T80" s="148"/>
-    </row>
-    <row r="81" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="154" t="s">
+      <c r="B82" s="168"/>
+      <c r="C82" s="168"/>
+      <c r="D82" s="168"/>
+      <c r="E82" s="168"/>
+      <c r="F82" s="168"/>
+      <c r="G82" s="168"/>
+      <c r="H82" s="168"/>
+      <c r="I82" s="168"/>
+      <c r="J82" s="168"/>
+      <c r="K82" s="168"/>
+      <c r="L82" s="168"/>
+      <c r="M82" s="168"/>
+      <c r="N82" s="168"/>
+      <c r="O82" s="168"/>
+      <c r="P82" s="168"/>
+      <c r="T82" s="147"/>
+    </row>
+    <row r="83" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="165" t="s">
         <v>265</v>
       </c>
-      <c r="B81" s="154"/>
-      <c r="C81" s="154"/>
-      <c r="D81" s="154"/>
-      <c r="E81" s="154"/>
-      <c r="F81" s="154"/>
-      <c r="G81" s="154"/>
-      <c r="H81" s="154"/>
-      <c r="I81" s="154"/>
-      <c r="J81" s="154"/>
-      <c r="K81" s="154"/>
-      <c r="L81" s="154"/>
-      <c r="M81" s="154"/>
-      <c r="N81" s="154"/>
-      <c r="O81" s="154"/>
-      <c r="P81" s="154"/>
-      <c r="T81" s="148"/>
-    </row>
-    <row r="82" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="156" t="s">
+      <c r="B83" s="165"/>
+      <c r="C83" s="165"/>
+      <c r="D83" s="165"/>
+      <c r="E83" s="165"/>
+      <c r="F83" s="165"/>
+      <c r="G83" s="165"/>
+      <c r="H83" s="165"/>
+      <c r="I83" s="165"/>
+      <c r="J83" s="165"/>
+      <c r="K83" s="165"/>
+      <c r="L83" s="165"/>
+      <c r="M83" s="165"/>
+      <c r="N83" s="165"/>
+      <c r="O83" s="165"/>
+      <c r="P83" s="165"/>
+      <c r="T83" s="147"/>
+    </row>
+    <row r="84" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="169" t="s">
         <v>266</v>
       </c>
-      <c r="B82" s="156"/>
-      <c r="C82" s="156"/>
-      <c r="D82" s="156"/>
-      <c r="E82" s="156"/>
-      <c r="F82" s="156"/>
-      <c r="G82" s="156"/>
-      <c r="H82" s="156"/>
-      <c r="I82" s="156"/>
-      <c r="J82" s="156"/>
-      <c r="K82" s="156"/>
-      <c r="L82" s="156"/>
-      <c r="M82" s="156"/>
-      <c r="N82" s="156"/>
-      <c r="O82" s="156"/>
-      <c r="P82" s="156"/>
-      <c r="T82" s="148"/>
-    </row>
-    <row r="83" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="151" t="s">
+      <c r="B84" s="169"/>
+      <c r="C84" s="169"/>
+      <c r="D84" s="169"/>
+      <c r="E84" s="169"/>
+      <c r="F84" s="169"/>
+      <c r="G84" s="169"/>
+      <c r="H84" s="169"/>
+      <c r="I84" s="169"/>
+      <c r="J84" s="169"/>
+      <c r="K84" s="169"/>
+      <c r="L84" s="169"/>
+      <c r="M84" s="169"/>
+      <c r="N84" s="169"/>
+      <c r="O84" s="169"/>
+      <c r="P84" s="169"/>
+      <c r="T84" s="147"/>
+    </row>
+    <row r="85" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="168" t="s">
+        <v>259</v>
+      </c>
+      <c r="B85" s="168"/>
+      <c r="C85" s="168"/>
+      <c r="D85" s="168"/>
+      <c r="E85" s="168"/>
+      <c r="F85" s="168"/>
+      <c r="G85" s="168"/>
+      <c r="H85" s="168"/>
+      <c r="I85" s="168"/>
+      <c r="J85" s="168"/>
+      <c r="K85" s="168"/>
+      <c r="L85" s="168"/>
+      <c r="M85" s="168"/>
+      <c r="N85" s="168"/>
+      <c r="O85" s="168"/>
+      <c r="P85" s="168"/>
+      <c r="T85" s="147"/>
+    </row>
+    <row r="86" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="170" t="s">
         <v>267</v>
       </c>
-      <c r="B83" s="151"/>
-      <c r="C83" s="151"/>
-      <c r="D83" s="151"/>
-      <c r="E83" s="151"/>
-      <c r="F83" s="151"/>
-      <c r="G83" s="151"/>
-      <c r="H83" s="151"/>
-      <c r="I83" s="151"/>
-      <c r="J83" s="151"/>
-      <c r="K83" s="151"/>
-      <c r="L83" s="151"/>
-      <c r="M83" s="151"/>
-      <c r="N83" s="151"/>
-      <c r="O83" s="151"/>
-      <c r="P83" s="151"/>
-      <c r="T83" s="148"/>
-    </row>
-    <row r="84" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="154" t="s">
+      <c r="B86" s="170"/>
+      <c r="C86" s="170"/>
+      <c r="D86" s="170"/>
+      <c r="E86" s="170"/>
+      <c r="F86" s="170"/>
+      <c r="G86" s="170"/>
+      <c r="H86" s="170"/>
+      <c r="I86" s="170"/>
+      <c r="J86" s="170"/>
+      <c r="K86" s="170"/>
+      <c r="L86" s="170"/>
+      <c r="M86" s="170"/>
+      <c r="N86" s="170"/>
+      <c r="O86" s="170"/>
+      <c r="P86" s="170"/>
+      <c r="T86" s="147"/>
+    </row>
+    <row r="87" spans="1:20" s="146" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="168" t="s">
         <v>268</v>
       </c>
-      <c r="B84" s="154"/>
-      <c r="C84" s="154"/>
-      <c r="D84" s="154"/>
-      <c r="E84" s="154"/>
-      <c r="F84" s="154"/>
-      <c r="G84" s="154"/>
-      <c r="H84" s="154"/>
-      <c r="I84" s="154"/>
-      <c r="J84" s="154"/>
-      <c r="K84" s="154"/>
-      <c r="L84" s="154"/>
-      <c r="M84" s="154"/>
-      <c r="N84" s="154"/>
-      <c r="O84" s="154"/>
-      <c r="P84" s="154"/>
-      <c r="T84" s="148"/>
-    </row>
-    <row r="85" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="156" t="s">
-        <v>261</v>
-      </c>
-      <c r="B85" s="156"/>
-      <c r="C85" s="156"/>
-      <c r="D85" s="156"/>
-      <c r="E85" s="156"/>
-      <c r="F85" s="156"/>
-      <c r="G85" s="156"/>
-      <c r="H85" s="156"/>
-      <c r="I85" s="156"/>
-      <c r="J85" s="156"/>
-      <c r="K85" s="156"/>
-      <c r="L85" s="156"/>
-      <c r="M85" s="156"/>
-      <c r="N85" s="156"/>
-      <c r="O85" s="156"/>
-      <c r="P85" s="156"/>
-      <c r="T85" s="148"/>
-    </row>
-    <row r="86" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="157" t="s">
+      <c r="B87" s="168"/>
+      <c r="C87" s="168"/>
+      <c r="D87" s="168"/>
+      <c r="E87" s="168"/>
+      <c r="F87" s="168"/>
+      <c r="G87" s="168"/>
+      <c r="H87" s="168"/>
+      <c r="I87" s="168"/>
+      <c r="J87" s="168"/>
+      <c r="K87" s="168"/>
+      <c r="L87" s="168"/>
+      <c r="M87" s="168"/>
+      <c r="N87" s="168"/>
+      <c r="O87" s="168"/>
+      <c r="P87" s="168"/>
+      <c r="T87" s="147"/>
+    </row>
+    <row r="88" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="165" t="s">
         <v>269</v>
       </c>
-      <c r="B86" s="157"/>
-      <c r="C86" s="157"/>
-      <c r="D86" s="157"/>
-      <c r="E86" s="157"/>
-      <c r="F86" s="157"/>
-      <c r="G86" s="157"/>
-      <c r="H86" s="157"/>
-      <c r="I86" s="157"/>
-      <c r="J86" s="157"/>
-      <c r="K86" s="157"/>
-      <c r="L86" s="157"/>
-      <c r="M86" s="157"/>
-      <c r="N86" s="157"/>
-      <c r="O86" s="157"/>
-      <c r="P86" s="157"/>
-      <c r="T86" s="148"/>
-    </row>
-    <row r="87" spans="1:20" s="147" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="156" t="s">
+      <c r="B88" s="165"/>
+      <c r="C88" s="165"/>
+      <c r="D88" s="165"/>
+      <c r="E88" s="165"/>
+      <c r="F88" s="165"/>
+      <c r="G88" s="165"/>
+      <c r="H88" s="165"/>
+      <c r="I88" s="165"/>
+      <c r="J88" s="165"/>
+      <c r="K88" s="165"/>
+      <c r="L88" s="165"/>
+      <c r="M88" s="165"/>
+      <c r="N88" s="165"/>
+      <c r="O88" s="165"/>
+      <c r="P88" s="165"/>
+      <c r="T88" s="147"/>
+    </row>
+    <row r="89" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="169" t="s">
         <v>270</v>
       </c>
-      <c r="B87" s="156"/>
-      <c r="C87" s="156"/>
-      <c r="D87" s="156"/>
-      <c r="E87" s="156"/>
-      <c r="F87" s="156"/>
-      <c r="G87" s="156"/>
-      <c r="H87" s="156"/>
-      <c r="I87" s="156"/>
-      <c r="J87" s="156"/>
-      <c r="K87" s="156"/>
-      <c r="L87" s="156"/>
-      <c r="M87" s="156"/>
-      <c r="N87" s="156"/>
-      <c r="O87" s="156"/>
-      <c r="P87" s="156"/>
-      <c r="T87" s="148"/>
-    </row>
-    <row r="88" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="151" t="s">
+      <c r="B89" s="169"/>
+      <c r="C89" s="169"/>
+      <c r="D89" s="169"/>
+      <c r="E89" s="169"/>
+      <c r="F89" s="169"/>
+      <c r="G89" s="169"/>
+      <c r="H89" s="169"/>
+      <c r="I89" s="169"/>
+      <c r="J89" s="169"/>
+      <c r="K89" s="169"/>
+      <c r="L89" s="169"/>
+      <c r="M89" s="169"/>
+      <c r="N89" s="169"/>
+      <c r="O89" s="169"/>
+      <c r="P89" s="169"/>
+      <c r="T89" s="147"/>
+    </row>
+    <row r="90" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="168" t="s">
+        <v>264</v>
+      </c>
+      <c r="B90" s="168"/>
+      <c r="C90" s="168"/>
+      <c r="D90" s="168"/>
+      <c r="E90" s="168"/>
+      <c r="F90" s="168"/>
+      <c r="G90" s="168"/>
+      <c r="H90" s="168"/>
+      <c r="I90" s="168"/>
+      <c r="J90" s="168"/>
+      <c r="K90" s="168"/>
+      <c r="L90" s="168"/>
+      <c r="M90" s="168"/>
+      <c r="N90" s="168"/>
+      <c r="O90" s="168"/>
+      <c r="P90" s="168"/>
+      <c r="T90" s="147"/>
+    </row>
+    <row r="91" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="167" t="s">
         <v>271</v>
       </c>
-      <c r="B88" s="151"/>
-      <c r="C88" s="151"/>
-      <c r="D88" s="151"/>
-      <c r="E88" s="151"/>
-      <c r="F88" s="151"/>
-      <c r="G88" s="151"/>
-      <c r="H88" s="151"/>
-      <c r="I88" s="151"/>
-      <c r="J88" s="151"/>
-      <c r="K88" s="151"/>
-      <c r="L88" s="151"/>
-      <c r="M88" s="151"/>
-      <c r="N88" s="151"/>
-      <c r="O88" s="151"/>
-      <c r="P88" s="151"/>
-      <c r="T88" s="148"/>
-    </row>
-    <row r="89" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="154" t="s">
+      <c r="B91" s="167"/>
+      <c r="C91" s="167"/>
+      <c r="D91" s="167"/>
+      <c r="E91" s="167"/>
+      <c r="F91" s="167"/>
+      <c r="G91" s="167"/>
+      <c r="H91" s="167"/>
+      <c r="I91" s="167"/>
+      <c r="J91" s="167"/>
+      <c r="K91" s="167"/>
+      <c r="L91" s="167"/>
+      <c r="M91" s="167"/>
+      <c r="N91" s="167"/>
+      <c r="O91" s="167"/>
+      <c r="P91" s="167"/>
+      <c r="T91" s="147"/>
+    </row>
+    <row r="92" spans="1:20" s="146" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="159" t="s">
         <v>272</v>
       </c>
-      <c r="B89" s="154"/>
-      <c r="C89" s="154"/>
-      <c r="D89" s="154"/>
-      <c r="E89" s="154"/>
-      <c r="F89" s="154"/>
-      <c r="G89" s="154"/>
-      <c r="H89" s="154"/>
-      <c r="I89" s="154"/>
-      <c r="J89" s="154"/>
-      <c r="K89" s="154"/>
-      <c r="L89" s="154"/>
-      <c r="M89" s="154"/>
-      <c r="N89" s="154"/>
-      <c r="O89" s="154"/>
-      <c r="P89" s="154"/>
-      <c r="T89" s="148"/>
-    </row>
-    <row r="90" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="156" t="s">
-        <v>266</v>
-      </c>
-      <c r="B90" s="156"/>
-      <c r="C90" s="156"/>
-      <c r="D90" s="156"/>
-      <c r="E90" s="156"/>
-      <c r="F90" s="156"/>
-      <c r="G90" s="156"/>
-      <c r="H90" s="156"/>
-      <c r="I90" s="156"/>
-      <c r="J90" s="156"/>
-      <c r="K90" s="156"/>
-      <c r="L90" s="156"/>
-      <c r="M90" s="156"/>
-      <c r="N90" s="156"/>
-      <c r="O90" s="156"/>
-      <c r="P90" s="156"/>
-      <c r="T90" s="148"/>
-    </row>
-    <row r="91" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="153" t="s">
+      <c r="B92" s="159"/>
+      <c r="C92" s="159"/>
+      <c r="D92" s="159"/>
+      <c r="E92" s="159"/>
+      <c r="F92" s="159"/>
+      <c r="G92" s="159"/>
+      <c r="H92" s="159"/>
+      <c r="I92" s="159"/>
+      <c r="J92" s="159"/>
+      <c r="K92" s="159"/>
+      <c r="L92" s="159"/>
+      <c r="M92" s="159"/>
+      <c r="N92" s="159"/>
+      <c r="O92" s="159"/>
+      <c r="P92" s="159"/>
+      <c r="T92" s="147"/>
+    </row>
+    <row r="93" spans="1:20" s="146" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="159" t="s">
         <v>273</v>
       </c>
-      <c r="B91" s="153"/>
-      <c r="C91" s="153"/>
-      <c r="D91" s="153"/>
-      <c r="E91" s="153"/>
-      <c r="F91" s="153"/>
-      <c r="G91" s="153"/>
-      <c r="H91" s="153"/>
-      <c r="I91" s="153"/>
-      <c r="J91" s="153"/>
-      <c r="K91" s="153"/>
-      <c r="L91" s="153"/>
-      <c r="M91" s="153"/>
-      <c r="N91" s="153"/>
-      <c r="O91" s="153"/>
-      <c r="P91" s="153"/>
-      <c r="T91" s="148"/>
-    </row>
-    <row r="92" spans="1:20" s="147" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="152" t="s">
+      <c r="B93" s="159"/>
+      <c r="C93" s="159"/>
+      <c r="D93" s="159"/>
+      <c r="E93" s="159"/>
+      <c r="F93" s="159"/>
+      <c r="G93" s="159"/>
+      <c r="H93" s="159"/>
+      <c r="I93" s="159"/>
+      <c r="J93" s="159"/>
+      <c r="K93" s="159"/>
+      <c r="L93" s="159"/>
+      <c r="M93" s="159"/>
+      <c r="N93" s="159"/>
+      <c r="O93" s="159"/>
+      <c r="P93" s="159"/>
+      <c r="T93" s="147"/>
+    </row>
+    <row r="94" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="167" t="s">
         <v>274</v>
       </c>
-      <c r="B92" s="152"/>
-      <c r="C92" s="152"/>
-      <c r="D92" s="152"/>
-      <c r="E92" s="152"/>
-      <c r="F92" s="152"/>
-      <c r="G92" s="152"/>
-      <c r="H92" s="152"/>
-      <c r="I92" s="152"/>
-      <c r="J92" s="152"/>
-      <c r="K92" s="152"/>
-      <c r="L92" s="152"/>
-      <c r="M92" s="152"/>
-      <c r="N92" s="152"/>
-      <c r="O92" s="152"/>
-      <c r="P92" s="152"/>
-      <c r="T92" s="148"/>
-    </row>
-    <row r="93" spans="1:20" s="147" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="152" t="s">
+      <c r="B94" s="167"/>
+      <c r="C94" s="167"/>
+      <c r="D94" s="167"/>
+      <c r="E94" s="167"/>
+      <c r="F94" s="167"/>
+      <c r="G94" s="167"/>
+      <c r="H94" s="167"/>
+      <c r="I94" s="167"/>
+      <c r="J94" s="167"/>
+      <c r="K94" s="167"/>
+      <c r="L94" s="167"/>
+      <c r="M94" s="167"/>
+      <c r="N94" s="167"/>
+      <c r="O94" s="167"/>
+      <c r="P94" s="167"/>
+      <c r="T94" s="147"/>
+    </row>
+    <row r="95" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="159" t="s">
         <v>275</v>
       </c>
-      <c r="B93" s="152"/>
-      <c r="C93" s="152"/>
-      <c r="D93" s="152"/>
-      <c r="E93" s="152"/>
-      <c r="F93" s="152"/>
-      <c r="G93" s="152"/>
-      <c r="H93" s="152"/>
-      <c r="I93" s="152"/>
-      <c r="J93" s="152"/>
-      <c r="K93" s="152"/>
-      <c r="L93" s="152"/>
-      <c r="M93" s="152"/>
-      <c r="N93" s="152"/>
-      <c r="O93" s="152"/>
-      <c r="P93" s="152"/>
-      <c r="T93" s="148"/>
-    </row>
-    <row r="94" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="153" t="s">
+      <c r="B95" s="159"/>
+      <c r="C95" s="159"/>
+      <c r="D95" s="159"/>
+      <c r="E95" s="159"/>
+      <c r="F95" s="159"/>
+      <c r="G95" s="159"/>
+      <c r="H95" s="159"/>
+      <c r="I95" s="159"/>
+      <c r="J95" s="159"/>
+      <c r="K95" s="159"/>
+      <c r="L95" s="159"/>
+      <c r="M95" s="159"/>
+      <c r="N95" s="159"/>
+      <c r="O95" s="159"/>
+      <c r="P95" s="159"/>
+      <c r="T95" s="147"/>
+    </row>
+    <row r="96" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="167" t="s">
         <v>276</v>
       </c>
-      <c r="B94" s="153"/>
-      <c r="C94" s="153"/>
-      <c r="D94" s="153"/>
-      <c r="E94" s="153"/>
-      <c r="F94" s="153"/>
-      <c r="G94" s="153"/>
-      <c r="H94" s="153"/>
-      <c r="I94" s="153"/>
-      <c r="J94" s="153"/>
-      <c r="K94" s="153"/>
-      <c r="L94" s="153"/>
-      <c r="M94" s="153"/>
-      <c r="N94" s="153"/>
-      <c r="O94" s="153"/>
-      <c r="P94" s="153"/>
-      <c r="T94" s="148"/>
-    </row>
-    <row r="95" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="152" t="s">
+      <c r="B96" s="167"/>
+      <c r="C96" s="167"/>
+      <c r="D96" s="167"/>
+      <c r="E96" s="167"/>
+      <c r="F96" s="167"/>
+      <c r="G96" s="167"/>
+      <c r="H96" s="167"/>
+      <c r="I96" s="167"/>
+      <c r="J96" s="167"/>
+      <c r="K96" s="167"/>
+      <c r="L96" s="167"/>
+      <c r="M96" s="167"/>
+      <c r="N96" s="167"/>
+      <c r="O96" s="167"/>
+      <c r="P96" s="167"/>
+      <c r="T96" s="147"/>
+    </row>
+    <row r="97" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="165" t="s">
         <v>277</v>
       </c>
-      <c r="B95" s="152"/>
-      <c r="C95" s="152"/>
-      <c r="D95" s="152"/>
-      <c r="E95" s="152"/>
-      <c r="F95" s="152"/>
-      <c r="G95" s="152"/>
-      <c r="H95" s="152"/>
-      <c r="I95" s="152"/>
-      <c r="J95" s="152"/>
-      <c r="K95" s="152"/>
-      <c r="L95" s="152"/>
-      <c r="M95" s="152"/>
-      <c r="N95" s="152"/>
-      <c r="O95" s="152"/>
-      <c r="P95" s="152"/>
-      <c r="T95" s="148"/>
-    </row>
-    <row r="96" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="153" t="s">
+      <c r="B97" s="165"/>
+      <c r="C97" s="165"/>
+      <c r="D97" s="165"/>
+      <c r="E97" s="165"/>
+      <c r="F97" s="165"/>
+      <c r="G97" s="165"/>
+      <c r="H97" s="165"/>
+      <c r="I97" s="165"/>
+      <c r="J97" s="165"/>
+      <c r="K97" s="165"/>
+      <c r="L97" s="165"/>
+      <c r="M97" s="165"/>
+      <c r="N97" s="165"/>
+      <c r="O97" s="165"/>
+      <c r="P97" s="165"/>
+      <c r="T97" s="147"/>
+    </row>
+    <row r="98" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="159" t="s">
         <v>278</v>
       </c>
-      <c r="B96" s="153"/>
-      <c r="C96" s="153"/>
-      <c r="D96" s="153"/>
-      <c r="E96" s="153"/>
-      <c r="F96" s="153"/>
-      <c r="G96" s="153"/>
-      <c r="H96" s="153"/>
-      <c r="I96" s="153"/>
-      <c r="J96" s="153"/>
-      <c r="K96" s="153"/>
-      <c r="L96" s="153"/>
-      <c r="M96" s="153"/>
-      <c r="N96" s="153"/>
-      <c r="O96" s="153"/>
-      <c r="P96" s="153"/>
-      <c r="T96" s="148"/>
-    </row>
-    <row r="97" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="151" t="s">
+      <c r="B98" s="159"/>
+      <c r="C98" s="159"/>
+      <c r="D98" s="159"/>
+      <c r="E98" s="159"/>
+      <c r="F98" s="159"/>
+      <c r="G98" s="159"/>
+      <c r="H98" s="159"/>
+      <c r="I98" s="159"/>
+      <c r="J98" s="159"/>
+      <c r="K98" s="159"/>
+      <c r="L98" s="159"/>
+      <c r="M98" s="159"/>
+      <c r="N98" s="159"/>
+      <c r="O98" s="159"/>
+      <c r="P98" s="159"/>
+      <c r="T98" s="147"/>
+    </row>
+    <row r="99" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="159" t="s">
         <v>279</v>
       </c>
-      <c r="B97" s="151"/>
-      <c r="C97" s="151"/>
-      <c r="D97" s="151"/>
-      <c r="E97" s="151"/>
-      <c r="F97" s="151"/>
-      <c r="G97" s="151"/>
-      <c r="H97" s="151"/>
-      <c r="I97" s="151"/>
-      <c r="J97" s="151"/>
-      <c r="K97" s="151"/>
-      <c r="L97" s="151"/>
-      <c r="M97" s="151"/>
-      <c r="N97" s="151"/>
-      <c r="O97" s="151"/>
-      <c r="P97" s="151"/>
-      <c r="T97" s="148"/>
-    </row>
-    <row r="98" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="152" t="s">
+      <c r="B99" s="159"/>
+      <c r="C99" s="159"/>
+      <c r="D99" s="159"/>
+      <c r="E99" s="159"/>
+      <c r="F99" s="159"/>
+      <c r="G99" s="159"/>
+      <c r="H99" s="159"/>
+      <c r="I99" s="159"/>
+      <c r="J99" s="159"/>
+      <c r="K99" s="159"/>
+      <c r="L99" s="159"/>
+      <c r="M99" s="159"/>
+      <c r="N99" s="159"/>
+      <c r="O99" s="159"/>
+      <c r="P99" s="159"/>
+      <c r="T99" s="147"/>
+    </row>
+    <row r="100" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="159" t="s">
         <v>280</v>
       </c>
-      <c r="B98" s="152"/>
-      <c r="C98" s="152"/>
-      <c r="D98" s="152"/>
-      <c r="E98" s="152"/>
-      <c r="F98" s="152"/>
-      <c r="G98" s="152"/>
-      <c r="H98" s="152"/>
-      <c r="I98" s="152"/>
-      <c r="J98" s="152"/>
-      <c r="K98" s="152"/>
-      <c r="L98" s="152"/>
-      <c r="M98" s="152"/>
-      <c r="N98" s="152"/>
-      <c r="O98" s="152"/>
-      <c r="P98" s="152"/>
-      <c r="T98" s="148"/>
-    </row>
-    <row r="99" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="152" t="s">
+      <c r="B100" s="159"/>
+      <c r="C100" s="159"/>
+      <c r="D100" s="159"/>
+      <c r="E100" s="159"/>
+      <c r="F100" s="159"/>
+      <c r="G100" s="159"/>
+      <c r="H100" s="159"/>
+      <c r="I100" s="159"/>
+      <c r="J100" s="159"/>
+      <c r="K100" s="159"/>
+      <c r="L100" s="159"/>
+      <c r="M100" s="159"/>
+      <c r="N100" s="159"/>
+      <c r="O100" s="159"/>
+      <c r="P100" s="159"/>
+      <c r="T100" s="147"/>
+    </row>
+    <row r="101" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="167" t="s">
         <v>281</v>
       </c>
-      <c r="B99" s="152"/>
-      <c r="C99" s="152"/>
-      <c r="D99" s="152"/>
-      <c r="E99" s="152"/>
-      <c r="F99" s="152"/>
-      <c r="G99" s="152"/>
-      <c r="H99" s="152"/>
-      <c r="I99" s="152"/>
-      <c r="J99" s="152"/>
-      <c r="K99" s="152"/>
-      <c r="L99" s="152"/>
-      <c r="M99" s="152"/>
-      <c r="N99" s="152"/>
-      <c r="O99" s="152"/>
-      <c r="P99" s="152"/>
-      <c r="T99" s="148"/>
-    </row>
-    <row r="100" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="152" t="s">
+      <c r="B101" s="167"/>
+      <c r="C101" s="167"/>
+      <c r="D101" s="167"/>
+      <c r="E101" s="167"/>
+      <c r="F101" s="167"/>
+      <c r="G101" s="167"/>
+      <c r="H101" s="167"/>
+      <c r="I101" s="167"/>
+      <c r="J101" s="167"/>
+      <c r="K101" s="167"/>
+      <c r="L101" s="167"/>
+      <c r="M101" s="167"/>
+      <c r="N101" s="167"/>
+      <c r="O101" s="167"/>
+      <c r="P101" s="167"/>
+      <c r="T101" s="147"/>
+    </row>
+    <row r="102" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="165" t="s">
         <v>282</v>
       </c>
-      <c r="B100" s="152"/>
-      <c r="C100" s="152"/>
-      <c r="D100" s="152"/>
-      <c r="E100" s="152"/>
-      <c r="F100" s="152"/>
-      <c r="G100" s="152"/>
-      <c r="H100" s="152"/>
-      <c r="I100" s="152"/>
-      <c r="J100" s="152"/>
-      <c r="K100" s="152"/>
-      <c r="L100" s="152"/>
-      <c r="M100" s="152"/>
-      <c r="N100" s="152"/>
-      <c r="O100" s="152"/>
-      <c r="P100" s="152"/>
-      <c r="T100" s="148"/>
-    </row>
-    <row r="101" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="153" t="s">
+      <c r="B102" s="165"/>
+      <c r="C102" s="165"/>
+      <c r="D102" s="165"/>
+      <c r="E102" s="165"/>
+      <c r="F102" s="165"/>
+      <c r="G102" s="165"/>
+      <c r="H102" s="165"/>
+      <c r="I102" s="165"/>
+      <c r="J102" s="165"/>
+      <c r="K102" s="165"/>
+      <c r="L102" s="165"/>
+      <c r="M102" s="165"/>
+      <c r="N102" s="165"/>
+      <c r="O102" s="165"/>
+      <c r="P102" s="165"/>
+      <c r="T102" s="147"/>
+    </row>
+    <row r="103" spans="1:20" s="146" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="169" t="s">
         <v>283</v>
       </c>
-      <c r="B101" s="153"/>
-      <c r="C101" s="153"/>
-      <c r="D101" s="153"/>
-      <c r="E101" s="153"/>
-      <c r="F101" s="153"/>
-      <c r="G101" s="153"/>
-      <c r="H101" s="153"/>
-      <c r="I101" s="153"/>
-      <c r="J101" s="153"/>
-      <c r="K101" s="153"/>
-      <c r="L101" s="153"/>
-      <c r="M101" s="153"/>
-      <c r="N101" s="153"/>
-      <c r="O101" s="153"/>
-      <c r="P101" s="153"/>
-      <c r="T101" s="148"/>
-    </row>
-    <row r="102" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="151" t="s">
+      <c r="B103" s="169"/>
+      <c r="C103" s="169"/>
+      <c r="D103" s="169"/>
+      <c r="E103" s="169"/>
+      <c r="F103" s="169"/>
+      <c r="G103" s="169"/>
+      <c r="H103" s="169"/>
+      <c r="I103" s="169"/>
+      <c r="J103" s="169"/>
+      <c r="K103" s="169"/>
+      <c r="L103" s="169"/>
+      <c r="M103" s="169"/>
+      <c r="N103" s="169"/>
+      <c r="O103" s="169"/>
+      <c r="P103" s="169"/>
+      <c r="T103" s="147"/>
+    </row>
+    <row r="104" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="165" t="s">
         <v>284</v>
       </c>
-      <c r="B102" s="151"/>
-      <c r="C102" s="151"/>
-      <c r="D102" s="151"/>
-      <c r="E102" s="151"/>
-      <c r="F102" s="151"/>
-      <c r="G102" s="151"/>
-      <c r="H102" s="151"/>
-      <c r="I102" s="151"/>
-      <c r="J102" s="151"/>
-      <c r="K102" s="151"/>
-      <c r="L102" s="151"/>
-      <c r="M102" s="151"/>
-      <c r="N102" s="151"/>
-      <c r="O102" s="151"/>
-      <c r="P102" s="151"/>
-      <c r="T102" s="148"/>
-    </row>
-    <row r="103" spans="1:20" s="147" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="154" t="s">
+      <c r="B104" s="165"/>
+      <c r="C104" s="165"/>
+      <c r="D104" s="165"/>
+      <c r="E104" s="165"/>
+      <c r="F104" s="165"/>
+      <c r="G104" s="165"/>
+      <c r="H104" s="165"/>
+      <c r="I104" s="165"/>
+      <c r="J104" s="165"/>
+      <c r="K104" s="165"/>
+      <c r="L104" s="165"/>
+      <c r="M104" s="165"/>
+      <c r="N104" s="165"/>
+      <c r="O104" s="165"/>
+      <c r="P104" s="165"/>
+      <c r="T104" s="147"/>
+    </row>
+    <row r="105" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="172" t="s">
         <v>285</v>
       </c>
-      <c r="B103" s="154"/>
-      <c r="C103" s="154"/>
-      <c r="D103" s="154"/>
-      <c r="E103" s="154"/>
-      <c r="F103" s="154"/>
-      <c r="G103" s="154"/>
-      <c r="H103" s="154"/>
-      <c r="I103" s="154"/>
-      <c r="J103" s="154"/>
-      <c r="K103" s="154"/>
-      <c r="L103" s="154"/>
-      <c r="M103" s="154"/>
-      <c r="N103" s="154"/>
-      <c r="O103" s="154"/>
-      <c r="P103" s="154"/>
-      <c r="T103" s="148"/>
-    </row>
-    <row r="104" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="151" t="s">
+      <c r="B105" s="172"/>
+      <c r="C105" s="172"/>
+      <c r="D105" s="172"/>
+      <c r="E105" s="172"/>
+      <c r="F105" s="172"/>
+      <c r="G105" s="172"/>
+      <c r="H105" s="172"/>
+      <c r="I105" s="172"/>
+      <c r="J105" s="172"/>
+      <c r="K105" s="172"/>
+      <c r="L105" s="172"/>
+      <c r="M105" s="172"/>
+      <c r="N105" s="172"/>
+      <c r="O105" s="172"/>
+      <c r="P105" s="172"/>
+      <c r="T105" s="147"/>
+    </row>
+    <row r="106" spans="1:20" s="146" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="171" t="s">
         <v>286</v>
       </c>
-      <c r="B104" s="151"/>
-      <c r="C104" s="151"/>
-      <c r="D104" s="151"/>
-      <c r="E104" s="151"/>
-      <c r="F104" s="151"/>
-      <c r="G104" s="151"/>
-      <c r="H104" s="151"/>
-      <c r="I104" s="151"/>
-      <c r="J104" s="151"/>
-      <c r="K104" s="151"/>
-      <c r="L104" s="151"/>
-      <c r="M104" s="151"/>
-      <c r="N104" s="151"/>
-      <c r="O104" s="151"/>
-      <c r="P104" s="151"/>
-      <c r="T104" s="148"/>
-    </row>
-    <row r="105" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="155" t="s">
+      <c r="B106" s="171"/>
+      <c r="C106" s="171"/>
+      <c r="D106" s="171"/>
+      <c r="E106" s="171"/>
+      <c r="F106" s="171"/>
+      <c r="G106" s="171"/>
+      <c r="H106" s="171"/>
+      <c r="I106" s="171"/>
+      <c r="J106" s="171"/>
+      <c r="K106" s="171"/>
+      <c r="L106" s="171"/>
+      <c r="M106" s="171"/>
+      <c r="N106" s="171"/>
+      <c r="O106" s="171"/>
+      <c r="P106" s="171"/>
+      <c r="T106" s="147"/>
+    </row>
+    <row r="107" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="165" t="s">
         <v>287</v>
       </c>
-      <c r="B105" s="155"/>
-      <c r="C105" s="155"/>
-      <c r="D105" s="155"/>
-      <c r="E105" s="155"/>
-      <c r="F105" s="155"/>
-      <c r="G105" s="155"/>
-      <c r="H105" s="155"/>
-      <c r="I105" s="155"/>
-      <c r="J105" s="155"/>
-      <c r="K105" s="155"/>
-      <c r="L105" s="155"/>
-      <c r="M105" s="155"/>
-      <c r="N105" s="155"/>
-      <c r="O105" s="155"/>
-      <c r="P105" s="155"/>
-      <c r="T105" s="148"/>
-    </row>
-    <row r="106" spans="1:20" s="147" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="150" t="s">
+      <c r="B107" s="165"/>
+      <c r="C107" s="165"/>
+      <c r="D107" s="165"/>
+      <c r="E107" s="165"/>
+      <c r="F107" s="165"/>
+      <c r="G107" s="165"/>
+      <c r="H107" s="165"/>
+      <c r="I107" s="165"/>
+      <c r="J107" s="165"/>
+      <c r="K107" s="165"/>
+      <c r="L107" s="165"/>
+      <c r="M107" s="165"/>
+      <c r="N107" s="165"/>
+      <c r="O107" s="165"/>
+      <c r="P107" s="165"/>
+      <c r="T107" s="147"/>
+    </row>
+    <row r="108" spans="1:20" s="146" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="159" t="s">
         <v>288</v>
       </c>
-      <c r="B106" s="150"/>
-      <c r="C106" s="150"/>
-      <c r="D106" s="150"/>
-      <c r="E106" s="150"/>
-      <c r="F106" s="150"/>
-      <c r="G106" s="150"/>
-      <c r="H106" s="150"/>
-      <c r="I106" s="150"/>
-      <c r="J106" s="150"/>
-      <c r="K106" s="150"/>
-      <c r="L106" s="150"/>
-      <c r="M106" s="150"/>
-      <c r="N106" s="150"/>
-      <c r="O106" s="150"/>
-      <c r="P106" s="150"/>
-      <c r="T106" s="148"/>
-    </row>
-    <row r="107" spans="1:20" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="151" t="s">
-        <v>289</v>
-      </c>
-      <c r="B107" s="151"/>
-      <c r="C107" s="151"/>
-      <c r="D107" s="151"/>
-      <c r="E107" s="151"/>
-      <c r="F107" s="151"/>
-      <c r="G107" s="151"/>
-      <c r="H107" s="151"/>
-      <c r="I107" s="151"/>
-      <c r="J107" s="151"/>
-      <c r="K107" s="151"/>
-      <c r="L107" s="151"/>
-      <c r="M107" s="151"/>
-      <c r="N107" s="151"/>
-      <c r="O107" s="151"/>
-      <c r="P107" s="151"/>
-      <c r="T107" s="148"/>
-    </row>
-    <row r="108" spans="1:20" s="147" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="152" t="s">
-        <v>290</v>
-      </c>
-      <c r="B108" s="152"/>
-      <c r="C108" s="152"/>
-      <c r="D108" s="152"/>
-      <c r="E108" s="152"/>
-      <c r="F108" s="152"/>
-      <c r="G108" s="152"/>
-      <c r="H108" s="152"/>
-      <c r="I108" s="152"/>
-      <c r="J108" s="152"/>
-      <c r="K108" s="152"/>
-      <c r="L108" s="152"/>
-      <c r="M108" s="152"/>
-      <c r="N108" s="152"/>
-      <c r="O108" s="152"/>
-      <c r="P108" s="152"/>
-      <c r="T108" s="148"/>
+      <c r="B108" s="159"/>
+      <c r="C108" s="159"/>
+      <c r="D108" s="159"/>
+      <c r="E108" s="159"/>
+      <c r="F108" s="159"/>
+      <c r="G108" s="159"/>
+      <c r="H108" s="159"/>
+      <c r="I108" s="159"/>
+      <c r="J108" s="159"/>
+      <c r="K108" s="159"/>
+      <c r="L108" s="159"/>
+      <c r="M108" s="159"/>
+      <c r="N108" s="159"/>
+      <c r="O108" s="159"/>
+      <c r="P108" s="159"/>
+      <c r="T108" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A39:P39"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A35:P35"/>
-    <mergeCell ref="A36:P36"/>
-    <mergeCell ref="A37:P37"/>
-    <mergeCell ref="A38:P38"/>
+    <mergeCell ref="A106:P106"/>
+    <mergeCell ref="A107:P107"/>
+    <mergeCell ref="A108:P108"/>
+    <mergeCell ref="A100:P100"/>
+    <mergeCell ref="A101:P101"/>
+    <mergeCell ref="A102:P102"/>
+    <mergeCell ref="A103:P103"/>
+    <mergeCell ref="A104:P104"/>
+    <mergeCell ref="A105:P105"/>
+    <mergeCell ref="A99:P99"/>
+    <mergeCell ref="A88:P88"/>
+    <mergeCell ref="A89:P89"/>
+    <mergeCell ref="A90:P90"/>
+    <mergeCell ref="A91:P91"/>
+    <mergeCell ref="A92:P92"/>
+    <mergeCell ref="A93:P93"/>
+    <mergeCell ref="A94:P94"/>
+    <mergeCell ref="A95:P95"/>
+    <mergeCell ref="A96:P96"/>
+    <mergeCell ref="A97:P97"/>
+    <mergeCell ref="A98:P98"/>
+    <mergeCell ref="A87:P87"/>
+    <mergeCell ref="A76:P76"/>
+    <mergeCell ref="A77:P77"/>
+    <mergeCell ref="A78:P78"/>
+    <mergeCell ref="A79:P79"/>
+    <mergeCell ref="A80:P80"/>
+    <mergeCell ref="A81:P81"/>
+    <mergeCell ref="A82:P82"/>
+    <mergeCell ref="A83:P83"/>
+    <mergeCell ref="A84:P84"/>
+    <mergeCell ref="A85:P85"/>
+    <mergeCell ref="A86:P86"/>
+    <mergeCell ref="A75:P75"/>
+    <mergeCell ref="A64:P64"/>
+    <mergeCell ref="A65:P65"/>
+    <mergeCell ref="A66:P66"/>
+    <mergeCell ref="A67:P67"/>
+    <mergeCell ref="A68:P68"/>
+    <mergeCell ref="A69:P69"/>
+    <mergeCell ref="A70:P70"/>
+    <mergeCell ref="A71:P71"/>
+    <mergeCell ref="A72:P72"/>
+    <mergeCell ref="A73:P73"/>
+    <mergeCell ref="A74:P74"/>
+    <mergeCell ref="A63:P63"/>
+    <mergeCell ref="A52:P52"/>
+    <mergeCell ref="A53:P53"/>
+    <mergeCell ref="A54:P54"/>
+    <mergeCell ref="A55:P55"/>
+    <mergeCell ref="A56:P56"/>
+    <mergeCell ref="A57:P57"/>
+    <mergeCell ref="A58:P58"/>
+    <mergeCell ref="A59:P59"/>
+    <mergeCell ref="A60:P60"/>
+    <mergeCell ref="A61:P61"/>
+    <mergeCell ref="A62:P62"/>
     <mergeCell ref="A51:P51"/>
     <mergeCell ref="A40:P40"/>
     <mergeCell ref="A41:P41"/>
@@ -9935,107 +10121,51 @@
     <mergeCell ref="A48:P48"/>
     <mergeCell ref="A49:P49"/>
     <mergeCell ref="A50:P50"/>
-    <mergeCell ref="A63:P63"/>
-    <mergeCell ref="A52:P52"/>
-    <mergeCell ref="A53:P53"/>
-    <mergeCell ref="A54:P54"/>
-    <mergeCell ref="A55:P55"/>
-    <mergeCell ref="A56:P56"/>
-    <mergeCell ref="A57:P57"/>
-    <mergeCell ref="A58:P58"/>
-    <mergeCell ref="A59:P59"/>
-    <mergeCell ref="A60:P60"/>
-    <mergeCell ref="A61:P61"/>
-    <mergeCell ref="A62:P62"/>
-    <mergeCell ref="A75:P75"/>
-    <mergeCell ref="A64:P64"/>
-    <mergeCell ref="A65:P65"/>
-    <mergeCell ref="A66:P66"/>
-    <mergeCell ref="A67:P67"/>
-    <mergeCell ref="A68:P68"/>
-    <mergeCell ref="A69:P69"/>
-    <mergeCell ref="A70:P70"/>
-    <mergeCell ref="A71:P71"/>
-    <mergeCell ref="A72:P72"/>
-    <mergeCell ref="A73:P73"/>
-    <mergeCell ref="A74:P74"/>
-    <mergeCell ref="A87:P87"/>
-    <mergeCell ref="A76:P76"/>
-    <mergeCell ref="A77:P77"/>
-    <mergeCell ref="A78:P78"/>
-    <mergeCell ref="A79:P79"/>
-    <mergeCell ref="A80:P80"/>
-    <mergeCell ref="A81:P81"/>
-    <mergeCell ref="A82:P82"/>
-    <mergeCell ref="A83:P83"/>
-    <mergeCell ref="A84:P84"/>
-    <mergeCell ref="A85:P85"/>
-    <mergeCell ref="A86:P86"/>
-    <mergeCell ref="A99:P99"/>
-    <mergeCell ref="A88:P88"/>
-    <mergeCell ref="A89:P89"/>
-    <mergeCell ref="A90:P90"/>
-    <mergeCell ref="A91:P91"/>
-    <mergeCell ref="A92:P92"/>
-    <mergeCell ref="A93:P93"/>
-    <mergeCell ref="A94:P94"/>
-    <mergeCell ref="A95:P95"/>
-    <mergeCell ref="A96:P96"/>
-    <mergeCell ref="A97:P97"/>
-    <mergeCell ref="A98:P98"/>
-    <mergeCell ref="A106:P106"/>
-    <mergeCell ref="A107:P107"/>
-    <mergeCell ref="A108:P108"/>
-    <mergeCell ref="A100:P100"/>
-    <mergeCell ref="A101:P101"/>
-    <mergeCell ref="A102:P102"/>
-    <mergeCell ref="A103:P103"/>
-    <mergeCell ref="A104:P104"/>
-    <mergeCell ref="A105:P105"/>
+    <mergeCell ref="A39:P39"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A35:P35"/>
+    <mergeCell ref="A36:P36"/>
+    <mergeCell ref="A37:P37"/>
+    <mergeCell ref="A38:P38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.453125" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" customWidth="1"/>
-    <col min="9" max="10" width="8.36328125" customWidth="1"/>
-    <col min="11" max="11" width="8.453125" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" customWidth="1"/>
     <col min="12" max="12" width="7" customWidth="1"/>
-    <col min="13" max="13" width="7.81640625" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" customWidth="1"/>
-    <col min="15" max="15" width="9.453125" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="173" t="s">
         <v>28</v>
       </c>
@@ -10061,7 +10191,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="174"/>
       <c r="C5" s="7" t="s">
         <v>33</v>
@@ -10101,7 +10231,7 @@
       </c>
       <c r="O5" s="179"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>45</v>
       </c>
@@ -10145,7 +10275,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>46</v>
       </c>
@@ -10189,7 +10319,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>47</v>
       </c>
@@ -10233,7 +10363,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>48</v>
       </c>
@@ -10277,7 +10407,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
         <v>49</v>
       </c>
@@ -10321,7 +10451,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>50</v>
       </c>
@@ -10365,7 +10495,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>51</v>
       </c>
@@ -10409,7 +10539,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>52</v>
       </c>
@@ -10453,7 +10583,7 @@
         <v>14644</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>53</v>
       </c>
@@ -10497,7 +10627,7 @@
         <v>4827</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>54</v>
       </c>
@@ -10541,7 +10671,7 @@
         <v>56534</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>55</v>
       </c>
@@ -10585,7 +10715,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>56</v>
       </c>
@@ -10629,7 +10759,7 @@
         <v>40111</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>57</v>
       </c>
@@ -10673,7 +10803,7 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>58</v>
       </c>
@@ -10717,7 +10847,7 @@
         <v>12267</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>59</v>
       </c>
@@ -10761,7 +10891,7 @@
         <v>33645</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
         <v>60</v>
       </c>
@@ -10805,7 +10935,7 @@
         <v>6147</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>61</v>
       </c>
@@ -10849,7 +10979,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>62</v>
       </c>
@@ -10893,7 +11023,7 @@
         <v>16421</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>63</v>
       </c>
@@ -10937,7 +11067,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
         <v>64</v>
       </c>
@@ -10981,7 +11111,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>65</v>
       </c>
@@ -11025,7 +11155,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>66</v>
       </c>
@@ -11069,7 +11199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
         <v>67</v>
       </c>
@@ -11113,7 +11243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
         <v>68</v>
       </c>
@@ -11157,7 +11287,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
         <v>69</v>
       </c>
@@ -11201,7 +11331,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
         <v>70</v>
       </c>
@@ -11245,7 +11375,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
         <v>71</v>
       </c>
@@ -11289,7 +11419,7 @@
         <v>3665</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
         <v>72</v>
       </c>
@@ -11333,7 +11463,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
         <v>73</v>
       </c>
@@ -11377,7 +11507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
         <v>74</v>
       </c>
@@ -11421,7 +11551,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
         <v>75</v>
       </c>
@@ -11465,7 +11595,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
         <v>76</v>
       </c>
@@ -11509,7 +11639,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
         <v>77</v>
       </c>
@@ -11553,7 +11683,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>78</v>
       </c>
@@ -11597,7 +11727,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>79</v>
       </c>
@@ -11641,7 +11771,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
         <v>80</v>
       </c>
@@ -11685,7 +11815,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
         <v>81</v>
       </c>
@@ -11729,7 +11859,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
         <v>82</v>
       </c>
@@ -11773,7 +11903,7 @@
         <v>3015</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
         <v>83</v>
       </c>
@@ -11818,7 +11948,7 @@
       </c>
       <c r="Q44" s="23"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="24" t="s">
         <v>84</v>
       </c>
@@ -11863,7 +11993,7 @@
       </c>
       <c r="Q45" s="30"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>85</v>
       </c>
@@ -11907,7 +12037,7 @@
         <v>8634</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>86</v>
       </c>
@@ -11951,7 +12081,7 @@
         <v>5292</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>87</v>
       </c>
@@ -11995,7 +12125,7 @@
         <v>50897</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
         <v>88</v>
       </c>
@@ -12039,7 +12169,7 @@
         <v>78680</v>
       </c>
     </row>
-    <row r="50" spans="2:15" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="16" t="s">
         <v>89</v>
       </c>
@@ -12083,7 +12213,7 @@
         <v>37518</v>
       </c>
     </row>
-    <row r="51" spans="2:15" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
         <v>90</v>
       </c>
@@ -12127,7 +12257,7 @@
         <v>14447</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="24" t="s">
         <v>91</v>
       </c>
@@ -12171,7 +12301,7 @@
         <v>195468</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>92</v>
       </c>
@@ -12215,7 +12345,7 @@
         <v>210331</v>
       </c>
     </row>
-    <row r="54" spans="2:15" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="24" t="s">
         <v>93</v>
       </c>
@@ -12259,7 +12389,7 @@
         <v>210331</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="37"/>
       <c r="C55" s="38"/>
       <c r="D55" s="39"/>
@@ -12275,7 +12405,7 @@
       <c r="N55" s="41"/>
       <c r="O55" s="42"/>
     </row>
-    <row r="56" spans="2:15" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:15" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="43" t="s">
         <v>94</v>
       </c>
@@ -12319,17 +12449,17 @@
         <v>659858</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="49" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" s="49" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="49" t="s">
         <v>95</v>
       </c>
@@ -12343,33 +12473,28 @@
     <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
-    <col min="2" max="2" width="30.81640625" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="71" t="s">
         <v>117</v>
       </c>
@@ -12378,7 +12503,7 @@
       <c r="D3" s="74"/>
       <c r="E3" s="74"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
         <v>118</v>
       </c>
@@ -12391,7 +12516,7 @@
       <c r="D4" s="74"/>
       <c r="E4" s="74"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="73">
         <v>0.21299999999999999</v>
       </c>
@@ -12403,25 +12528,25 @@
         <v>0.44899999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B7" s="70"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>Population!B13</f>
         <v>311582564</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B10" s="70"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="75">
         <f>A8/1000*C5</f>
         <v>139900.57123599999</v>
@@ -12429,37 +12554,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" customWidth="1"/>
-    <col min="2" max="2" width="29.36328125" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>135</v>
       </c>
@@ -12467,7 +12585,7 @@
       <c r="C3" s="78"/>
       <c r="D3" s="78"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>128</v>
       </c>
@@ -12479,7 +12597,7 @@
       </c>
       <c r="D4" s="70"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="73">
         <v>286180</v>
       </c>
@@ -12490,7 +12608,7 @@
         <v>11162</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>137</v>
       </c>
@@ -12498,7 +12616,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="73">
         <v>2007</v>
       </c>
@@ -12507,7 +12625,7 @@
         <v>301579895</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="73">
         <v>2011</v>
       </c>
@@ -12516,7 +12634,7 @@
         <v>311582564</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
         <v>138</v>
       </c>
@@ -12524,7 +12642,7 @@
       <c r="C11" s="78"/>
       <c r="D11" s="78"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>128</v>
       </c>
@@ -12536,7 +12654,7 @@
       </c>
       <c r="D12" s="70"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="79">
         <f>A5*($B9/$B8)</f>
         <v>295671.89207198308</v>
@@ -12550,74 +12668,64 @@
         <v>11532.216295015289</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>139</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="87.453125" customWidth="1"/>
+    <col min="2" max="2" width="87.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B8" s="70"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="73">
         <v>233000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/InputData/trans/FoVObE/Fraction of Veh Owned by Entity.xlsx
+++ b/InputData/trans/FoVObE/Fraction of Veh Owned by Entity.xlsx
@@ -16924,13 +16924,16 @@
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </l787e5950a9249679d0130235a9a791b>
     <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -16954,6 +16957,8 @@
                 <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -17040,6 +17045,18 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -17188,7 +17205,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B408CF-9647-4BE9-AE48-34490E7F99BE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38D73C74-45AF-408A-9F4F-560597723158}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/InputData/trans/FoVObE/Fraction of Veh Owned by Entity.xlsx
+++ b/InputData/trans/FoVObE/Fraction of Veh Owned by Entity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\trans\FoVObE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\trans\FoVObE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="506" documentId="13_ncr:1_{56164E49-86FE-4D92-8C83-DC2F9D71C0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{573D9B76-0294-4633-9B4C-0E6AFAE9C768}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDA02DC-7724-4D23-A70E-EBC5E8227DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16455" yWindow="150" windowWidth="29520" windowHeight="21060" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2721,14 +2721,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###"/>
     <numFmt numFmtId="165" formatCode="\(\R\)\ #,##0"/>
     <numFmt numFmtId="166" formatCode="&quot;(R)&quot;\ #,##0;&quot;(R) -&quot;#,##0;&quot;(R) &quot;\ 0"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3548,7 +3549,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3907,6 +3908,54 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3916,56 +3965,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3988,6 +3989,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Data_Sheet1 (2)_1" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4339,21 +4341,21 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4361,258 +4363,258 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="66">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="66">
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="66">
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="68" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="66">
         <v>2019</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="68" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="66">
         <v>2020</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="68" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="65"/>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="66"/>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="66"/>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="66"/>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="106"/>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="66"/>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="65"/>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="66"/>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="66"/>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="66"/>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="106"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="66"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="65"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="66"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" s="66"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" s="66"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" s="106"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>36</v>
       </c>
@@ -4637,7 +4639,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4651,7 +4653,7 @@
       <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="51.42578125" customWidth="1"/>
@@ -4660,7 +4662,7 @@
     <col min="6" max="6" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="113" customFormat="1" ht="30">
+    <row r="1" spans="1:6" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="107" t="s">
         <v>47</v>
       </c>
@@ -4680,7 +4682,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
         <v>56</v>
       </c>
@@ -4703,7 +4705,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
         <v>60</v>
       </c>
@@ -4725,7 +4727,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="75" t="s">
         <v>63</v>
       </c>
@@ -4745,7 +4747,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="75" t="s">
         <v>66</v>
       </c>
@@ -4763,7 +4765,7 @@
       </c>
       <c r="F5" s="76"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
         <v>69</v>
       </c>
@@ -4783,7 +4785,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
         <v>72</v>
       </c>
@@ -4805,7 +4807,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="75">
+    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="96" t="s">
         <v>75</v>
       </c>
@@ -4825,7 +4827,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="75" t="s">
         <v>78</v>
       </c>
@@ -4847,7 +4849,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="75" t="s">
         <v>81</v>
       </c>
@@ -4867,7 +4869,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="75" t="s">
         <v>84</v>
       </c>
@@ -4887,7 +4889,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="90" t="s">
         <v>87</v>
       </c>
@@ -4907,7 +4909,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="77" t="s">
         <v>90</v>
       </c>
@@ -4919,12 +4921,12 @@
       <c r="E13" s="99"/>
       <c r="F13" s="80"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>225</v>
       </c>
@@ -4945,7 +4947,7 @@
       <selection activeCell="AC13" sqref="AC12:AC13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.5703125" style="114" customWidth="1"/>
     <col min="2" max="3" width="9.7109375" style="114" customWidth="1"/>
@@ -4955,42 +4957,42 @@
     <col min="32" max="16384" width="9.140625" style="114"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A1" s="173" t="s">
+    <row r="1" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="189" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="173"/>
-      <c r="U1" s="173"/>
-      <c r="V1" s="173"/>
-      <c r="W1" s="173"/>
-      <c r="X1" s="173"/>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="173"/>
-      <c r="AB1" s="173"/>
-      <c r="AC1" s="173"/>
-      <c r="AD1" s="173"/>
-      <c r="AE1" s="173"/>
-    </row>
-    <row r="2" spans="1:31" s="115" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="189"/>
+      <c r="O1" s="189"/>
+      <c r="P1" s="189"/>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="189"/>
+      <c r="S1" s="189"/>
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="189"/>
+      <c r="AA1" s="189"/>
+      <c r="AB1" s="189"/>
+      <c r="AC1" s="189"/>
+      <c r="AD1" s="189"/>
+      <c r="AE1" s="189"/>
+    </row>
+    <row r="2" spans="1:31" s="115" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
       <c r="B2" s="45">
         <v>1960</v>
@@ -5083,7 +5085,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="16.5" customHeight="1">
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>227</v>
       </c>
@@ -5118,7 +5120,7 @@
       <c r="AD3" s="49"/>
       <c r="AE3" s="116"/>
     </row>
-    <row r="4" spans="1:31" ht="16.5" customHeight="1">
+    <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
         <v>228</v>
       </c>
@@ -5213,7 +5215,7 @@
         <v>6733</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="16.5" customHeight="1">
+    <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
         <v>229</v>
       </c>
@@ -5308,7 +5310,7 @@
         <v>199927</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="5" customFormat="1" ht="16.5" customHeight="1">
+    <row r="6" spans="1:31" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>230</v>
       </c>
@@ -5431,7 +5433,7 @@
         <v>255876822.00000003</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="16.5" customHeight="1">
+    <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="50" t="s">
         <v>231</v>
       </c>
@@ -5526,7 +5528,7 @@
         <v>184497490.31559649</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="16.5" customHeight="1">
+    <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
         <v>233</v>
       </c>
@@ -5621,7 +5623,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="16.5" customHeight="1">
+    <row r="9" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="50" t="s">
         <v>234</v>
       </c>
@@ -5716,7 +5718,7 @@
         <v>8404687</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="16.5" customHeight="1">
+    <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="s">
         <v>235</v>
       </c>
@@ -5811,7 +5813,7 @@
         <v>51512739.866532281</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="16.5" customHeight="1">
+    <row r="11" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
         <v>236</v>
       </c>
@@ -5906,7 +5908,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="16.5" customHeight="1">
+    <row r="12" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="54" t="s">
         <v>238</v>
       </c>
@@ -6001,7 +6003,7 @@
         <v>8126007.221129314</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="16.5" customHeight="1">
+    <row r="13" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="50" t="s">
         <v>239</v>
       </c>
@@ -6096,7 +6098,7 @@
         <v>2471348.7033206243</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="16.5" customHeight="1">
+    <row r="14" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="50" t="s">
         <v>240</v>
       </c>
@@ -6191,7 +6193,7 @@
         <v>864548.89342128637</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="5" customFormat="1" ht="16.5" customHeight="1">
+    <row r="15" spans="1:31" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="55" t="s">
         <v>241</v>
       </c>
@@ -6226,7 +6228,7 @@
       <c r="AD15" s="49"/>
       <c r="AE15" s="120"/>
     </row>
-    <row r="16" spans="1:31" ht="16.5" customHeight="1">
+    <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="50" t="s">
         <v>242</v>
       </c>
@@ -6321,7 +6323,7 @@
         <v>62576</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="16.5" customHeight="1">
+    <row r="17" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="50" t="s">
         <v>243</v>
       </c>
@@ -6416,7 +6418,7 @@
         <v>2842</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="16.5" customHeight="1">
+    <row r="18" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="56" t="s">
         <v>244</v>
       </c>
@@ -6511,7 +6513,7 @@
         <v>10380</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="16.5" customHeight="1">
+    <row r="19" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="50" t="s">
         <v>245</v>
       </c>
@@ -6606,7 +6608,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="16.5" customHeight="1">
+    <row r="20" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="50" t="s">
         <v>246</v>
       </c>
@@ -6701,7 +6703,7 @@
         <v>7150</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="16.5" customHeight="1">
+    <row r="21" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="50" t="s">
         <v>247</v>
       </c>
@@ -6796,7 +6798,7 @@
         <v>27543</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="16.5" customHeight="1">
+    <row r="22" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="50" t="s">
         <v>248</v>
       </c>
@@ -6891,7 +6893,7 @@
         <v>25930</v>
       </c>
     </row>
-    <row r="23" spans="1:31" s="5" customFormat="1" ht="16.5" customHeight="1">
+    <row r="23" spans="1:31" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>249</v>
       </c>
@@ -6926,7 +6928,7 @@
       <c r="AD23" s="49"/>
       <c r="AE23" s="120"/>
     </row>
-    <row r="24" spans="1:31" ht="16.5" customHeight="1">
+    <row r="24" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="50" t="s">
         <v>250</v>
       </c>
@@ -7021,7 +7023,7 @@
         <v>373838</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="16.5" customHeight="1">
+    <row r="25" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="50" t="s">
         <v>251</v>
       </c>
@@ -7116,7 +7118,7 @@
         <v>25033</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="16.5" customHeight="1">
+    <row r="26" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="50" t="s">
         <v>252</v>
       </c>
@@ -7211,7 +7213,7 @@
         <v>88122</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="16.5" customHeight="1">
+    <row r="27" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="50" t="s">
         <v>253</v>
       </c>
@@ -7306,7 +7308,7 @@
         <v>873679</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="16.5" customHeight="1">
+    <row r="28" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="50" t="s">
         <v>254</v>
       </c>
@@ -7401,7 +7403,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="16.5" customHeight="1">
+    <row r="29" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="50" t="s">
         <v>255</v>
       </c>
@@ -7496,7 +7498,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="30" spans="1:31" s="5" customFormat="1" ht="16.5" customHeight="1">
+    <row r="30" spans="1:31" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="47" t="s">
         <v>256</v>
       </c>
@@ -7531,7 +7533,7 @@
       <c r="AD30" s="48"/>
       <c r="AE30" s="120"/>
     </row>
-    <row r="31" spans="1:31" ht="16.5" customHeight="1">
+    <row r="31" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="50" t="s">
         <v>257</v>
       </c>
@@ -7626,7 +7628,7 @@
         <v>31081</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="16.5" customHeight="1">
+    <row r="32" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="50" t="s">
         <v>258</v>
       </c>
@@ -7721,7 +7723,7 @@
         <v>8918</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="16.5" customHeight="1">
+    <row r="33" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="57" t="s">
         <v>259</v>
       </c>
@@ -7816,7 +7818,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="16.5" customHeight="1" thickBot="1">
+    <row r="34" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="58" t="s">
         <v>260</v>
       </c>
@@ -7911,25 +7913,25 @@
         <v>12013496</v>
       </c>
     </row>
-    <row r="35" spans="1:31" s="62" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A35" s="174" t="s">
+    <row r="35" spans="1:31" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="190" t="s">
         <v>261</v>
       </c>
-      <c r="B35" s="174"/>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
-      <c r="E35" s="174"/>
-      <c r="F35" s="174"/>
-      <c r="G35" s="174"/>
-      <c r="H35" s="174"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="174"/>
-      <c r="K35" s="174"/>
-      <c r="L35" s="174"/>
-      <c r="M35" s="174"/>
-      <c r="N35" s="174"/>
-      <c r="O35" s="174"/>
-      <c r="P35" s="174"/>
+      <c r="B35" s="190"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="190"/>
+      <c r="E35" s="190"/>
+      <c r="F35" s="190"/>
+      <c r="G35" s="190"/>
+      <c r="H35" s="190"/>
+      <c r="I35" s="190"/>
+      <c r="J35" s="190"/>
+      <c r="K35" s="190"/>
+      <c r="L35" s="190"/>
+      <c r="M35" s="190"/>
+      <c r="N35" s="190"/>
+      <c r="O35" s="190"/>
+      <c r="P35" s="190"/>
       <c r="Q35" s="61"/>
       <c r="R35" s="61"/>
       <c r="S35" s="61"/>
@@ -7945,1562 +7947,1607 @@
       <c r="AC35" s="61"/>
       <c r="AE35" s="114"/>
     </row>
-    <row r="36" spans="1:31" s="62" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A36" s="175"/>
-      <c r="B36" s="175"/>
-      <c r="C36" s="175"/>
-      <c r="D36" s="175"/>
-      <c r="E36" s="175"/>
-      <c r="F36" s="175"/>
-      <c r="G36" s="175"/>
-      <c r="H36" s="175"/>
-      <c r="I36" s="175"/>
-      <c r="J36" s="175"/>
-      <c r="K36" s="175"/>
-      <c r="L36" s="175"/>
-      <c r="M36" s="175"/>
-      <c r="N36" s="175"/>
-      <c r="O36" s="175"/>
-      <c r="P36" s="175"/>
+    <row r="36" spans="1:31" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="184"/>
+      <c r="B36" s="184"/>
+      <c r="C36" s="184"/>
+      <c r="D36" s="184"/>
+      <c r="E36" s="184"/>
+      <c r="F36" s="184"/>
+      <c r="G36" s="184"/>
+      <c r="H36" s="184"/>
+      <c r="I36" s="184"/>
+      <c r="J36" s="184"/>
+      <c r="K36" s="184"/>
+      <c r="L36" s="184"/>
+      <c r="M36" s="184"/>
+      <c r="N36" s="184"/>
+      <c r="O36" s="184"/>
+      <c r="P36" s="184"/>
       <c r="Q36" s="124"/>
       <c r="R36" s="125"/>
       <c r="S36" s="125"/>
       <c r="T36" s="126"/>
     </row>
-    <row r="37" spans="1:31" s="129" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A37" s="176" t="s">
+    <row r="37" spans="1:31" s="129" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="191" t="s">
         <v>262</v>
       </c>
-      <c r="B37" s="176"/>
-      <c r="C37" s="176"/>
-      <c r="D37" s="176"/>
-      <c r="E37" s="176"/>
-      <c r="F37" s="176"/>
-      <c r="G37" s="176"/>
-      <c r="H37" s="176"/>
-      <c r="I37" s="176"/>
-      <c r="J37" s="176"/>
-      <c r="K37" s="176"/>
-      <c r="L37" s="176"/>
-      <c r="M37" s="176"/>
-      <c r="N37" s="176"/>
-      <c r="O37" s="176"/>
-      <c r="P37" s="176"/>
+      <c r="B37" s="191"/>
+      <c r="C37" s="191"/>
+      <c r="D37" s="191"/>
+      <c r="E37" s="191"/>
+      <c r="F37" s="191"/>
+      <c r="G37" s="191"/>
+      <c r="H37" s="191"/>
+      <c r="I37" s="191"/>
+      <c r="J37" s="191"/>
+      <c r="K37" s="191"/>
+      <c r="L37" s="191"/>
+      <c r="M37" s="191"/>
+      <c r="N37" s="191"/>
+      <c r="O37" s="191"/>
+      <c r="P37" s="191"/>
       <c r="Q37" s="127"/>
       <c r="R37" s="127"/>
       <c r="S37" s="127"/>
       <c r="T37" s="128"/>
     </row>
-    <row r="38" spans="1:31" s="129" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A38" s="177" t="s">
+    <row r="38" spans="1:31" s="129" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="187" t="s">
         <v>263</v>
       </c>
-      <c r="B38" s="177"/>
-      <c r="C38" s="177"/>
-      <c r="D38" s="177"/>
-      <c r="E38" s="177"/>
-      <c r="F38" s="177"/>
-      <c r="G38" s="177"/>
-      <c r="H38" s="177"/>
-      <c r="I38" s="177"/>
-      <c r="J38" s="177"/>
-      <c r="K38" s="177"/>
-      <c r="L38" s="177"/>
-      <c r="M38" s="177"/>
-      <c r="N38" s="177"/>
-      <c r="O38" s="177"/>
-      <c r="P38" s="177"/>
+      <c r="B38" s="187"/>
+      <c r="C38" s="187"/>
+      <c r="D38" s="187"/>
+      <c r="E38" s="187"/>
+      <c r="F38" s="187"/>
+      <c r="G38" s="187"/>
+      <c r="H38" s="187"/>
+      <c r="I38" s="187"/>
+      <c r="J38" s="187"/>
+      <c r="K38" s="187"/>
+      <c r="L38" s="187"/>
+      <c r="M38" s="187"/>
+      <c r="N38" s="187"/>
+      <c r="O38" s="187"/>
+      <c r="P38" s="187"/>
       <c r="Q38" s="127"/>
       <c r="R38" s="127"/>
       <c r="S38" s="127"/>
       <c r="T38" s="128"/>
     </row>
-    <row r="39" spans="1:31" s="129" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A39" s="172" t="s">
+    <row r="39" spans="1:31" s="129" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="188" t="s">
         <v>264</v>
       </c>
-      <c r="B39" s="172"/>
-      <c r="C39" s="172"/>
-      <c r="D39" s="172"/>
-      <c r="E39" s="172"/>
-      <c r="F39" s="172"/>
-      <c r="G39" s="172"/>
-      <c r="H39" s="172"/>
-      <c r="I39" s="172"/>
-      <c r="J39" s="172"/>
-      <c r="K39" s="172"/>
-      <c r="L39" s="172"/>
-      <c r="M39" s="172"/>
-      <c r="N39" s="172"/>
-      <c r="O39" s="172"/>
-      <c r="P39" s="172"/>
+      <c r="B39" s="188"/>
+      <c r="C39" s="188"/>
+      <c r="D39" s="188"/>
+      <c r="E39" s="188"/>
+      <c r="F39" s="188"/>
+      <c r="G39" s="188"/>
+      <c r="H39" s="188"/>
+      <c r="I39" s="188"/>
+      <c r="J39" s="188"/>
+      <c r="K39" s="188"/>
+      <c r="L39" s="188"/>
+      <c r="M39" s="188"/>
+      <c r="N39" s="188"/>
+      <c r="O39" s="188"/>
+      <c r="P39" s="188"/>
       <c r="Q39" s="127"/>
       <c r="R39" s="127"/>
       <c r="S39" s="127"/>
       <c r="T39" s="128"/>
     </row>
-    <row r="40" spans="1:31" s="129" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A40" s="177" t="s">
+    <row r="40" spans="1:31" s="129" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="187" t="s">
         <v>265</v>
       </c>
-      <c r="B40" s="177"/>
-      <c r="C40" s="177"/>
-      <c r="D40" s="177"/>
-      <c r="E40" s="177"/>
-      <c r="F40" s="177"/>
-      <c r="G40" s="177"/>
-      <c r="H40" s="177"/>
-      <c r="I40" s="177"/>
-      <c r="J40" s="177"/>
-      <c r="K40" s="177"/>
-      <c r="L40" s="177"/>
-      <c r="M40" s="177"/>
-      <c r="N40" s="177"/>
-      <c r="O40" s="177"/>
-      <c r="P40" s="177"/>
+      <c r="B40" s="187"/>
+      <c r="C40" s="187"/>
+      <c r="D40" s="187"/>
+      <c r="E40" s="187"/>
+      <c r="F40" s="187"/>
+      <c r="G40" s="187"/>
+      <c r="H40" s="187"/>
+      <c r="I40" s="187"/>
+      <c r="J40" s="187"/>
+      <c r="K40" s="187"/>
+      <c r="L40" s="187"/>
+      <c r="M40" s="187"/>
+      <c r="N40" s="187"/>
+      <c r="O40" s="187"/>
+      <c r="P40" s="187"/>
       <c r="Q40" s="127"/>
       <c r="R40" s="127"/>
       <c r="S40" s="127"/>
       <c r="T40" s="128"/>
     </row>
-    <row r="41" spans="1:31" s="129" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A41" s="177" t="s">
+    <row r="41" spans="1:31" s="129" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="187" t="s">
         <v>266</v>
       </c>
-      <c r="B41" s="177"/>
-      <c r="C41" s="177"/>
-      <c r="D41" s="177"/>
-      <c r="E41" s="177"/>
-      <c r="F41" s="177"/>
-      <c r="G41" s="177"/>
-      <c r="H41" s="177"/>
-      <c r="I41" s="177"/>
-      <c r="J41" s="177"/>
-      <c r="K41" s="177"/>
-      <c r="L41" s="177"/>
-      <c r="M41" s="177"/>
-      <c r="N41" s="177"/>
-      <c r="O41" s="177"/>
-      <c r="P41" s="177"/>
+      <c r="B41" s="187"/>
+      <c r="C41" s="187"/>
+      <c r="D41" s="187"/>
+      <c r="E41" s="187"/>
+      <c r="F41" s="187"/>
+      <c r="G41" s="187"/>
+      <c r="H41" s="187"/>
+      <c r="I41" s="187"/>
+      <c r="J41" s="187"/>
+      <c r="K41" s="187"/>
+      <c r="L41" s="187"/>
+      <c r="M41" s="187"/>
+      <c r="N41" s="187"/>
+      <c r="O41" s="187"/>
+      <c r="P41" s="187"/>
       <c r="Q41" s="127"/>
       <c r="R41" s="127"/>
       <c r="S41" s="127"/>
       <c r="T41" s="128"/>
     </row>
-    <row r="42" spans="1:31" s="129" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="177" t="s">
+    <row r="42" spans="1:31" s="129" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="187" t="s">
         <v>267</v>
       </c>
-      <c r="B42" s="177"/>
-      <c r="C42" s="177"/>
-      <c r="D42" s="177"/>
-      <c r="E42" s="177"/>
-      <c r="F42" s="177"/>
-      <c r="G42" s="177"/>
-      <c r="H42" s="177"/>
-      <c r="I42" s="177"/>
-      <c r="J42" s="177"/>
-      <c r="K42" s="177"/>
-      <c r="L42" s="177"/>
-      <c r="M42" s="177"/>
-      <c r="N42" s="177"/>
-      <c r="O42" s="177"/>
-      <c r="P42" s="177"/>
+      <c r="B42" s="187"/>
+      <c r="C42" s="187"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="187"/>
+      <c r="F42" s="187"/>
+      <c r="G42" s="187"/>
+      <c r="H42" s="187"/>
+      <c r="I42" s="187"/>
+      <c r="J42" s="187"/>
+      <c r="K42" s="187"/>
+      <c r="L42" s="187"/>
+      <c r="M42" s="187"/>
+      <c r="N42" s="187"/>
+      <c r="O42" s="187"/>
+      <c r="P42" s="187"/>
       <c r="T42" s="128"/>
     </row>
-    <row r="43" spans="1:31" s="129" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A43" s="172" t="s">
+    <row r="43" spans="1:31" s="129" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="188" t="s">
         <v>268</v>
       </c>
-      <c r="B43" s="172"/>
-      <c r="C43" s="172"/>
-      <c r="D43" s="172"/>
-      <c r="E43" s="172"/>
-      <c r="F43" s="172"/>
-      <c r="G43" s="172"/>
-      <c r="H43" s="172"/>
-      <c r="I43" s="172"/>
-      <c r="J43" s="172"/>
-      <c r="K43" s="172"/>
-      <c r="L43" s="172"/>
-      <c r="M43" s="172"/>
-      <c r="N43" s="172"/>
-      <c r="O43" s="172"/>
-      <c r="P43" s="172"/>
+      <c r="B43" s="188"/>
+      <c r="C43" s="188"/>
+      <c r="D43" s="188"/>
+      <c r="E43" s="188"/>
+      <c r="F43" s="188"/>
+      <c r="G43" s="188"/>
+      <c r="H43" s="188"/>
+      <c r="I43" s="188"/>
+      <c r="J43" s="188"/>
+      <c r="K43" s="188"/>
+      <c r="L43" s="188"/>
+      <c r="M43" s="188"/>
+      <c r="N43" s="188"/>
+      <c r="O43" s="188"/>
+      <c r="P43" s="188"/>
       <c r="T43" s="128"/>
     </row>
-    <row r="44" spans="1:31" s="129" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A44" s="172" t="s">
+    <row r="44" spans="1:31" s="129" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="188" t="s">
         <v>269</v>
       </c>
-      <c r="B44" s="172"/>
-      <c r="C44" s="172"/>
-      <c r="D44" s="172"/>
-      <c r="E44" s="172"/>
-      <c r="F44" s="172"/>
-      <c r="G44" s="172"/>
-      <c r="H44" s="172"/>
-      <c r="I44" s="172"/>
-      <c r="J44" s="172"/>
-      <c r="K44" s="172"/>
-      <c r="L44" s="172"/>
-      <c r="M44" s="172"/>
-      <c r="N44" s="172"/>
-      <c r="O44" s="172"/>
-      <c r="P44" s="172"/>
+      <c r="B44" s="188"/>
+      <c r="C44" s="188"/>
+      <c r="D44" s="188"/>
+      <c r="E44" s="188"/>
+      <c r="F44" s="188"/>
+      <c r="G44" s="188"/>
+      <c r="H44" s="188"/>
+      <c r="I44" s="188"/>
+      <c r="J44" s="188"/>
+      <c r="K44" s="188"/>
+      <c r="L44" s="188"/>
+      <c r="M44" s="188"/>
+      <c r="N44" s="188"/>
+      <c r="O44" s="188"/>
+      <c r="P44" s="188"/>
       <c r="T44" s="128"/>
     </row>
-    <row r="45" spans="1:31" s="129" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A45" s="179" t="s">
+    <row r="45" spans="1:31" s="129" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="181" t="s">
         <v>270</v>
       </c>
-      <c r="B45" s="179"/>
-      <c r="C45" s="179"/>
-      <c r="D45" s="179"/>
-      <c r="E45" s="179"/>
-      <c r="F45" s="179"/>
-      <c r="G45" s="179"/>
-      <c r="H45" s="179"/>
-      <c r="I45" s="179"/>
-      <c r="J45" s="179"/>
-      <c r="K45" s="179"/>
-      <c r="L45" s="179"/>
-      <c r="M45" s="179"/>
-      <c r="N45" s="179"/>
-      <c r="O45" s="179"/>
-      <c r="P45" s="179"/>
+      <c r="B45" s="181"/>
+      <c r="C45" s="181"/>
+      <c r="D45" s="181"/>
+      <c r="E45" s="181"/>
+      <c r="F45" s="181"/>
+      <c r="G45" s="181"/>
+      <c r="H45" s="181"/>
+      <c r="I45" s="181"/>
+      <c r="J45" s="181"/>
+      <c r="K45" s="181"/>
+      <c r="L45" s="181"/>
+      <c r="M45" s="181"/>
+      <c r="N45" s="181"/>
+      <c r="O45" s="181"/>
+      <c r="P45" s="181"/>
       <c r="T45" s="128"/>
     </row>
-    <row r="46" spans="1:31" s="129" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A46" s="177" t="s">
+    <row r="46" spans="1:31" s="129" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="187" t="s">
         <v>271</v>
       </c>
-      <c r="B46" s="177"/>
-      <c r="C46" s="177"/>
-      <c r="D46" s="177"/>
-      <c r="E46" s="177"/>
-      <c r="F46" s="177"/>
-      <c r="G46" s="177"/>
-      <c r="H46" s="177"/>
-      <c r="I46" s="177"/>
-      <c r="J46" s="177"/>
-      <c r="K46" s="177"/>
-      <c r="L46" s="177"/>
-      <c r="M46" s="177"/>
-      <c r="N46" s="177"/>
-      <c r="O46" s="177"/>
-      <c r="P46" s="177"/>
+      <c r="B46" s="187"/>
+      <c r="C46" s="187"/>
+      <c r="D46" s="187"/>
+      <c r="E46" s="187"/>
+      <c r="F46" s="187"/>
+      <c r="G46" s="187"/>
+      <c r="H46" s="187"/>
+      <c r="I46" s="187"/>
+      <c r="J46" s="187"/>
+      <c r="K46" s="187"/>
+      <c r="L46" s="187"/>
+      <c r="M46" s="187"/>
+      <c r="N46" s="187"/>
+      <c r="O46" s="187"/>
+      <c r="P46" s="187"/>
       <c r="T46" s="128"/>
     </row>
-    <row r="47" spans="1:31" s="129" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A47" s="177" t="s">
+    <row r="47" spans="1:31" s="129" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="187" t="s">
         <v>272</v>
       </c>
-      <c r="B47" s="177"/>
-      <c r="C47" s="177"/>
-      <c r="D47" s="177"/>
-      <c r="E47" s="177"/>
-      <c r="F47" s="177"/>
-      <c r="G47" s="177"/>
-      <c r="H47" s="177"/>
-      <c r="I47" s="177"/>
-      <c r="J47" s="177"/>
-      <c r="K47" s="177"/>
-      <c r="L47" s="177"/>
-      <c r="M47" s="177"/>
-      <c r="N47" s="177"/>
-      <c r="O47" s="177"/>
-      <c r="P47" s="177"/>
+      <c r="B47" s="187"/>
+      <c r="C47" s="187"/>
+      <c r="D47" s="187"/>
+      <c r="E47" s="187"/>
+      <c r="F47" s="187"/>
+      <c r="G47" s="187"/>
+      <c r="H47" s="187"/>
+      <c r="I47" s="187"/>
+      <c r="J47" s="187"/>
+      <c r="K47" s="187"/>
+      <c r="L47" s="187"/>
+      <c r="M47" s="187"/>
+      <c r="N47" s="187"/>
+      <c r="O47" s="187"/>
+      <c r="P47" s="187"/>
       <c r="T47" s="128"/>
     </row>
-    <row r="48" spans="1:31" s="129" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A48" s="177" t="s">
+    <row r="48" spans="1:31" s="129" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="187" t="s">
         <v>273</v>
       </c>
-      <c r="B48" s="177"/>
-      <c r="C48" s="177"/>
-      <c r="D48" s="177"/>
-      <c r="E48" s="177"/>
-      <c r="F48" s="177"/>
-      <c r="G48" s="177"/>
-      <c r="H48" s="177"/>
-      <c r="I48" s="177"/>
-      <c r="J48" s="177"/>
-      <c r="K48" s="177"/>
-      <c r="L48" s="177"/>
-      <c r="M48" s="177"/>
-      <c r="N48" s="177"/>
-      <c r="O48" s="177"/>
-      <c r="P48" s="177"/>
+      <c r="B48" s="187"/>
+      <c r="C48" s="187"/>
+      <c r="D48" s="187"/>
+      <c r="E48" s="187"/>
+      <c r="F48" s="187"/>
+      <c r="G48" s="187"/>
+      <c r="H48" s="187"/>
+      <c r="I48" s="187"/>
+      <c r="J48" s="187"/>
+      <c r="K48" s="187"/>
+      <c r="L48" s="187"/>
+      <c r="M48" s="187"/>
+      <c r="N48" s="187"/>
+      <c r="O48" s="187"/>
+      <c r="P48" s="187"/>
       <c r="T48" s="128"/>
     </row>
-    <row r="49" spans="1:20" s="129" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A49" s="177" t="s">
+    <row r="49" spans="1:20" s="129" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="187" t="s">
         <v>274</v>
       </c>
-      <c r="B49" s="177"/>
-      <c r="C49" s="177"/>
-      <c r="D49" s="177"/>
-      <c r="E49" s="177"/>
-      <c r="F49" s="177"/>
-      <c r="G49" s="177"/>
-      <c r="H49" s="177"/>
-      <c r="I49" s="177"/>
-      <c r="J49" s="177"/>
-      <c r="K49" s="177"/>
-      <c r="L49" s="177"/>
-      <c r="M49" s="177"/>
-      <c r="N49" s="177"/>
-      <c r="O49" s="177"/>
-      <c r="P49" s="177"/>
+      <c r="B49" s="187"/>
+      <c r="C49" s="187"/>
+      <c r="D49" s="187"/>
+      <c r="E49" s="187"/>
+      <c r="F49" s="187"/>
+      <c r="G49" s="187"/>
+      <c r="H49" s="187"/>
+      <c r="I49" s="187"/>
+      <c r="J49" s="187"/>
+      <c r="K49" s="187"/>
+      <c r="L49" s="187"/>
+      <c r="M49" s="187"/>
+      <c r="N49" s="187"/>
+      <c r="O49" s="187"/>
+      <c r="P49" s="187"/>
       <c r="T49" s="128"/>
     </row>
-    <row r="50" spans="1:20" s="129" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A50" s="177" t="s">
+    <row r="50" spans="1:20" s="129" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="187" t="s">
         <v>275</v>
       </c>
-      <c r="B50" s="177"/>
-      <c r="C50" s="177"/>
-      <c r="D50" s="177"/>
-      <c r="E50" s="177"/>
-      <c r="F50" s="177"/>
-      <c r="G50" s="177"/>
-      <c r="H50" s="177"/>
-      <c r="I50" s="177"/>
-      <c r="J50" s="177"/>
-      <c r="K50" s="177"/>
-      <c r="L50" s="177"/>
-      <c r="M50" s="177"/>
-      <c r="N50" s="177"/>
-      <c r="O50" s="177"/>
-      <c r="P50" s="177"/>
+      <c r="B50" s="187"/>
+      <c r="C50" s="187"/>
+      <c r="D50" s="187"/>
+      <c r="E50" s="187"/>
+      <c r="F50" s="187"/>
+      <c r="G50" s="187"/>
+      <c r="H50" s="187"/>
+      <c r="I50" s="187"/>
+      <c r="J50" s="187"/>
+      <c r="K50" s="187"/>
+      <c r="L50" s="187"/>
+      <c r="M50" s="187"/>
+      <c r="N50" s="187"/>
+      <c r="O50" s="187"/>
+      <c r="P50" s="187"/>
       <c r="T50" s="128"/>
     </row>
-    <row r="51" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A51" s="178"/>
-      <c r="B51" s="178"/>
-      <c r="C51" s="178"/>
-      <c r="D51" s="178"/>
-      <c r="E51" s="178"/>
-      <c r="F51" s="178"/>
-      <c r="G51" s="178"/>
-      <c r="H51" s="178"/>
-      <c r="I51" s="178"/>
-      <c r="J51" s="178"/>
-      <c r="K51" s="178"/>
-      <c r="L51" s="178"/>
-      <c r="M51" s="178"/>
-      <c r="N51" s="178"/>
-      <c r="O51" s="178"/>
-      <c r="P51" s="178"/>
+    <row r="51" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="186"/>
+      <c r="B51" s="186"/>
+      <c r="C51" s="186"/>
+      <c r="D51" s="186"/>
+      <c r="E51" s="186"/>
+      <c r="F51" s="186"/>
+      <c r="G51" s="186"/>
+      <c r="H51" s="186"/>
+      <c r="I51" s="186"/>
+      <c r="J51" s="186"/>
+      <c r="K51" s="186"/>
+      <c r="L51" s="186"/>
+      <c r="M51" s="186"/>
+      <c r="N51" s="186"/>
+      <c r="O51" s="186"/>
+      <c r="P51" s="186"/>
       <c r="T51" s="130"/>
     </row>
-    <row r="52" spans="1:20" s="129" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A52" s="181" t="s">
+    <row r="52" spans="1:20" s="129" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="180" t="s">
         <v>276</v>
       </c>
-      <c r="B52" s="181"/>
-      <c r="C52" s="181"/>
-      <c r="D52" s="181"/>
-      <c r="E52" s="181"/>
-      <c r="F52" s="181"/>
-      <c r="G52" s="181"/>
-      <c r="H52" s="181"/>
-      <c r="I52" s="181"/>
-      <c r="J52" s="181"/>
-      <c r="K52" s="181"/>
-      <c r="L52" s="181"/>
-      <c r="M52" s="181"/>
-      <c r="N52" s="181"/>
-      <c r="O52" s="181"/>
-      <c r="P52" s="181"/>
+      <c r="B52" s="180"/>
+      <c r="C52" s="180"/>
+      <c r="D52" s="180"/>
+      <c r="E52" s="180"/>
+      <c r="F52" s="180"/>
+      <c r="G52" s="180"/>
+      <c r="H52" s="180"/>
+      <c r="I52" s="180"/>
+      <c r="J52" s="180"/>
+      <c r="K52" s="180"/>
+      <c r="L52" s="180"/>
+      <c r="M52" s="180"/>
+      <c r="N52" s="180"/>
+      <c r="O52" s="180"/>
+      <c r="P52" s="180"/>
       <c r="T52" s="128"/>
     </row>
-    <row r="53" spans="1:20" s="129" customFormat="1" ht="42" customHeight="1">
-      <c r="A53" s="179" t="s">
+    <row r="53" spans="1:20" s="129" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="181" t="s">
         <v>277</v>
       </c>
-      <c r="B53" s="179"/>
-      <c r="C53" s="179"/>
-      <c r="D53" s="179"/>
-      <c r="E53" s="179"/>
-      <c r="F53" s="179"/>
-      <c r="G53" s="179"/>
-      <c r="H53" s="179"/>
-      <c r="I53" s="179"/>
-      <c r="J53" s="179"/>
-      <c r="K53" s="179"/>
-      <c r="L53" s="179"/>
-      <c r="M53" s="179"/>
-      <c r="N53" s="179"/>
-      <c r="O53" s="179"/>
-      <c r="P53" s="179"/>
+      <c r="B53" s="181"/>
+      <c r="C53" s="181"/>
+      <c r="D53" s="181"/>
+      <c r="E53" s="181"/>
+      <c r="F53" s="181"/>
+      <c r="G53" s="181"/>
+      <c r="H53" s="181"/>
+      <c r="I53" s="181"/>
+      <c r="J53" s="181"/>
+      <c r="K53" s="181"/>
+      <c r="L53" s="181"/>
+      <c r="M53" s="181"/>
+      <c r="N53" s="181"/>
+      <c r="O53" s="181"/>
+      <c r="P53" s="181"/>
       <c r="T53" s="128"/>
     </row>
-    <row r="54" spans="1:20" s="129" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A54" s="182" t="s">
+    <row r="54" spans="1:20" s="129" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="176" t="s">
         <v>278</v>
       </c>
-      <c r="B54" s="182"/>
-      <c r="C54" s="182"/>
-      <c r="D54" s="182"/>
-      <c r="E54" s="182"/>
-      <c r="F54" s="182"/>
-      <c r="G54" s="182"/>
-      <c r="H54" s="182"/>
-      <c r="I54" s="182"/>
-      <c r="J54" s="182"/>
-      <c r="K54" s="182"/>
-      <c r="L54" s="182"/>
-      <c r="M54" s="182"/>
-      <c r="N54" s="182"/>
-      <c r="O54" s="182"/>
-      <c r="P54" s="182"/>
+      <c r="B54" s="176"/>
+      <c r="C54" s="176"/>
+      <c r="D54" s="176"/>
+      <c r="E54" s="176"/>
+      <c r="F54" s="176"/>
+      <c r="G54" s="176"/>
+      <c r="H54" s="176"/>
+      <c r="I54" s="176"/>
+      <c r="J54" s="176"/>
+      <c r="K54" s="176"/>
+      <c r="L54" s="176"/>
+      <c r="M54" s="176"/>
+      <c r="N54" s="176"/>
+      <c r="O54" s="176"/>
+      <c r="P54" s="176"/>
       <c r="T54" s="128"/>
     </row>
-    <row r="55" spans="1:20" s="129" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A55" s="183" t="s">
+    <row r="55" spans="1:20" s="129" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="182" t="s">
         <v>279</v>
       </c>
-      <c r="B55" s="183"/>
-      <c r="C55" s="183"/>
-      <c r="D55" s="183"/>
-      <c r="E55" s="183"/>
-      <c r="F55" s="183"/>
-      <c r="G55" s="183"/>
-      <c r="H55" s="183"/>
-      <c r="I55" s="183"/>
-      <c r="J55" s="183"/>
-      <c r="K55" s="183"/>
-      <c r="L55" s="183"/>
-      <c r="M55" s="183"/>
-      <c r="N55" s="183"/>
-      <c r="O55" s="183"/>
-      <c r="P55" s="183"/>
+      <c r="B55" s="182"/>
+      <c r="C55" s="182"/>
+      <c r="D55" s="182"/>
+      <c r="E55" s="182"/>
+      <c r="F55" s="182"/>
+      <c r="G55" s="182"/>
+      <c r="H55" s="182"/>
+      <c r="I55" s="182"/>
+      <c r="J55" s="182"/>
+      <c r="K55" s="182"/>
+      <c r="L55" s="182"/>
+      <c r="M55" s="182"/>
+      <c r="N55" s="182"/>
+      <c r="O55" s="182"/>
+      <c r="P55" s="182"/>
       <c r="T55" s="128"/>
     </row>
-    <row r="56" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A56" s="182" t="s">
+    <row r="56" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="176" t="s">
         <v>280</v>
       </c>
-      <c r="B56" s="182"/>
-      <c r="C56" s="182"/>
-      <c r="D56" s="182"/>
-      <c r="E56" s="182"/>
-      <c r="F56" s="182"/>
-      <c r="G56" s="182"/>
-      <c r="H56" s="182"/>
-      <c r="I56" s="182"/>
-      <c r="J56" s="182"/>
-      <c r="K56" s="182"/>
-      <c r="L56" s="182"/>
-      <c r="M56" s="182"/>
-      <c r="N56" s="182"/>
-      <c r="O56" s="182"/>
-      <c r="P56" s="182"/>
+      <c r="B56" s="176"/>
+      <c r="C56" s="176"/>
+      <c r="D56" s="176"/>
+      <c r="E56" s="176"/>
+      <c r="F56" s="176"/>
+      <c r="G56" s="176"/>
+      <c r="H56" s="176"/>
+      <c r="I56" s="176"/>
+      <c r="J56" s="176"/>
+      <c r="K56" s="176"/>
+      <c r="L56" s="176"/>
+      <c r="M56" s="176"/>
+      <c r="N56" s="176"/>
+      <c r="O56" s="176"/>
+      <c r="P56" s="176"/>
       <c r="T56" s="130"/>
     </row>
-    <row r="57" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A57" s="182" t="s">
+    <row r="57" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="176" t="s">
         <v>281</v>
       </c>
-      <c r="B57" s="182"/>
-      <c r="C57" s="182"/>
-      <c r="D57" s="182"/>
-      <c r="E57" s="182"/>
-      <c r="F57" s="182"/>
-      <c r="G57" s="182"/>
-      <c r="H57" s="182"/>
-      <c r="I57" s="182"/>
-      <c r="J57" s="182"/>
-      <c r="K57" s="182"/>
-      <c r="L57" s="182"/>
-      <c r="M57" s="182"/>
-      <c r="N57" s="182"/>
-      <c r="O57" s="182"/>
-      <c r="P57" s="182"/>
+      <c r="B57" s="176"/>
+      <c r="C57" s="176"/>
+      <c r="D57" s="176"/>
+      <c r="E57" s="176"/>
+      <c r="F57" s="176"/>
+      <c r="G57" s="176"/>
+      <c r="H57" s="176"/>
+      <c r="I57" s="176"/>
+      <c r="J57" s="176"/>
+      <c r="K57" s="176"/>
+      <c r="L57" s="176"/>
+      <c r="M57" s="176"/>
+      <c r="N57" s="176"/>
+      <c r="O57" s="176"/>
+      <c r="P57" s="176"/>
       <c r="T57" s="130"/>
     </row>
-    <row r="58" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A58" s="184"/>
-      <c r="B58" s="184"/>
-      <c r="C58" s="184"/>
-      <c r="D58" s="184"/>
-      <c r="E58" s="184"/>
-      <c r="F58" s="184"/>
-      <c r="G58" s="184"/>
-      <c r="H58" s="184"/>
-      <c r="I58" s="184"/>
-      <c r="J58" s="184"/>
-      <c r="K58" s="184"/>
-      <c r="L58" s="184"/>
-      <c r="M58" s="184"/>
-      <c r="N58" s="184"/>
-      <c r="O58" s="184"/>
-      <c r="P58" s="184"/>
+    <row r="58" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="183"/>
+      <c r="B58" s="183"/>
+      <c r="C58" s="183"/>
+      <c r="D58" s="183"/>
+      <c r="E58" s="183"/>
+      <c r="F58" s="183"/>
+      <c r="G58" s="183"/>
+      <c r="H58" s="183"/>
+      <c r="I58" s="183"/>
+      <c r="J58" s="183"/>
+      <c r="K58" s="183"/>
+      <c r="L58" s="183"/>
+      <c r="M58" s="183"/>
+      <c r="N58" s="183"/>
+      <c r="O58" s="183"/>
+      <c r="P58" s="183"/>
       <c r="T58" s="130"/>
     </row>
-    <row r="59" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A59" s="175" t="s">
+    <row r="59" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="184" t="s">
         <v>282</v>
       </c>
-      <c r="B59" s="175"/>
-      <c r="C59" s="175"/>
-      <c r="D59" s="175"/>
-      <c r="E59" s="175"/>
-      <c r="F59" s="175"/>
-      <c r="G59" s="175"/>
-      <c r="H59" s="175"/>
-      <c r="I59" s="175"/>
-      <c r="J59" s="175"/>
-      <c r="K59" s="175"/>
-      <c r="L59" s="175"/>
-      <c r="M59" s="175"/>
-      <c r="N59" s="175"/>
-      <c r="O59" s="175"/>
-      <c r="P59" s="175"/>
+      <c r="B59" s="184"/>
+      <c r="C59" s="184"/>
+      <c r="D59" s="184"/>
+      <c r="E59" s="184"/>
+      <c r="F59" s="184"/>
+      <c r="G59" s="184"/>
+      <c r="H59" s="184"/>
+      <c r="I59" s="184"/>
+      <c r="J59" s="184"/>
+      <c r="K59" s="184"/>
+      <c r="L59" s="184"/>
+      <c r="M59" s="184"/>
+      <c r="N59" s="184"/>
+      <c r="O59" s="184"/>
+      <c r="P59" s="184"/>
       <c r="T59" s="130"/>
     </row>
-    <row r="60" spans="1:20" s="129" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A60" s="175" t="s">
+    <row r="60" spans="1:20" s="129" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="184" t="s">
         <v>283</v>
       </c>
-      <c r="B60" s="175"/>
-      <c r="C60" s="175"/>
-      <c r="D60" s="175"/>
-      <c r="E60" s="175"/>
-      <c r="F60" s="175"/>
-      <c r="G60" s="175"/>
-      <c r="H60" s="175"/>
-      <c r="I60" s="175"/>
-      <c r="J60" s="175"/>
-      <c r="K60" s="175"/>
-      <c r="L60" s="175"/>
-      <c r="M60" s="175"/>
-      <c r="N60" s="175"/>
-      <c r="O60" s="175"/>
-      <c r="P60" s="175"/>
+      <c r="B60" s="184"/>
+      <c r="C60" s="184"/>
+      <c r="D60" s="184"/>
+      <c r="E60" s="184"/>
+      <c r="F60" s="184"/>
+      <c r="G60" s="184"/>
+      <c r="H60" s="184"/>
+      <c r="I60" s="184"/>
+      <c r="J60" s="184"/>
+      <c r="K60" s="184"/>
+      <c r="L60" s="184"/>
+      <c r="M60" s="184"/>
+      <c r="N60" s="184"/>
+      <c r="O60" s="184"/>
+      <c r="P60" s="184"/>
       <c r="T60" s="128"/>
     </row>
-    <row r="61" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A61" s="185" t="s">
+    <row r="61" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="173" t="s">
         <v>284</v>
       </c>
-      <c r="B61" s="185"/>
-      <c r="C61" s="185"/>
-      <c r="D61" s="185"/>
-      <c r="E61" s="185"/>
-      <c r="F61" s="185"/>
-      <c r="G61" s="185"/>
-      <c r="H61" s="185"/>
-      <c r="I61" s="185"/>
-      <c r="J61" s="185"/>
-      <c r="K61" s="185"/>
-      <c r="L61" s="185"/>
-      <c r="M61" s="185"/>
-      <c r="N61" s="185"/>
-      <c r="O61" s="185"/>
-      <c r="P61" s="185"/>
+      <c r="B61" s="173"/>
+      <c r="C61" s="173"/>
+      <c r="D61" s="173"/>
+      <c r="E61" s="173"/>
+      <c r="F61" s="173"/>
+      <c r="G61" s="173"/>
+      <c r="H61" s="173"/>
+      <c r="I61" s="173"/>
+      <c r="J61" s="173"/>
+      <c r="K61" s="173"/>
+      <c r="L61" s="173"/>
+      <c r="M61" s="173"/>
+      <c r="N61" s="173"/>
+      <c r="O61" s="173"/>
+      <c r="P61" s="173"/>
       <c r="T61" s="130"/>
     </row>
-    <row r="62" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A62" s="186" t="s">
+    <row r="62" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="185" t="s">
         <v>285</v>
       </c>
-      <c r="B62" s="186"/>
-      <c r="C62" s="186"/>
-      <c r="D62" s="186"/>
-      <c r="E62" s="186"/>
-      <c r="F62" s="186"/>
-      <c r="G62" s="186"/>
-      <c r="H62" s="186"/>
-      <c r="I62" s="186"/>
-      <c r="J62" s="186"/>
-      <c r="K62" s="186"/>
-      <c r="L62" s="186"/>
-      <c r="M62" s="186"/>
-      <c r="N62" s="186"/>
-      <c r="O62" s="186"/>
-      <c r="P62" s="186"/>
+      <c r="B62" s="185"/>
+      <c r="C62" s="185"/>
+      <c r="D62" s="185"/>
+      <c r="E62" s="185"/>
+      <c r="F62" s="185"/>
+      <c r="G62" s="185"/>
+      <c r="H62" s="185"/>
+      <c r="I62" s="185"/>
+      <c r="J62" s="185"/>
+      <c r="K62" s="185"/>
+      <c r="L62" s="185"/>
+      <c r="M62" s="185"/>
+      <c r="N62" s="185"/>
+      <c r="O62" s="185"/>
+      <c r="P62" s="185"/>
       <c r="T62" s="130"/>
     </row>
-    <row r="63" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A63" s="180" t="s">
+    <row r="63" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="174" t="s">
         <v>286</v>
       </c>
-      <c r="B63" s="180"/>
-      <c r="C63" s="180"/>
-      <c r="D63" s="180"/>
-      <c r="E63" s="180"/>
-      <c r="F63" s="180"/>
-      <c r="G63" s="180"/>
-      <c r="H63" s="180"/>
-      <c r="I63" s="180"/>
-      <c r="J63" s="180"/>
-      <c r="K63" s="180"/>
-      <c r="L63" s="180"/>
-      <c r="M63" s="180"/>
-      <c r="N63" s="180"/>
-      <c r="O63" s="180"/>
-      <c r="P63" s="180"/>
+      <c r="B63" s="174"/>
+      <c r="C63" s="174"/>
+      <c r="D63" s="174"/>
+      <c r="E63" s="174"/>
+      <c r="F63" s="174"/>
+      <c r="G63" s="174"/>
+      <c r="H63" s="174"/>
+      <c r="I63" s="174"/>
+      <c r="J63" s="174"/>
+      <c r="K63" s="174"/>
+      <c r="L63" s="174"/>
+      <c r="M63" s="174"/>
+      <c r="N63" s="174"/>
+      <c r="O63" s="174"/>
+      <c r="P63" s="174"/>
       <c r="T63" s="130"/>
     </row>
-    <row r="64" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A64" s="180" t="s">
+    <row r="64" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="174" t="s">
         <v>287</v>
       </c>
-      <c r="B64" s="180"/>
-      <c r="C64" s="180"/>
-      <c r="D64" s="180"/>
-      <c r="E64" s="180"/>
-      <c r="F64" s="180"/>
-      <c r="G64" s="180"/>
-      <c r="H64" s="180"/>
-      <c r="I64" s="180"/>
-      <c r="J64" s="180"/>
-      <c r="K64" s="180"/>
-      <c r="L64" s="180"/>
-      <c r="M64" s="180"/>
-      <c r="N64" s="180"/>
-      <c r="O64" s="180"/>
-      <c r="P64" s="180"/>
+      <c r="B64" s="174"/>
+      <c r="C64" s="174"/>
+      <c r="D64" s="174"/>
+      <c r="E64" s="174"/>
+      <c r="F64" s="174"/>
+      <c r="G64" s="174"/>
+      <c r="H64" s="174"/>
+      <c r="I64" s="174"/>
+      <c r="J64" s="174"/>
+      <c r="K64" s="174"/>
+      <c r="L64" s="174"/>
+      <c r="M64" s="174"/>
+      <c r="N64" s="174"/>
+      <c r="O64" s="174"/>
+      <c r="P64" s="174"/>
       <c r="T64" s="130"/>
     </row>
-    <row r="65" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A65" s="180" t="s">
+    <row r="65" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="174" t="s">
         <v>288</v>
       </c>
-      <c r="B65" s="180"/>
-      <c r="C65" s="180"/>
-      <c r="D65" s="180"/>
-      <c r="E65" s="180"/>
-      <c r="F65" s="180"/>
-      <c r="G65" s="180"/>
-      <c r="H65" s="180"/>
-      <c r="I65" s="180"/>
-      <c r="J65" s="180"/>
-      <c r="K65" s="180"/>
-      <c r="L65" s="180"/>
-      <c r="M65" s="180"/>
-      <c r="N65" s="180"/>
-      <c r="O65" s="180"/>
-      <c r="P65" s="180"/>
+      <c r="B65" s="174"/>
+      <c r="C65" s="174"/>
+      <c r="D65" s="174"/>
+      <c r="E65" s="174"/>
+      <c r="F65" s="174"/>
+      <c r="G65" s="174"/>
+      <c r="H65" s="174"/>
+      <c r="I65" s="174"/>
+      <c r="J65" s="174"/>
+      <c r="K65" s="174"/>
+      <c r="L65" s="174"/>
+      <c r="M65" s="174"/>
+      <c r="N65" s="174"/>
+      <c r="O65" s="174"/>
+      <c r="P65" s="174"/>
       <c r="T65" s="130"/>
     </row>
-    <row r="66" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A66" s="180" t="s">
+    <row r="66" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="174" t="s">
         <v>289</v>
       </c>
-      <c r="B66" s="180"/>
-      <c r="C66" s="180"/>
-      <c r="D66" s="180"/>
-      <c r="E66" s="180"/>
-      <c r="F66" s="180"/>
-      <c r="G66" s="180"/>
-      <c r="H66" s="180"/>
-      <c r="I66" s="180"/>
-      <c r="J66" s="180"/>
-      <c r="K66" s="180"/>
-      <c r="L66" s="180"/>
-      <c r="M66" s="180"/>
-      <c r="N66" s="180"/>
-      <c r="O66" s="180"/>
-      <c r="P66" s="180"/>
+      <c r="B66" s="174"/>
+      <c r="C66" s="174"/>
+      <c r="D66" s="174"/>
+      <c r="E66" s="174"/>
+      <c r="F66" s="174"/>
+      <c r="G66" s="174"/>
+      <c r="H66" s="174"/>
+      <c r="I66" s="174"/>
+      <c r="J66" s="174"/>
+      <c r="K66" s="174"/>
+      <c r="L66" s="174"/>
+      <c r="M66" s="174"/>
+      <c r="N66" s="174"/>
+      <c r="O66" s="174"/>
+      <c r="P66" s="174"/>
       <c r="T66" s="130"/>
     </row>
-    <row r="67" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A67" s="180" t="s">
+    <row r="67" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="174" t="s">
         <v>290</v>
       </c>
-      <c r="B67" s="180"/>
-      <c r="C67" s="180"/>
-      <c r="D67" s="180"/>
-      <c r="E67" s="180"/>
-      <c r="F67" s="180"/>
-      <c r="G67" s="180"/>
-      <c r="H67" s="180"/>
-      <c r="I67" s="180"/>
-      <c r="J67" s="180"/>
-      <c r="K67" s="180"/>
-      <c r="L67" s="180"/>
-      <c r="M67" s="180"/>
-      <c r="N67" s="180"/>
-      <c r="O67" s="180"/>
-      <c r="P67" s="180"/>
+      <c r="B67" s="174"/>
+      <c r="C67" s="174"/>
+      <c r="D67" s="174"/>
+      <c r="E67" s="174"/>
+      <c r="F67" s="174"/>
+      <c r="G67" s="174"/>
+      <c r="H67" s="174"/>
+      <c r="I67" s="174"/>
+      <c r="J67" s="174"/>
+      <c r="K67" s="174"/>
+      <c r="L67" s="174"/>
+      <c r="M67" s="174"/>
+      <c r="N67" s="174"/>
+      <c r="O67" s="174"/>
+      <c r="P67" s="174"/>
       <c r="T67" s="130"/>
     </row>
-    <row r="68" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A68" s="185" t="s">
+    <row r="68" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="173" t="s">
         <v>291</v>
       </c>
-      <c r="B68" s="185"/>
-      <c r="C68" s="185"/>
-      <c r="D68" s="185"/>
-      <c r="E68" s="185"/>
-      <c r="F68" s="185"/>
-      <c r="G68" s="185"/>
-      <c r="H68" s="185"/>
-      <c r="I68" s="185"/>
-      <c r="J68" s="185"/>
-      <c r="K68" s="185"/>
-      <c r="L68" s="185"/>
-      <c r="M68" s="185"/>
-      <c r="N68" s="185"/>
-      <c r="O68" s="185"/>
-      <c r="P68" s="185"/>
+      <c r="B68" s="173"/>
+      <c r="C68" s="173"/>
+      <c r="D68" s="173"/>
+      <c r="E68" s="173"/>
+      <c r="F68" s="173"/>
+      <c r="G68" s="173"/>
+      <c r="H68" s="173"/>
+      <c r="I68" s="173"/>
+      <c r="J68" s="173"/>
+      <c r="K68" s="173"/>
+      <c r="L68" s="173"/>
+      <c r="M68" s="173"/>
+      <c r="N68" s="173"/>
+      <c r="O68" s="173"/>
+      <c r="P68" s="173"/>
       <c r="T68" s="130"/>
     </row>
-    <row r="69" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A69" s="180" t="s">
+    <row r="69" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="174" t="s">
         <v>292</v>
       </c>
-      <c r="B69" s="180"/>
-      <c r="C69" s="180"/>
-      <c r="D69" s="180"/>
-      <c r="E69" s="180"/>
-      <c r="F69" s="180"/>
-      <c r="G69" s="180"/>
-      <c r="H69" s="180"/>
-      <c r="I69" s="180"/>
-      <c r="J69" s="180"/>
-      <c r="K69" s="180"/>
-      <c r="L69" s="180"/>
-      <c r="M69" s="180"/>
-      <c r="N69" s="180"/>
-      <c r="O69" s="180"/>
-      <c r="P69" s="180"/>
+      <c r="B69" s="174"/>
+      <c r="C69" s="174"/>
+      <c r="D69" s="174"/>
+      <c r="E69" s="174"/>
+      <c r="F69" s="174"/>
+      <c r="G69" s="174"/>
+      <c r="H69" s="174"/>
+      <c r="I69" s="174"/>
+      <c r="J69" s="174"/>
+      <c r="K69" s="174"/>
+      <c r="L69" s="174"/>
+      <c r="M69" s="174"/>
+      <c r="N69" s="174"/>
+      <c r="O69" s="174"/>
+      <c r="P69" s="174"/>
       <c r="T69" s="130"/>
     </row>
-    <row r="70" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A70" s="180" t="s">
+    <row r="70" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="174" t="s">
         <v>293</v>
       </c>
-      <c r="B70" s="180"/>
-      <c r="C70" s="180"/>
-      <c r="D70" s="180"/>
-      <c r="E70" s="180"/>
-      <c r="F70" s="180"/>
-      <c r="G70" s="180"/>
-      <c r="H70" s="180"/>
-      <c r="I70" s="180"/>
-      <c r="J70" s="180"/>
-      <c r="K70" s="180"/>
-      <c r="L70" s="180"/>
-      <c r="M70" s="180"/>
-      <c r="N70" s="180"/>
-      <c r="O70" s="180"/>
-      <c r="P70" s="180"/>
+      <c r="B70" s="174"/>
+      <c r="C70" s="174"/>
+      <c r="D70" s="174"/>
+      <c r="E70" s="174"/>
+      <c r="F70" s="174"/>
+      <c r="G70" s="174"/>
+      <c r="H70" s="174"/>
+      <c r="I70" s="174"/>
+      <c r="J70" s="174"/>
+      <c r="K70" s="174"/>
+      <c r="L70" s="174"/>
+      <c r="M70" s="174"/>
+      <c r="N70" s="174"/>
+      <c r="O70" s="174"/>
+      <c r="P70" s="174"/>
       <c r="T70" s="130"/>
     </row>
-    <row r="71" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A71" s="180" t="s">
+    <row r="71" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="174" t="s">
         <v>294</v>
       </c>
-      <c r="B71" s="180"/>
-      <c r="C71" s="180"/>
-      <c r="D71" s="180"/>
-      <c r="E71" s="180"/>
-      <c r="F71" s="180"/>
-      <c r="G71" s="180"/>
-      <c r="H71" s="180"/>
-      <c r="I71" s="180"/>
-      <c r="J71" s="180"/>
-      <c r="K71" s="180"/>
-      <c r="L71" s="180"/>
-      <c r="M71" s="180"/>
-      <c r="N71" s="180"/>
-      <c r="O71" s="180"/>
-      <c r="P71" s="180"/>
+      <c r="B71" s="174"/>
+      <c r="C71" s="174"/>
+      <c r="D71" s="174"/>
+      <c r="E71" s="174"/>
+      <c r="F71" s="174"/>
+      <c r="G71" s="174"/>
+      <c r="H71" s="174"/>
+      <c r="I71" s="174"/>
+      <c r="J71" s="174"/>
+      <c r="K71" s="174"/>
+      <c r="L71" s="174"/>
+      <c r="M71" s="174"/>
+      <c r="N71" s="174"/>
+      <c r="O71" s="174"/>
+      <c r="P71" s="174"/>
       <c r="T71" s="130"/>
     </row>
-    <row r="72" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A72" s="180" t="s">
+    <row r="72" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="174" t="s">
         <v>295</v>
       </c>
-      <c r="B72" s="180"/>
-      <c r="C72" s="180"/>
-      <c r="D72" s="180"/>
-      <c r="E72" s="180"/>
-      <c r="F72" s="180"/>
-      <c r="G72" s="180"/>
-      <c r="H72" s="180"/>
-      <c r="I72" s="180"/>
-      <c r="J72" s="180"/>
-      <c r="K72" s="180"/>
-      <c r="L72" s="180"/>
-      <c r="M72" s="180"/>
-      <c r="N72" s="180"/>
-      <c r="O72" s="180"/>
-      <c r="P72" s="180"/>
+      <c r="B72" s="174"/>
+      <c r="C72" s="174"/>
+      <c r="D72" s="174"/>
+      <c r="E72" s="174"/>
+      <c r="F72" s="174"/>
+      <c r="G72" s="174"/>
+      <c r="H72" s="174"/>
+      <c r="I72" s="174"/>
+      <c r="J72" s="174"/>
+      <c r="K72" s="174"/>
+      <c r="L72" s="174"/>
+      <c r="M72" s="174"/>
+      <c r="N72" s="174"/>
+      <c r="O72" s="174"/>
+      <c r="P72" s="174"/>
       <c r="T72" s="130"/>
     </row>
-    <row r="73" spans="1:20" s="127" customFormat="1" ht="15" customHeight="1">
-      <c r="A73" s="180" t="s">
+    <row r="73" spans="1:20" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="174" t="s">
         <v>296</v>
       </c>
-      <c r="B73" s="180"/>
-      <c r="C73" s="180"/>
-      <c r="D73" s="180"/>
-      <c r="E73" s="180"/>
-      <c r="F73" s="180"/>
-      <c r="G73" s="180"/>
-      <c r="H73" s="180"/>
-      <c r="I73" s="180"/>
-      <c r="J73" s="180"/>
-      <c r="K73" s="180"/>
-      <c r="L73" s="180"/>
-      <c r="M73" s="180"/>
-      <c r="N73" s="180"/>
-      <c r="O73" s="180"/>
-      <c r="P73" s="180"/>
+      <c r="B73" s="174"/>
+      <c r="C73" s="174"/>
+      <c r="D73" s="174"/>
+      <c r="E73" s="174"/>
+      <c r="F73" s="174"/>
+      <c r="G73" s="174"/>
+      <c r="H73" s="174"/>
+      <c r="I73" s="174"/>
+      <c r="J73" s="174"/>
+      <c r="K73" s="174"/>
+      <c r="L73" s="174"/>
+      <c r="M73" s="174"/>
+      <c r="N73" s="174"/>
+      <c r="O73" s="174"/>
+      <c r="P73" s="174"/>
       <c r="T73" s="130"/>
     </row>
-    <row r="74" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A74" s="187" t="s">
+    <row r="74" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="175" t="s">
         <v>297</v>
       </c>
-      <c r="B74" s="187"/>
-      <c r="C74" s="187"/>
-      <c r="D74" s="187"/>
-      <c r="E74" s="187"/>
-      <c r="F74" s="187"/>
-      <c r="G74" s="187"/>
-      <c r="H74" s="187"/>
-      <c r="I74" s="187"/>
-      <c r="J74" s="187"/>
-      <c r="K74" s="187"/>
-      <c r="L74" s="187"/>
-      <c r="M74" s="187"/>
-      <c r="N74" s="187"/>
-      <c r="O74" s="187"/>
-      <c r="P74" s="187"/>
+      <c r="B74" s="175"/>
+      <c r="C74" s="175"/>
+      <c r="D74" s="175"/>
+      <c r="E74" s="175"/>
+      <c r="F74" s="175"/>
+      <c r="G74" s="175"/>
+      <c r="H74" s="175"/>
+      <c r="I74" s="175"/>
+      <c r="J74" s="175"/>
+      <c r="K74" s="175"/>
+      <c r="L74" s="175"/>
+      <c r="M74" s="175"/>
+      <c r="N74" s="175"/>
+      <c r="O74" s="175"/>
+      <c r="P74" s="175"/>
       <c r="T74" s="130"/>
     </row>
-    <row r="75" spans="1:20" s="129" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A75" s="185" t="s">
+    <row r="75" spans="1:20" s="129" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="173" t="s">
         <v>298</v>
       </c>
-      <c r="B75" s="185"/>
-      <c r="C75" s="185"/>
-      <c r="D75" s="185"/>
-      <c r="E75" s="185"/>
-      <c r="F75" s="185"/>
-      <c r="G75" s="185"/>
-      <c r="H75" s="185"/>
-      <c r="I75" s="185"/>
-      <c r="J75" s="185"/>
-      <c r="K75" s="185"/>
-      <c r="L75" s="185"/>
-      <c r="M75" s="185"/>
-      <c r="N75" s="185"/>
-      <c r="O75" s="185"/>
-      <c r="P75" s="185"/>
+      <c r="B75" s="173"/>
+      <c r="C75" s="173"/>
+      <c r="D75" s="173"/>
+      <c r="E75" s="173"/>
+      <c r="F75" s="173"/>
+      <c r="G75" s="173"/>
+      <c r="H75" s="173"/>
+      <c r="I75" s="173"/>
+      <c r="J75" s="173"/>
+      <c r="K75" s="173"/>
+      <c r="L75" s="173"/>
+      <c r="M75" s="173"/>
+      <c r="N75" s="173"/>
+      <c r="O75" s="173"/>
+      <c r="P75" s="173"/>
       <c r="T75" s="128"/>
     </row>
-    <row r="76" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A76" s="182" t="s">
+    <row r="76" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="176" t="s">
         <v>299</v>
       </c>
-      <c r="B76" s="182"/>
-      <c r="C76" s="182"/>
-      <c r="D76" s="182"/>
-      <c r="E76" s="182"/>
-      <c r="F76" s="182"/>
-      <c r="G76" s="182"/>
-      <c r="H76" s="182"/>
-      <c r="I76" s="182"/>
-      <c r="J76" s="182"/>
-      <c r="K76" s="182"/>
-      <c r="L76" s="182"/>
-      <c r="M76" s="182"/>
-      <c r="N76" s="182"/>
-      <c r="O76" s="182"/>
-      <c r="P76" s="182"/>
+      <c r="B76" s="176"/>
+      <c r="C76" s="176"/>
+      <c r="D76" s="176"/>
+      <c r="E76" s="176"/>
+      <c r="F76" s="176"/>
+      <c r="G76" s="176"/>
+      <c r="H76" s="176"/>
+      <c r="I76" s="176"/>
+      <c r="J76" s="176"/>
+      <c r="K76" s="176"/>
+      <c r="L76" s="176"/>
+      <c r="M76" s="176"/>
+      <c r="N76" s="176"/>
+      <c r="O76" s="176"/>
+      <c r="P76" s="176"/>
       <c r="T76" s="130"/>
     </row>
-    <row r="77" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A77" s="188" t="s">
+    <row r="77" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="178" t="s">
         <v>300</v>
       </c>
-      <c r="B77" s="188"/>
-      <c r="C77" s="188"/>
-      <c r="D77" s="188"/>
-      <c r="E77" s="188"/>
-      <c r="F77" s="188"/>
-      <c r="G77" s="188"/>
-      <c r="H77" s="188"/>
-      <c r="I77" s="188"/>
-      <c r="J77" s="188"/>
-      <c r="K77" s="188"/>
-      <c r="L77" s="188"/>
-      <c r="M77" s="188"/>
-      <c r="N77" s="188"/>
-      <c r="O77" s="188"/>
-      <c r="P77" s="188"/>
+      <c r="B77" s="178"/>
+      <c r="C77" s="178"/>
+      <c r="D77" s="178"/>
+      <c r="E77" s="178"/>
+      <c r="F77" s="178"/>
+      <c r="G77" s="178"/>
+      <c r="H77" s="178"/>
+      <c r="I77" s="178"/>
+      <c r="J77" s="178"/>
+      <c r="K77" s="178"/>
+      <c r="L77" s="178"/>
+      <c r="M77" s="178"/>
+      <c r="N77" s="178"/>
+      <c r="O77" s="178"/>
+      <c r="P77" s="178"/>
       <c r="T77" s="130"/>
     </row>
-    <row r="78" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A78" s="189" t="s">
+    <row r="78" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="179" t="s">
         <v>301</v>
       </c>
-      <c r="B78" s="189"/>
-      <c r="C78" s="189"/>
-      <c r="D78" s="189"/>
-      <c r="E78" s="189"/>
-      <c r="F78" s="189"/>
-      <c r="G78" s="189"/>
-      <c r="H78" s="189"/>
-      <c r="I78" s="189"/>
-      <c r="J78" s="189"/>
-      <c r="K78" s="189"/>
-      <c r="L78" s="189"/>
-      <c r="M78" s="189"/>
-      <c r="N78" s="189"/>
-      <c r="O78" s="189"/>
-      <c r="P78" s="189"/>
+      <c r="B78" s="179"/>
+      <c r="C78" s="179"/>
+      <c r="D78" s="179"/>
+      <c r="E78" s="179"/>
+      <c r="F78" s="179"/>
+      <c r="G78" s="179"/>
+      <c r="H78" s="179"/>
+      <c r="I78" s="179"/>
+      <c r="J78" s="179"/>
+      <c r="K78" s="179"/>
+      <c r="L78" s="179"/>
+      <c r="M78" s="179"/>
+      <c r="N78" s="179"/>
+      <c r="O78" s="179"/>
+      <c r="P78" s="179"/>
       <c r="T78" s="130"/>
     </row>
-    <row r="79" spans="1:20" s="127" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A79" s="188" t="s">
+    <row r="79" spans="1:20" s="127" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="178" t="s">
         <v>302</v>
       </c>
-      <c r="B79" s="188"/>
-      <c r="C79" s="188"/>
-      <c r="D79" s="188"/>
-      <c r="E79" s="188"/>
-      <c r="F79" s="188"/>
-      <c r="G79" s="188"/>
-      <c r="H79" s="188"/>
-      <c r="I79" s="188"/>
-      <c r="J79" s="188"/>
-      <c r="K79" s="188"/>
-      <c r="L79" s="188"/>
-      <c r="M79" s="188"/>
-      <c r="N79" s="188"/>
-      <c r="O79" s="188"/>
-      <c r="P79" s="188"/>
+      <c r="B79" s="178"/>
+      <c r="C79" s="178"/>
+      <c r="D79" s="178"/>
+      <c r="E79" s="178"/>
+      <c r="F79" s="178"/>
+      <c r="G79" s="178"/>
+      <c r="H79" s="178"/>
+      <c r="I79" s="178"/>
+      <c r="J79" s="178"/>
+      <c r="K79" s="178"/>
+      <c r="L79" s="178"/>
+      <c r="M79" s="178"/>
+      <c r="N79" s="178"/>
+      <c r="O79" s="178"/>
+      <c r="P79" s="178"/>
       <c r="T79" s="130"/>
     </row>
-    <row r="80" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A80" s="185" t="s">
+    <row r="80" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="173" t="s">
         <v>303</v>
       </c>
-      <c r="B80" s="185"/>
-      <c r="C80" s="185"/>
-      <c r="D80" s="185"/>
-      <c r="E80" s="185"/>
-      <c r="F80" s="185"/>
-      <c r="G80" s="185"/>
-      <c r="H80" s="185"/>
-      <c r="I80" s="185"/>
-      <c r="J80" s="185"/>
-      <c r="K80" s="185"/>
-      <c r="L80" s="185"/>
-      <c r="M80" s="185"/>
-      <c r="N80" s="185"/>
-      <c r="O80" s="185"/>
-      <c r="P80" s="185"/>
+      <c r="B80" s="173"/>
+      <c r="C80" s="173"/>
+      <c r="D80" s="173"/>
+      <c r="E80" s="173"/>
+      <c r="F80" s="173"/>
+      <c r="G80" s="173"/>
+      <c r="H80" s="173"/>
+      <c r="I80" s="173"/>
+      <c r="J80" s="173"/>
+      <c r="K80" s="173"/>
+      <c r="L80" s="173"/>
+      <c r="M80" s="173"/>
+      <c r="N80" s="173"/>
+      <c r="O80" s="173"/>
+      <c r="P80" s="173"/>
       <c r="T80" s="130"/>
     </row>
-    <row r="81" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A81" s="182" t="s">
+    <row r="81" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="176" t="s">
         <v>304</v>
       </c>
-      <c r="B81" s="182"/>
-      <c r="C81" s="182"/>
-      <c r="D81" s="182"/>
-      <c r="E81" s="182"/>
-      <c r="F81" s="182"/>
-      <c r="G81" s="182"/>
-      <c r="H81" s="182"/>
-      <c r="I81" s="182"/>
-      <c r="J81" s="182"/>
-      <c r="K81" s="182"/>
-      <c r="L81" s="182"/>
-      <c r="M81" s="182"/>
-      <c r="N81" s="182"/>
-      <c r="O81" s="182"/>
-      <c r="P81" s="182"/>
+      <c r="B81" s="176"/>
+      <c r="C81" s="176"/>
+      <c r="D81" s="176"/>
+      <c r="E81" s="176"/>
+      <c r="F81" s="176"/>
+      <c r="G81" s="176"/>
+      <c r="H81" s="176"/>
+      <c r="I81" s="176"/>
+      <c r="J81" s="176"/>
+      <c r="K81" s="176"/>
+      <c r="L81" s="176"/>
+      <c r="M81" s="176"/>
+      <c r="N81" s="176"/>
+      <c r="O81" s="176"/>
+      <c r="P81" s="176"/>
       <c r="T81" s="130"/>
     </row>
-    <row r="82" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A82" s="188" t="s">
+    <row r="82" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="178" t="s">
         <v>305</v>
       </c>
-      <c r="B82" s="188"/>
-      <c r="C82" s="188"/>
-      <c r="D82" s="188"/>
-      <c r="E82" s="188"/>
-      <c r="F82" s="188"/>
-      <c r="G82" s="188"/>
-      <c r="H82" s="188"/>
-      <c r="I82" s="188"/>
-      <c r="J82" s="188"/>
-      <c r="K82" s="188"/>
-      <c r="L82" s="188"/>
-      <c r="M82" s="188"/>
-      <c r="N82" s="188"/>
-      <c r="O82" s="188"/>
-      <c r="P82" s="188"/>
+      <c r="B82" s="178"/>
+      <c r="C82" s="178"/>
+      <c r="D82" s="178"/>
+      <c r="E82" s="178"/>
+      <c r="F82" s="178"/>
+      <c r="G82" s="178"/>
+      <c r="H82" s="178"/>
+      <c r="I82" s="178"/>
+      <c r="J82" s="178"/>
+      <c r="K82" s="178"/>
+      <c r="L82" s="178"/>
+      <c r="M82" s="178"/>
+      <c r="N82" s="178"/>
+      <c r="O82" s="178"/>
+      <c r="P82" s="178"/>
       <c r="T82" s="130"/>
     </row>
-    <row r="83" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A83" s="185" t="s">
+    <row r="83" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="173" t="s">
         <v>306</v>
       </c>
-      <c r="B83" s="185"/>
-      <c r="C83" s="185"/>
-      <c r="D83" s="185"/>
-      <c r="E83" s="185"/>
-      <c r="F83" s="185"/>
-      <c r="G83" s="185"/>
-      <c r="H83" s="185"/>
-      <c r="I83" s="185"/>
-      <c r="J83" s="185"/>
-      <c r="K83" s="185"/>
-      <c r="L83" s="185"/>
-      <c r="M83" s="185"/>
-      <c r="N83" s="185"/>
-      <c r="O83" s="185"/>
-      <c r="P83" s="185"/>
+      <c r="B83" s="173"/>
+      <c r="C83" s="173"/>
+      <c r="D83" s="173"/>
+      <c r="E83" s="173"/>
+      <c r="F83" s="173"/>
+      <c r="G83" s="173"/>
+      <c r="H83" s="173"/>
+      <c r="I83" s="173"/>
+      <c r="J83" s="173"/>
+      <c r="K83" s="173"/>
+      <c r="L83" s="173"/>
+      <c r="M83" s="173"/>
+      <c r="N83" s="173"/>
+      <c r="O83" s="173"/>
+      <c r="P83" s="173"/>
       <c r="T83" s="130"/>
     </row>
-    <row r="84" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A84" s="182" t="s">
+    <row r="84" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="176" t="s">
         <v>307</v>
       </c>
-      <c r="B84" s="182"/>
-      <c r="C84" s="182"/>
-      <c r="D84" s="182"/>
-      <c r="E84" s="182"/>
-      <c r="F84" s="182"/>
-      <c r="G84" s="182"/>
-      <c r="H84" s="182"/>
-      <c r="I84" s="182"/>
-      <c r="J84" s="182"/>
-      <c r="K84" s="182"/>
-      <c r="L84" s="182"/>
-      <c r="M84" s="182"/>
-      <c r="N84" s="182"/>
-      <c r="O84" s="182"/>
-      <c r="P84" s="182"/>
+      <c r="B84" s="176"/>
+      <c r="C84" s="176"/>
+      <c r="D84" s="176"/>
+      <c r="E84" s="176"/>
+      <c r="F84" s="176"/>
+      <c r="G84" s="176"/>
+      <c r="H84" s="176"/>
+      <c r="I84" s="176"/>
+      <c r="J84" s="176"/>
+      <c r="K84" s="176"/>
+      <c r="L84" s="176"/>
+      <c r="M84" s="176"/>
+      <c r="N84" s="176"/>
+      <c r="O84" s="176"/>
+      <c r="P84" s="176"/>
       <c r="T84" s="130"/>
     </row>
-    <row r="85" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A85" s="188" t="s">
+    <row r="85" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="178" t="s">
         <v>300</v>
       </c>
-      <c r="B85" s="188"/>
-      <c r="C85" s="188"/>
-      <c r="D85" s="188"/>
-      <c r="E85" s="188"/>
-      <c r="F85" s="188"/>
-      <c r="G85" s="188"/>
-      <c r="H85" s="188"/>
-      <c r="I85" s="188"/>
-      <c r="J85" s="188"/>
-      <c r="K85" s="188"/>
-      <c r="L85" s="188"/>
-      <c r="M85" s="188"/>
-      <c r="N85" s="188"/>
-      <c r="O85" s="188"/>
-      <c r="P85" s="188"/>
+      <c r="B85" s="178"/>
+      <c r="C85" s="178"/>
+      <c r="D85" s="178"/>
+      <c r="E85" s="178"/>
+      <c r="F85" s="178"/>
+      <c r="G85" s="178"/>
+      <c r="H85" s="178"/>
+      <c r="I85" s="178"/>
+      <c r="J85" s="178"/>
+      <c r="K85" s="178"/>
+      <c r="L85" s="178"/>
+      <c r="M85" s="178"/>
+      <c r="N85" s="178"/>
+      <c r="O85" s="178"/>
+      <c r="P85" s="178"/>
       <c r="T85" s="130"/>
     </row>
-    <row r="86" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A86" s="189" t="s">
+    <row r="86" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="179" t="s">
         <v>308</v>
       </c>
-      <c r="B86" s="189"/>
-      <c r="C86" s="189"/>
-      <c r="D86" s="189"/>
-      <c r="E86" s="189"/>
-      <c r="F86" s="189"/>
-      <c r="G86" s="189"/>
-      <c r="H86" s="189"/>
-      <c r="I86" s="189"/>
-      <c r="J86" s="189"/>
-      <c r="K86" s="189"/>
-      <c r="L86" s="189"/>
-      <c r="M86" s="189"/>
-      <c r="N86" s="189"/>
-      <c r="O86" s="189"/>
-      <c r="P86" s="189"/>
+      <c r="B86" s="179"/>
+      <c r="C86" s="179"/>
+      <c r="D86" s="179"/>
+      <c r="E86" s="179"/>
+      <c r="F86" s="179"/>
+      <c r="G86" s="179"/>
+      <c r="H86" s="179"/>
+      <c r="I86" s="179"/>
+      <c r="J86" s="179"/>
+      <c r="K86" s="179"/>
+      <c r="L86" s="179"/>
+      <c r="M86" s="179"/>
+      <c r="N86" s="179"/>
+      <c r="O86" s="179"/>
+      <c r="P86" s="179"/>
       <c r="T86" s="130"/>
     </row>
-    <row r="87" spans="1:20" s="127" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A87" s="188" t="s">
+    <row r="87" spans="1:20" s="127" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="178" t="s">
         <v>309</v>
       </c>
-      <c r="B87" s="188"/>
-      <c r="C87" s="188"/>
-      <c r="D87" s="188"/>
-      <c r="E87" s="188"/>
-      <c r="F87" s="188"/>
-      <c r="G87" s="188"/>
-      <c r="H87" s="188"/>
-      <c r="I87" s="188"/>
-      <c r="J87" s="188"/>
-      <c r="K87" s="188"/>
-      <c r="L87" s="188"/>
-      <c r="M87" s="188"/>
-      <c r="N87" s="188"/>
-      <c r="O87" s="188"/>
-      <c r="P87" s="188"/>
+      <c r="B87" s="178"/>
+      <c r="C87" s="178"/>
+      <c r="D87" s="178"/>
+      <c r="E87" s="178"/>
+      <c r="F87" s="178"/>
+      <c r="G87" s="178"/>
+      <c r="H87" s="178"/>
+      <c r="I87" s="178"/>
+      <c r="J87" s="178"/>
+      <c r="K87" s="178"/>
+      <c r="L87" s="178"/>
+      <c r="M87" s="178"/>
+      <c r="N87" s="178"/>
+      <c r="O87" s="178"/>
+      <c r="P87" s="178"/>
       <c r="T87" s="130"/>
     </row>
-    <row r="88" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A88" s="185" t="s">
+    <row r="88" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="173" t="s">
         <v>310</v>
       </c>
-      <c r="B88" s="185"/>
-      <c r="C88" s="185"/>
-      <c r="D88" s="185"/>
-      <c r="E88" s="185"/>
-      <c r="F88" s="185"/>
-      <c r="G88" s="185"/>
-      <c r="H88" s="185"/>
-      <c r="I88" s="185"/>
-      <c r="J88" s="185"/>
-      <c r="K88" s="185"/>
-      <c r="L88" s="185"/>
-      <c r="M88" s="185"/>
-      <c r="N88" s="185"/>
-      <c r="O88" s="185"/>
-      <c r="P88" s="185"/>
+      <c r="B88" s="173"/>
+      <c r="C88" s="173"/>
+      <c r="D88" s="173"/>
+      <c r="E88" s="173"/>
+      <c r="F88" s="173"/>
+      <c r="G88" s="173"/>
+      <c r="H88" s="173"/>
+      <c r="I88" s="173"/>
+      <c r="J88" s="173"/>
+      <c r="K88" s="173"/>
+      <c r="L88" s="173"/>
+      <c r="M88" s="173"/>
+      <c r="N88" s="173"/>
+      <c r="O88" s="173"/>
+      <c r="P88" s="173"/>
       <c r="T88" s="130"/>
     </row>
-    <row r="89" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A89" s="182" t="s">
+    <row r="89" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="176" t="s">
         <v>311</v>
       </c>
-      <c r="B89" s="182"/>
-      <c r="C89" s="182"/>
-      <c r="D89" s="182"/>
-      <c r="E89" s="182"/>
-      <c r="F89" s="182"/>
-      <c r="G89" s="182"/>
-      <c r="H89" s="182"/>
-      <c r="I89" s="182"/>
-      <c r="J89" s="182"/>
-      <c r="K89" s="182"/>
-      <c r="L89" s="182"/>
-      <c r="M89" s="182"/>
-      <c r="N89" s="182"/>
-      <c r="O89" s="182"/>
-      <c r="P89" s="182"/>
+      <c r="B89" s="176"/>
+      <c r="C89" s="176"/>
+      <c r="D89" s="176"/>
+      <c r="E89" s="176"/>
+      <c r="F89" s="176"/>
+      <c r="G89" s="176"/>
+      <c r="H89" s="176"/>
+      <c r="I89" s="176"/>
+      <c r="J89" s="176"/>
+      <c r="K89" s="176"/>
+      <c r="L89" s="176"/>
+      <c r="M89" s="176"/>
+      <c r="N89" s="176"/>
+      <c r="O89" s="176"/>
+      <c r="P89" s="176"/>
       <c r="T89" s="130"/>
     </row>
-    <row r="90" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A90" s="188" t="s">
+    <row r="90" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="178" t="s">
         <v>305</v>
       </c>
-      <c r="B90" s="188"/>
-      <c r="C90" s="188"/>
-      <c r="D90" s="188"/>
-      <c r="E90" s="188"/>
-      <c r="F90" s="188"/>
-      <c r="G90" s="188"/>
-      <c r="H90" s="188"/>
-      <c r="I90" s="188"/>
-      <c r="J90" s="188"/>
-      <c r="K90" s="188"/>
-      <c r="L90" s="188"/>
-      <c r="M90" s="188"/>
-      <c r="N90" s="188"/>
-      <c r="O90" s="188"/>
-      <c r="P90" s="188"/>
+      <c r="B90" s="178"/>
+      <c r="C90" s="178"/>
+      <c r="D90" s="178"/>
+      <c r="E90" s="178"/>
+      <c r="F90" s="178"/>
+      <c r="G90" s="178"/>
+      <c r="H90" s="178"/>
+      <c r="I90" s="178"/>
+      <c r="J90" s="178"/>
+      <c r="K90" s="178"/>
+      <c r="L90" s="178"/>
+      <c r="M90" s="178"/>
+      <c r="N90" s="178"/>
+      <c r="O90" s="178"/>
+      <c r="P90" s="178"/>
       <c r="T90" s="130"/>
     </row>
-    <row r="91" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A91" s="187" t="s">
+    <row r="91" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="175" t="s">
         <v>312</v>
       </c>
-      <c r="B91" s="187"/>
-      <c r="C91" s="187"/>
-      <c r="D91" s="187"/>
-      <c r="E91" s="187"/>
-      <c r="F91" s="187"/>
-      <c r="G91" s="187"/>
-      <c r="H91" s="187"/>
-      <c r="I91" s="187"/>
-      <c r="J91" s="187"/>
-      <c r="K91" s="187"/>
-      <c r="L91" s="187"/>
-      <c r="M91" s="187"/>
-      <c r="N91" s="187"/>
-      <c r="O91" s="187"/>
-      <c r="P91" s="187"/>
+      <c r="B91" s="175"/>
+      <c r="C91" s="175"/>
+      <c r="D91" s="175"/>
+      <c r="E91" s="175"/>
+      <c r="F91" s="175"/>
+      <c r="G91" s="175"/>
+      <c r="H91" s="175"/>
+      <c r="I91" s="175"/>
+      <c r="J91" s="175"/>
+      <c r="K91" s="175"/>
+      <c r="L91" s="175"/>
+      <c r="M91" s="175"/>
+      <c r="N91" s="175"/>
+      <c r="O91" s="175"/>
+      <c r="P91" s="175"/>
       <c r="T91" s="130"/>
     </row>
-    <row r="92" spans="1:20" s="127" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A92" s="180" t="s">
+    <row r="92" spans="1:20" s="127" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="174" t="s">
         <v>313</v>
       </c>
-      <c r="B92" s="180"/>
-      <c r="C92" s="180"/>
-      <c r="D92" s="180"/>
-      <c r="E92" s="180"/>
-      <c r="F92" s="180"/>
-      <c r="G92" s="180"/>
-      <c r="H92" s="180"/>
-      <c r="I92" s="180"/>
-      <c r="J92" s="180"/>
-      <c r="K92" s="180"/>
-      <c r="L92" s="180"/>
-      <c r="M92" s="180"/>
-      <c r="N92" s="180"/>
-      <c r="O92" s="180"/>
-      <c r="P92" s="180"/>
+      <c r="B92" s="174"/>
+      <c r="C92" s="174"/>
+      <c r="D92" s="174"/>
+      <c r="E92" s="174"/>
+      <c r="F92" s="174"/>
+      <c r="G92" s="174"/>
+      <c r="H92" s="174"/>
+      <c r="I92" s="174"/>
+      <c r="J92" s="174"/>
+      <c r="K92" s="174"/>
+      <c r="L92" s="174"/>
+      <c r="M92" s="174"/>
+      <c r="N92" s="174"/>
+      <c r="O92" s="174"/>
+      <c r="P92" s="174"/>
       <c r="T92" s="130"/>
     </row>
-    <row r="93" spans="1:20" s="127" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A93" s="180" t="s">
+    <row r="93" spans="1:20" s="127" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="174" t="s">
         <v>314</v>
       </c>
-      <c r="B93" s="180"/>
-      <c r="C93" s="180"/>
-      <c r="D93" s="180"/>
-      <c r="E93" s="180"/>
-      <c r="F93" s="180"/>
-      <c r="G93" s="180"/>
-      <c r="H93" s="180"/>
-      <c r="I93" s="180"/>
-      <c r="J93" s="180"/>
-      <c r="K93" s="180"/>
-      <c r="L93" s="180"/>
-      <c r="M93" s="180"/>
-      <c r="N93" s="180"/>
-      <c r="O93" s="180"/>
-      <c r="P93" s="180"/>
+      <c r="B93" s="174"/>
+      <c r="C93" s="174"/>
+      <c r="D93" s="174"/>
+      <c r="E93" s="174"/>
+      <c r="F93" s="174"/>
+      <c r="G93" s="174"/>
+      <c r="H93" s="174"/>
+      <c r="I93" s="174"/>
+      <c r="J93" s="174"/>
+      <c r="K93" s="174"/>
+      <c r="L93" s="174"/>
+      <c r="M93" s="174"/>
+      <c r="N93" s="174"/>
+      <c r="O93" s="174"/>
+      <c r="P93" s="174"/>
       <c r="T93" s="130"/>
     </row>
-    <row r="94" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A94" s="187" t="s">
+    <row r="94" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="175" t="s">
         <v>315</v>
       </c>
-      <c r="B94" s="187"/>
-      <c r="C94" s="187"/>
-      <c r="D94" s="187"/>
-      <c r="E94" s="187"/>
-      <c r="F94" s="187"/>
-      <c r="G94" s="187"/>
-      <c r="H94" s="187"/>
-      <c r="I94" s="187"/>
-      <c r="J94" s="187"/>
-      <c r="K94" s="187"/>
-      <c r="L94" s="187"/>
-      <c r="M94" s="187"/>
-      <c r="N94" s="187"/>
-      <c r="O94" s="187"/>
-      <c r="P94" s="187"/>
+      <c r="B94" s="175"/>
+      <c r="C94" s="175"/>
+      <c r="D94" s="175"/>
+      <c r="E94" s="175"/>
+      <c r="F94" s="175"/>
+      <c r="G94" s="175"/>
+      <c r="H94" s="175"/>
+      <c r="I94" s="175"/>
+      <c r="J94" s="175"/>
+      <c r="K94" s="175"/>
+      <c r="L94" s="175"/>
+      <c r="M94" s="175"/>
+      <c r="N94" s="175"/>
+      <c r="O94" s="175"/>
+      <c r="P94" s="175"/>
       <c r="T94" s="130"/>
     </row>
-    <row r="95" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A95" s="180" t="s">
+    <row r="95" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="174" t="s">
         <v>316</v>
       </c>
-      <c r="B95" s="180"/>
-      <c r="C95" s="180"/>
-      <c r="D95" s="180"/>
-      <c r="E95" s="180"/>
-      <c r="F95" s="180"/>
-      <c r="G95" s="180"/>
-      <c r="H95" s="180"/>
-      <c r="I95" s="180"/>
-      <c r="J95" s="180"/>
-      <c r="K95" s="180"/>
-      <c r="L95" s="180"/>
-      <c r="M95" s="180"/>
-      <c r="N95" s="180"/>
-      <c r="O95" s="180"/>
-      <c r="P95" s="180"/>
+      <c r="B95" s="174"/>
+      <c r="C95" s="174"/>
+      <c r="D95" s="174"/>
+      <c r="E95" s="174"/>
+      <c r="F95" s="174"/>
+      <c r="G95" s="174"/>
+      <c r="H95" s="174"/>
+      <c r="I95" s="174"/>
+      <c r="J95" s="174"/>
+      <c r="K95" s="174"/>
+      <c r="L95" s="174"/>
+      <c r="M95" s="174"/>
+      <c r="N95" s="174"/>
+      <c r="O95" s="174"/>
+      <c r="P95" s="174"/>
       <c r="T95" s="130"/>
     </row>
-    <row r="96" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A96" s="187" t="s">
+    <row r="96" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="175" t="s">
         <v>317</v>
       </c>
-      <c r="B96" s="187"/>
-      <c r="C96" s="187"/>
-      <c r="D96" s="187"/>
-      <c r="E96" s="187"/>
-      <c r="F96" s="187"/>
-      <c r="G96" s="187"/>
-      <c r="H96" s="187"/>
-      <c r="I96" s="187"/>
-      <c r="J96" s="187"/>
-      <c r="K96" s="187"/>
-      <c r="L96" s="187"/>
-      <c r="M96" s="187"/>
-      <c r="N96" s="187"/>
-      <c r="O96" s="187"/>
-      <c r="P96" s="187"/>
+      <c r="B96" s="175"/>
+      <c r="C96" s="175"/>
+      <c r="D96" s="175"/>
+      <c r="E96" s="175"/>
+      <c r="F96" s="175"/>
+      <c r="G96" s="175"/>
+      <c r="H96" s="175"/>
+      <c r="I96" s="175"/>
+      <c r="J96" s="175"/>
+      <c r="K96" s="175"/>
+      <c r="L96" s="175"/>
+      <c r="M96" s="175"/>
+      <c r="N96" s="175"/>
+      <c r="O96" s="175"/>
+      <c r="P96" s="175"/>
       <c r="T96" s="130"/>
     </row>
-    <row r="97" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A97" s="185" t="s">
+    <row r="97" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="173" t="s">
         <v>318</v>
       </c>
-      <c r="B97" s="185"/>
-      <c r="C97" s="185"/>
-      <c r="D97" s="185"/>
-      <c r="E97" s="185"/>
-      <c r="F97" s="185"/>
-      <c r="G97" s="185"/>
-      <c r="H97" s="185"/>
-      <c r="I97" s="185"/>
-      <c r="J97" s="185"/>
-      <c r="K97" s="185"/>
-      <c r="L97" s="185"/>
-      <c r="M97" s="185"/>
-      <c r="N97" s="185"/>
-      <c r="O97" s="185"/>
-      <c r="P97" s="185"/>
+      <c r="B97" s="173"/>
+      <c r="C97" s="173"/>
+      <c r="D97" s="173"/>
+      <c r="E97" s="173"/>
+      <c r="F97" s="173"/>
+      <c r="G97" s="173"/>
+      <c r="H97" s="173"/>
+      <c r="I97" s="173"/>
+      <c r="J97" s="173"/>
+      <c r="K97" s="173"/>
+      <c r="L97" s="173"/>
+      <c r="M97" s="173"/>
+      <c r="N97" s="173"/>
+      <c r="O97" s="173"/>
+      <c r="P97" s="173"/>
       <c r="T97" s="130"/>
     </row>
-    <row r="98" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A98" s="180" t="s">
+    <row r="98" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="174" t="s">
         <v>319</v>
       </c>
-      <c r="B98" s="180"/>
-      <c r="C98" s="180"/>
-      <c r="D98" s="180"/>
-      <c r="E98" s="180"/>
-      <c r="F98" s="180"/>
-      <c r="G98" s="180"/>
-      <c r="H98" s="180"/>
-      <c r="I98" s="180"/>
-      <c r="J98" s="180"/>
-      <c r="K98" s="180"/>
-      <c r="L98" s="180"/>
-      <c r="M98" s="180"/>
-      <c r="N98" s="180"/>
-      <c r="O98" s="180"/>
-      <c r="P98" s="180"/>
+      <c r="B98" s="174"/>
+      <c r="C98" s="174"/>
+      <c r="D98" s="174"/>
+      <c r="E98" s="174"/>
+      <c r="F98" s="174"/>
+      <c r="G98" s="174"/>
+      <c r="H98" s="174"/>
+      <c r="I98" s="174"/>
+      <c r="J98" s="174"/>
+      <c r="K98" s="174"/>
+      <c r="L98" s="174"/>
+      <c r="M98" s="174"/>
+      <c r="N98" s="174"/>
+      <c r="O98" s="174"/>
+      <c r="P98" s="174"/>
       <c r="T98" s="130"/>
     </row>
-    <row r="99" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A99" s="180" t="s">
+    <row r="99" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="174" t="s">
         <v>320</v>
       </c>
-      <c r="B99" s="180"/>
-      <c r="C99" s="180"/>
-      <c r="D99" s="180"/>
-      <c r="E99" s="180"/>
-      <c r="F99" s="180"/>
-      <c r="G99" s="180"/>
-      <c r="H99" s="180"/>
-      <c r="I99" s="180"/>
-      <c r="J99" s="180"/>
-      <c r="K99" s="180"/>
-      <c r="L99" s="180"/>
-      <c r="M99" s="180"/>
-      <c r="N99" s="180"/>
-      <c r="O99" s="180"/>
-      <c r="P99" s="180"/>
+      <c r="B99" s="174"/>
+      <c r="C99" s="174"/>
+      <c r="D99" s="174"/>
+      <c r="E99" s="174"/>
+      <c r="F99" s="174"/>
+      <c r="G99" s="174"/>
+      <c r="H99" s="174"/>
+      <c r="I99" s="174"/>
+      <c r="J99" s="174"/>
+      <c r="K99" s="174"/>
+      <c r="L99" s="174"/>
+      <c r="M99" s="174"/>
+      <c r="N99" s="174"/>
+      <c r="O99" s="174"/>
+      <c r="P99" s="174"/>
       <c r="T99" s="130"/>
     </row>
-    <row r="100" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A100" s="180" t="s">
+    <row r="100" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="174" t="s">
         <v>321</v>
       </c>
-      <c r="B100" s="180"/>
-      <c r="C100" s="180"/>
-      <c r="D100" s="180"/>
-      <c r="E100" s="180"/>
-      <c r="F100" s="180"/>
-      <c r="G100" s="180"/>
-      <c r="H100" s="180"/>
-      <c r="I100" s="180"/>
-      <c r="J100" s="180"/>
-      <c r="K100" s="180"/>
-      <c r="L100" s="180"/>
-      <c r="M100" s="180"/>
-      <c r="N100" s="180"/>
-      <c r="O100" s="180"/>
-      <c r="P100" s="180"/>
+      <c r="B100" s="174"/>
+      <c r="C100" s="174"/>
+      <c r="D100" s="174"/>
+      <c r="E100" s="174"/>
+      <c r="F100" s="174"/>
+      <c r="G100" s="174"/>
+      <c r="H100" s="174"/>
+      <c r="I100" s="174"/>
+      <c r="J100" s="174"/>
+      <c r="K100" s="174"/>
+      <c r="L100" s="174"/>
+      <c r="M100" s="174"/>
+      <c r="N100" s="174"/>
+      <c r="O100" s="174"/>
+      <c r="P100" s="174"/>
       <c r="T100" s="130"/>
     </row>
-    <row r="101" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A101" s="187" t="s">
+    <row r="101" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="175" t="s">
         <v>322</v>
       </c>
-      <c r="B101" s="187"/>
-      <c r="C101" s="187"/>
-      <c r="D101" s="187"/>
-      <c r="E101" s="187"/>
-      <c r="F101" s="187"/>
-      <c r="G101" s="187"/>
-      <c r="H101" s="187"/>
-      <c r="I101" s="187"/>
-      <c r="J101" s="187"/>
-      <c r="K101" s="187"/>
-      <c r="L101" s="187"/>
-      <c r="M101" s="187"/>
-      <c r="N101" s="187"/>
-      <c r="O101" s="187"/>
-      <c r="P101" s="187"/>
+      <c r="B101" s="175"/>
+      <c r="C101" s="175"/>
+      <c r="D101" s="175"/>
+      <c r="E101" s="175"/>
+      <c r="F101" s="175"/>
+      <c r="G101" s="175"/>
+      <c r="H101" s="175"/>
+      <c r="I101" s="175"/>
+      <c r="J101" s="175"/>
+      <c r="K101" s="175"/>
+      <c r="L101" s="175"/>
+      <c r="M101" s="175"/>
+      <c r="N101" s="175"/>
+      <c r="O101" s="175"/>
+      <c r="P101" s="175"/>
       <c r="T101" s="130"/>
     </row>
-    <row r="102" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A102" s="185" t="s">
+    <row r="102" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="173" t="s">
         <v>323</v>
       </c>
-      <c r="B102" s="185"/>
-      <c r="C102" s="185"/>
-      <c r="D102" s="185"/>
-      <c r="E102" s="185"/>
-      <c r="F102" s="185"/>
-      <c r="G102" s="185"/>
-      <c r="H102" s="185"/>
-      <c r="I102" s="185"/>
-      <c r="J102" s="185"/>
-      <c r="K102" s="185"/>
-      <c r="L102" s="185"/>
-      <c r="M102" s="185"/>
-      <c r="N102" s="185"/>
-      <c r="O102" s="185"/>
-      <c r="P102" s="185"/>
+      <c r="B102" s="173"/>
+      <c r="C102" s="173"/>
+      <c r="D102" s="173"/>
+      <c r="E102" s="173"/>
+      <c r="F102" s="173"/>
+      <c r="G102" s="173"/>
+      <c r="H102" s="173"/>
+      <c r="I102" s="173"/>
+      <c r="J102" s="173"/>
+      <c r="K102" s="173"/>
+      <c r="L102" s="173"/>
+      <c r="M102" s="173"/>
+      <c r="N102" s="173"/>
+      <c r="O102" s="173"/>
+      <c r="P102" s="173"/>
       <c r="T102" s="130"/>
     </row>
-    <row r="103" spans="1:20" s="127" customFormat="1" ht="15" customHeight="1">
-      <c r="A103" s="182" t="s">
+    <row r="103" spans="1:20" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="176" t="s">
         <v>324</v>
       </c>
-      <c r="B103" s="182"/>
-      <c r="C103" s="182"/>
-      <c r="D103" s="182"/>
-      <c r="E103" s="182"/>
-      <c r="F103" s="182"/>
-      <c r="G103" s="182"/>
-      <c r="H103" s="182"/>
-      <c r="I103" s="182"/>
-      <c r="J103" s="182"/>
-      <c r="K103" s="182"/>
-      <c r="L103" s="182"/>
-      <c r="M103" s="182"/>
-      <c r="N103" s="182"/>
-      <c r="O103" s="182"/>
-      <c r="P103" s="182"/>
+      <c r="B103" s="176"/>
+      <c r="C103" s="176"/>
+      <c r="D103" s="176"/>
+      <c r="E103" s="176"/>
+      <c r="F103" s="176"/>
+      <c r="G103" s="176"/>
+      <c r="H103" s="176"/>
+      <c r="I103" s="176"/>
+      <c r="J103" s="176"/>
+      <c r="K103" s="176"/>
+      <c r="L103" s="176"/>
+      <c r="M103" s="176"/>
+      <c r="N103" s="176"/>
+      <c r="O103" s="176"/>
+      <c r="P103" s="176"/>
       <c r="T103" s="130"/>
     </row>
-    <row r="104" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A104" s="185" t="s">
+    <row r="104" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="173" t="s">
         <v>325</v>
       </c>
-      <c r="B104" s="185"/>
-      <c r="C104" s="185"/>
-      <c r="D104" s="185"/>
-      <c r="E104" s="185"/>
-      <c r="F104" s="185"/>
-      <c r="G104" s="185"/>
-      <c r="H104" s="185"/>
-      <c r="I104" s="185"/>
-      <c r="J104" s="185"/>
-      <c r="K104" s="185"/>
-      <c r="L104" s="185"/>
-      <c r="M104" s="185"/>
-      <c r="N104" s="185"/>
-      <c r="O104" s="185"/>
-      <c r="P104" s="185"/>
+      <c r="B104" s="173"/>
+      <c r="C104" s="173"/>
+      <c r="D104" s="173"/>
+      <c r="E104" s="173"/>
+      <c r="F104" s="173"/>
+      <c r="G104" s="173"/>
+      <c r="H104" s="173"/>
+      <c r="I104" s="173"/>
+      <c r="J104" s="173"/>
+      <c r="K104" s="173"/>
+      <c r="L104" s="173"/>
+      <c r="M104" s="173"/>
+      <c r="N104" s="173"/>
+      <c r="O104" s="173"/>
+      <c r="P104" s="173"/>
       <c r="T104" s="130"/>
     </row>
-    <row r="105" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A105" s="191" t="s">
+    <row r="105" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="177" t="s">
         <v>326</v>
       </c>
-      <c r="B105" s="191"/>
-      <c r="C105" s="191"/>
-      <c r="D105" s="191"/>
-      <c r="E105" s="191"/>
-      <c r="F105" s="191"/>
-      <c r="G105" s="191"/>
-      <c r="H105" s="191"/>
-      <c r="I105" s="191"/>
-      <c r="J105" s="191"/>
-      <c r="K105" s="191"/>
-      <c r="L105" s="191"/>
-      <c r="M105" s="191"/>
-      <c r="N105" s="191"/>
-      <c r="O105" s="191"/>
-      <c r="P105" s="191"/>
+      <c r="B105" s="177"/>
+      <c r="C105" s="177"/>
+      <c r="D105" s="177"/>
+      <c r="E105" s="177"/>
+      <c r="F105" s="177"/>
+      <c r="G105" s="177"/>
+      <c r="H105" s="177"/>
+      <c r="I105" s="177"/>
+      <c r="J105" s="177"/>
+      <c r="K105" s="177"/>
+      <c r="L105" s="177"/>
+      <c r="M105" s="177"/>
+      <c r="N105" s="177"/>
+      <c r="O105" s="177"/>
+      <c r="P105" s="177"/>
       <c r="T105" s="130"/>
     </row>
-    <row r="106" spans="1:20" s="127" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A106" s="190" t="s">
+    <row r="106" spans="1:20" s="127" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="172" t="s">
         <v>327</v>
       </c>
-      <c r="B106" s="190"/>
-      <c r="C106" s="190"/>
-      <c r="D106" s="190"/>
-      <c r="E106" s="190"/>
-      <c r="F106" s="190"/>
-      <c r="G106" s="190"/>
-      <c r="H106" s="190"/>
-      <c r="I106" s="190"/>
-      <c r="J106" s="190"/>
-      <c r="K106" s="190"/>
-      <c r="L106" s="190"/>
-      <c r="M106" s="190"/>
-      <c r="N106" s="190"/>
-      <c r="O106" s="190"/>
-      <c r="P106" s="190"/>
+      <c r="B106" s="172"/>
+      <c r="C106" s="172"/>
+      <c r="D106" s="172"/>
+      <c r="E106" s="172"/>
+      <c r="F106" s="172"/>
+      <c r="G106" s="172"/>
+      <c r="H106" s="172"/>
+      <c r="I106" s="172"/>
+      <c r="J106" s="172"/>
+      <c r="K106" s="172"/>
+      <c r="L106" s="172"/>
+      <c r="M106" s="172"/>
+      <c r="N106" s="172"/>
+      <c r="O106" s="172"/>
+      <c r="P106" s="172"/>
       <c r="T106" s="130"/>
     </row>
-    <row r="107" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A107" s="185" t="s">
+    <row r="107" spans="1:20" s="127" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="173" t="s">
         <v>328</v>
       </c>
-      <c r="B107" s="185"/>
-      <c r="C107" s="185"/>
-      <c r="D107" s="185"/>
-      <c r="E107" s="185"/>
-      <c r="F107" s="185"/>
-      <c r="G107" s="185"/>
-      <c r="H107" s="185"/>
-      <c r="I107" s="185"/>
-      <c r="J107" s="185"/>
-      <c r="K107" s="185"/>
-      <c r="L107" s="185"/>
-      <c r="M107" s="185"/>
-      <c r="N107" s="185"/>
-      <c r="O107" s="185"/>
-      <c r="P107" s="185"/>
+      <c r="B107" s="173"/>
+      <c r="C107" s="173"/>
+      <c r="D107" s="173"/>
+      <c r="E107" s="173"/>
+      <c r="F107" s="173"/>
+      <c r="G107" s="173"/>
+      <c r="H107" s="173"/>
+      <c r="I107" s="173"/>
+      <c r="J107" s="173"/>
+      <c r="K107" s="173"/>
+      <c r="L107" s="173"/>
+      <c r="M107" s="173"/>
+      <c r="N107" s="173"/>
+      <c r="O107" s="173"/>
+      <c r="P107" s="173"/>
       <c r="T107" s="130"/>
     </row>
-    <row r="108" spans="1:20" s="127" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A108" s="180" t="s">
+    <row r="108" spans="1:20" s="127" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="174" t="s">
         <v>329</v>
       </c>
-      <c r="B108" s="180"/>
-      <c r="C108" s="180"/>
-      <c r="D108" s="180"/>
-      <c r="E108" s="180"/>
-      <c r="F108" s="180"/>
-      <c r="G108" s="180"/>
-      <c r="H108" s="180"/>
-      <c r="I108" s="180"/>
-      <c r="J108" s="180"/>
-      <c r="K108" s="180"/>
-      <c r="L108" s="180"/>
-      <c r="M108" s="180"/>
-      <c r="N108" s="180"/>
-      <c r="O108" s="180"/>
-      <c r="P108" s="180"/>
+      <c r="B108" s="174"/>
+      <c r="C108" s="174"/>
+      <c r="D108" s="174"/>
+      <c r="E108" s="174"/>
+      <c r="F108" s="174"/>
+      <c r="G108" s="174"/>
+      <c r="H108" s="174"/>
+      <c r="I108" s="174"/>
+      <c r="J108" s="174"/>
+      <c r="K108" s="174"/>
+      <c r="L108" s="174"/>
+      <c r="M108" s="174"/>
+      <c r="N108" s="174"/>
+      <c r="O108" s="174"/>
+      <c r="P108" s="174"/>
       <c r="T108" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A106:P106"/>
-    <mergeCell ref="A107:P107"/>
-    <mergeCell ref="A108:P108"/>
-    <mergeCell ref="A100:P100"/>
-    <mergeCell ref="A101:P101"/>
-    <mergeCell ref="A102:P102"/>
-    <mergeCell ref="A103:P103"/>
-    <mergeCell ref="A104:P104"/>
-    <mergeCell ref="A105:P105"/>
+    <mergeCell ref="A39:P39"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A35:P35"/>
+    <mergeCell ref="A36:P36"/>
+    <mergeCell ref="A37:P37"/>
+    <mergeCell ref="A38:P38"/>
+    <mergeCell ref="A51:P51"/>
+    <mergeCell ref="A40:P40"/>
+    <mergeCell ref="A41:P41"/>
+    <mergeCell ref="A42:P42"/>
+    <mergeCell ref="A43:P43"/>
+    <mergeCell ref="A44:P44"/>
+    <mergeCell ref="A45:P45"/>
+    <mergeCell ref="A46:P46"/>
+    <mergeCell ref="A47:P47"/>
+    <mergeCell ref="A48:P48"/>
+    <mergeCell ref="A49:P49"/>
+    <mergeCell ref="A50:P50"/>
+    <mergeCell ref="A63:P63"/>
+    <mergeCell ref="A52:P52"/>
+    <mergeCell ref="A53:P53"/>
+    <mergeCell ref="A54:P54"/>
+    <mergeCell ref="A55:P55"/>
+    <mergeCell ref="A56:P56"/>
+    <mergeCell ref="A57:P57"/>
+    <mergeCell ref="A58:P58"/>
+    <mergeCell ref="A59:P59"/>
+    <mergeCell ref="A60:P60"/>
+    <mergeCell ref="A61:P61"/>
+    <mergeCell ref="A62:P62"/>
+    <mergeCell ref="A75:P75"/>
+    <mergeCell ref="A64:P64"/>
+    <mergeCell ref="A65:P65"/>
+    <mergeCell ref="A66:P66"/>
+    <mergeCell ref="A67:P67"/>
+    <mergeCell ref="A68:P68"/>
+    <mergeCell ref="A69:P69"/>
+    <mergeCell ref="A70:P70"/>
+    <mergeCell ref="A71:P71"/>
+    <mergeCell ref="A72:P72"/>
+    <mergeCell ref="A73:P73"/>
+    <mergeCell ref="A74:P74"/>
+    <mergeCell ref="A87:P87"/>
+    <mergeCell ref="A76:P76"/>
+    <mergeCell ref="A77:P77"/>
+    <mergeCell ref="A78:P78"/>
+    <mergeCell ref="A79:P79"/>
+    <mergeCell ref="A80:P80"/>
+    <mergeCell ref="A81:P81"/>
+    <mergeCell ref="A82:P82"/>
+    <mergeCell ref="A83:P83"/>
+    <mergeCell ref="A84:P84"/>
+    <mergeCell ref="A85:P85"/>
+    <mergeCell ref="A86:P86"/>
     <mergeCell ref="A99:P99"/>
     <mergeCell ref="A88:P88"/>
     <mergeCell ref="A89:P89"/>
@@ -9513,60 +9560,15 @@
     <mergeCell ref="A96:P96"/>
     <mergeCell ref="A97:P97"/>
     <mergeCell ref="A98:P98"/>
-    <mergeCell ref="A87:P87"/>
-    <mergeCell ref="A76:P76"/>
-    <mergeCell ref="A77:P77"/>
-    <mergeCell ref="A78:P78"/>
-    <mergeCell ref="A79:P79"/>
-    <mergeCell ref="A80:P80"/>
-    <mergeCell ref="A81:P81"/>
-    <mergeCell ref="A82:P82"/>
-    <mergeCell ref="A83:P83"/>
-    <mergeCell ref="A84:P84"/>
-    <mergeCell ref="A85:P85"/>
-    <mergeCell ref="A86:P86"/>
-    <mergeCell ref="A75:P75"/>
-    <mergeCell ref="A64:P64"/>
-    <mergeCell ref="A65:P65"/>
-    <mergeCell ref="A66:P66"/>
-    <mergeCell ref="A67:P67"/>
-    <mergeCell ref="A68:P68"/>
-    <mergeCell ref="A69:P69"/>
-    <mergeCell ref="A70:P70"/>
-    <mergeCell ref="A71:P71"/>
-    <mergeCell ref="A72:P72"/>
-    <mergeCell ref="A73:P73"/>
-    <mergeCell ref="A74:P74"/>
-    <mergeCell ref="A63:P63"/>
-    <mergeCell ref="A52:P52"/>
-    <mergeCell ref="A53:P53"/>
-    <mergeCell ref="A54:P54"/>
-    <mergeCell ref="A55:P55"/>
-    <mergeCell ref="A56:P56"/>
-    <mergeCell ref="A57:P57"/>
-    <mergeCell ref="A58:P58"/>
-    <mergeCell ref="A59:P59"/>
-    <mergeCell ref="A60:P60"/>
-    <mergeCell ref="A61:P61"/>
-    <mergeCell ref="A62:P62"/>
-    <mergeCell ref="A51:P51"/>
-    <mergeCell ref="A40:P40"/>
-    <mergeCell ref="A41:P41"/>
-    <mergeCell ref="A42:P42"/>
-    <mergeCell ref="A43:P43"/>
-    <mergeCell ref="A44:P44"/>
-    <mergeCell ref="A45:P45"/>
-    <mergeCell ref="A46:P46"/>
-    <mergeCell ref="A47:P47"/>
-    <mergeCell ref="A48:P48"/>
-    <mergeCell ref="A49:P49"/>
-    <mergeCell ref="A50:P50"/>
-    <mergeCell ref="A39:P39"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A35:P35"/>
-    <mergeCell ref="A36:P36"/>
-    <mergeCell ref="A37:P37"/>
-    <mergeCell ref="A38:P38"/>
+    <mergeCell ref="A106:P106"/>
+    <mergeCell ref="A107:P107"/>
+    <mergeCell ref="A108:P108"/>
+    <mergeCell ref="A100:P100"/>
+    <mergeCell ref="A101:P101"/>
+    <mergeCell ref="A102:P102"/>
+    <mergeCell ref="A103:P103"/>
+    <mergeCell ref="A104:P104"/>
+    <mergeCell ref="A105:P105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9580,7 +9582,7 @@
       <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="40.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
@@ -9597,17 +9599,17 @@
     <col min="15" max="15" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18.75" thickBot="1">
+    <row r="3" spans="1:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="192" t="s">
         <v>332</v>
       </c>
@@ -9633,7 +9635,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="51.75" thickBot="1">
+    <row r="5" spans="1:15" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="193"/>
       <c r="C5" s="7" t="s">
         <v>337</v>
@@ -9673,7 +9675,7 @@
       </c>
       <c r="O5" s="198"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>348</v>
       </c>
@@ -9717,7 +9719,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>349</v>
       </c>
@@ -9761,7 +9763,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>350</v>
       </c>
@@ -9805,7 +9807,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>351</v>
       </c>
@@ -9849,7 +9851,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
         <v>352</v>
       </c>
@@ -9893,7 +9895,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>353</v>
       </c>
@@ -9937,7 +9939,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>354</v>
       </c>
@@ -9981,7 +9983,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>355</v>
       </c>
@@ -10025,7 +10027,7 @@
         <v>14644</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>356</v>
       </c>
@@ -10069,7 +10071,7 @@
         <v>4827</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>357</v>
       </c>
@@ -10113,7 +10115,7 @@
         <v>56534</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>358</v>
       </c>
@@ -10157,7 +10159,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>359</v>
       </c>
@@ -10201,7 +10203,7 @@
         <v>40111</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>360</v>
       </c>
@@ -10245,7 +10247,7 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>361</v>
       </c>
@@ -10289,7 +10291,7 @@
         <v>12267</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>362</v>
       </c>
@@ -10333,7 +10335,7 @@
         <v>33645</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
         <v>363</v>
       </c>
@@ -10377,7 +10379,7 @@
         <v>6147</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>364</v>
       </c>
@@ -10421,7 +10423,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>365</v>
       </c>
@@ -10465,7 +10467,7 @@
         <v>16421</v>
       </c>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>366</v>
       </c>
@@ -10509,7 +10511,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
         <v>367</v>
       </c>
@@ -10553,7 +10555,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>368</v>
       </c>
@@ -10597,7 +10599,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>369</v>
       </c>
@@ -10641,7 +10643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
         <v>370</v>
       </c>
@@ -10685,7 +10687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
         <v>371</v>
       </c>
@@ -10729,7 +10731,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
         <v>372</v>
       </c>
@@ -10773,7 +10775,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
         <v>373</v>
       </c>
@@ -10817,7 +10819,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
         <v>374</v>
       </c>
@@ -10861,7 +10863,7 @@
         <v>3665</v>
       </c>
     </row>
-    <row r="33" spans="2:17">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
         <v>375</v>
       </c>
@@ -10905,7 +10907,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="2:17">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
         <v>376</v>
       </c>
@@ -10949,7 +10951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:17">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
         <v>377</v>
       </c>
@@ -10993,7 +10995,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:17">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
         <v>378</v>
       </c>
@@ -11037,7 +11039,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="37" spans="2:17">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
         <v>379</v>
       </c>
@@ -11081,7 +11083,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="2:17">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
         <v>380</v>
       </c>
@@ -11125,7 +11127,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="39" spans="2:17">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>381</v>
       </c>
@@ -11169,7 +11171,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="40" spans="2:17">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>382</v>
       </c>
@@ -11213,7 +11215,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="41" spans="2:17">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
         <v>383</v>
       </c>
@@ -11257,7 +11259,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="42" spans="2:17">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
         <v>384</v>
       </c>
@@ -11301,7 +11303,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="43" spans="2:17">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
         <v>385</v>
       </c>
@@ -11345,7 +11347,7 @@
         <v>3015</v>
       </c>
     </row>
-    <row r="44" spans="2:17">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
         <v>386</v>
       </c>
@@ -11390,7 +11392,7 @@
       </c>
       <c r="Q44" s="23"/>
     </row>
-    <row r="45" spans="2:17">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="24" t="s">
         <v>387</v>
       </c>
@@ -11435,7 +11437,7 @@
       </c>
       <c r="Q45" s="30"/>
     </row>
-    <row r="46" spans="2:17">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>388</v>
       </c>
@@ -11479,7 +11481,7 @@
         <v>8634</v>
       </c>
     </row>
-    <row r="47" spans="2:17">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>389</v>
       </c>
@@ -11523,7 +11525,7 @@
         <v>5292</v>
       </c>
     </row>
-    <row r="48" spans="2:17">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>390</v>
       </c>
@@ -11567,7 +11569,7 @@
         <v>50897</v>
       </c>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
         <v>391</v>
       </c>
@@ -11611,7 +11613,7 @@
         <v>78680</v>
       </c>
     </row>
-    <row r="50" spans="2:15" s="5" customFormat="1" ht="12.75">
+    <row r="50" spans="2:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="16" t="s">
         <v>392</v>
       </c>
@@ -11655,7 +11657,7 @@
         <v>37518</v>
       </c>
     </row>
-    <row r="51" spans="2:15" s="5" customFormat="1" ht="12.75">
+    <row r="51" spans="2:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
         <v>393</v>
       </c>
@@ -11699,7 +11701,7 @@
         <v>14447</v>
       </c>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="24" t="s">
         <v>394</v>
       </c>
@@ -11743,7 +11745,7 @@
         <v>195468</v>
       </c>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>395</v>
       </c>
@@ -11787,7 +11789,7 @@
         <v>210331</v>
       </c>
     </row>
-    <row r="54" spans="2:15" s="5" customFormat="1" ht="12.75">
+    <row r="54" spans="2:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="24" t="s">
         <v>396</v>
       </c>
@@ -11831,7 +11833,7 @@
         <v>210331</v>
       </c>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="32"/>
       <c r="C55" s="33"/>
       <c r="D55" s="34"/>
@@ -11847,7 +11849,7 @@
       <c r="N55" s="36"/>
       <c r="O55" s="37"/>
     </row>
-    <row r="56" spans="2:15" s="5" customFormat="1" ht="13.5" thickBot="1">
+    <row r="56" spans="2:15" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="38" t="s">
         <v>397</v>
       </c>
@@ -11891,17 +11893,17 @@
         <v>659858</v>
       </c>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>398</v>
       </c>
@@ -11924,19 +11926,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>400</v>
       </c>
@@ -11945,7 +11947,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="65" t="s">
         <v>401</v>
       </c>
@@ -11958,7 +11960,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="66">
         <v>0.21299999999999999</v>
       </c>
@@ -11970,25 +11972,25 @@
         <v>0.44899999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>404</v>
       </c>
       <c r="B7" s="63"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>Population!B13</f>
         <v>311582564</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>405</v>
       </c>
       <c r="B10" s="63"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="67">
         <f>A8/1000*C5</f>
         <v>139900.57123599999</v>
@@ -12006,7 +12008,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" customWidth="1"/>
@@ -12014,12 +12016,12 @@
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>407</v>
       </c>
@@ -12027,7 +12029,7 @@
       <c r="C3" s="70"/>
       <c r="D3" s="70"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>166</v>
       </c>
@@ -12039,7 +12041,7 @@
       </c>
       <c r="D4" s="63"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="66">
         <v>286180</v>
       </c>
@@ -12050,7 +12052,7 @@
         <v>11162</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>410</v>
       </c>
@@ -12058,7 +12060,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="66">
         <v>2007</v>
       </c>
@@ -12067,7 +12069,7 @@
         <v>301579895</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="66">
         <v>2011</v>
       </c>
@@ -12076,7 +12078,7 @@
         <v>311582564</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="69" t="s">
         <v>412</v>
       </c>
@@ -12084,7 +12086,7 @@
       <c r="C11" s="70"/>
       <c r="D11" s="70"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>166</v>
       </c>
@@ -12096,7 +12098,7 @@
       </c>
       <c r="D12" s="63"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="71">
         <f>A5*($B9/$B8)</f>
         <v>295671.89207198308</v>
@@ -12110,7 +12112,7 @@
         <v>11532.216295015289</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>413</v>
       </c>
@@ -12126,43 +12128,43 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="87.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>419</v>
       </c>
       <c r="B8" s="63"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="66">
         <v>233000</v>
       </c>
@@ -12178,13 +12180,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.5703125" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" style="105" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>410</v>
       </c>
@@ -12195,7 +12197,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="103">
         <v>2000</v>
       </c>
@@ -12206,7 +12208,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -12217,7 +12219,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="103">
         <v>2002</v>
       </c>
@@ -12228,7 +12230,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -12239,7 +12241,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="103">
         <v>2004</v>
       </c>
@@ -12250,7 +12252,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -12261,7 +12263,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="103">
         <v>2006</v>
       </c>
@@ -12272,7 +12274,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -12283,7 +12285,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="103">
         <v>2008</v>
       </c>
@@ -12294,7 +12296,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -12305,7 +12307,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="103">
         <v>2010</v>
       </c>
@@ -12316,7 +12318,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -12327,7 +12329,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -12338,7 +12340,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -12349,7 +12351,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -12361,7 +12363,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -12372,7 +12374,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -12383,7 +12385,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -12394,7 +12396,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -12405,7 +12407,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -12416,7 +12418,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -12427,7 +12429,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2021</v>
       </c>
@@ -12438,7 +12440,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -12449,7 +12451,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2023</v>
       </c>
@@ -12460,7 +12462,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2024</v>
       </c>
@@ -12471,7 +12473,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2025</v>
       </c>
@@ -12482,7 +12484,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2026</v>
       </c>
@@ -12493,7 +12495,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2027</v>
       </c>
@@ -12504,7 +12506,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2028</v>
       </c>
@@ -12515,7 +12517,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2029</v>
       </c>
@@ -12526,7 +12528,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2030</v>
       </c>
@@ -12537,7 +12539,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2031</v>
       </c>
@@ -12548,7 +12550,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2032</v>
       </c>
@@ -12559,7 +12561,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2033</v>
       </c>
@@ -12570,7 +12572,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2034</v>
       </c>
@@ -12581,7 +12583,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2035</v>
       </c>
@@ -12592,7 +12594,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2036</v>
       </c>
@@ -12603,7 +12605,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2037</v>
       </c>
@@ -12614,7 +12616,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2038</v>
       </c>
@@ -12625,7 +12627,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2039</v>
       </c>
@@ -12636,7 +12638,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2040</v>
       </c>
@@ -12647,7 +12649,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2041</v>
       </c>
@@ -12658,7 +12660,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2042</v>
       </c>
@@ -12669,7 +12671,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2043</v>
       </c>
@@ -12680,7 +12682,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2044</v>
       </c>
@@ -12691,7 +12693,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2045</v>
       </c>
@@ -12702,7 +12704,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2046</v>
       </c>
@@ -12713,7 +12715,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2047</v>
       </c>
@@ -12724,7 +12726,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2048</v>
       </c>
@@ -12735,7 +12737,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2049</v>
       </c>
@@ -12746,7 +12748,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2050</v>
       </c>
@@ -12757,7 +12759,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2051</v>
       </c>
@@ -12768,7 +12770,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2052</v>
       </c>
@@ -12779,7 +12781,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2053</v>
       </c>
@@ -12790,7 +12792,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2054</v>
       </c>
@@ -12801,7 +12803,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2055</v>
       </c>
@@ -12812,7 +12814,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2056</v>
       </c>
@@ -12823,7 +12825,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2057</v>
       </c>
@@ -12834,7 +12836,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2058</v>
       </c>
@@ -12845,7 +12847,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2059</v>
       </c>
@@ -12856,7 +12858,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2060</v>
       </c>
@@ -12883,7 +12885,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -12892,7 +12894,7 @@
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="113" customFormat="1" ht="45">
+    <row r="1" spans="1:5" s="113" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="133" t="s">
         <v>37</v>
       </c>
@@ -12909,7 +12911,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -12929,7 +12931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -12949,7 +12951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -12969,7 +12971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -12989,7 +12991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -13009,7 +13011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -13042,18 +13044,18 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45">
+    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="133" t="s">
         <v>37</v>
       </c>
@@ -13070,7 +13072,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -13090,7 +13092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -13110,7 +13112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -13130,7 +13132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -13150,7 +13152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -13170,23 +13172,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="67">
-        <f>'Results (2)'!C13</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="67">
-        <f>'Results (2)'!D13</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="67">
-        <f>'Results (2)'!E13</f>
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="B7" s="199">
+        <f>B3</f>
+        <v>5.2668167033115575E-2</v>
+      </c>
+      <c r="C7" s="199">
+        <f t="shared" ref="C7:E7" si="0">C3</f>
+        <v>0.94733183296688439</v>
+      </c>
+      <c r="D7" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="199">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13206,7 +13209,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="51.42578125" customWidth="1"/>
@@ -13217,7 +13220,7 @@
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="113" customFormat="1" ht="45">
+    <row r="1" spans="1:10" s="113" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="107" t="s">
         <v>47</v>
       </c>
@@ -13246,7 +13249,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
         <v>56</v>
       </c>
@@ -13274,7 +13277,7 @@
       <c r="H2" s="142"/>
       <c r="J2" s="160"/>
     </row>
-    <row r="3" spans="1:10" ht="60">
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
         <v>60</v>
       </c>
@@ -13301,7 +13304,7 @@
       </c>
       <c r="J3" s="160"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="75" t="s">
         <v>63</v>
       </c>
@@ -13326,7 +13329,7 @@
       <c r="H4" s="142"/>
       <c r="J4" s="160"/>
     </row>
-    <row r="5" spans="1:10" ht="30">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="75" t="s">
         <v>66</v>
       </c>
@@ -13353,7 +13356,7 @@
       </c>
       <c r="J5" s="160"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
         <v>69</v>
       </c>
@@ -13378,7 +13381,7 @@
       <c r="H6" s="142"/>
       <c r="J6" s="160"/>
     </row>
-    <row r="7" spans="1:10" ht="30">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
         <v>72</v>
       </c>
@@ -13405,7 +13408,7 @@
       <c r="H7" s="142"/>
       <c r="J7" s="160"/>
     </row>
-    <row r="8" spans="1:10" ht="30">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="96" t="s">
         <v>75</v>
       </c>
@@ -13430,7 +13433,7 @@
       <c r="H8" s="142"/>
       <c r="J8" s="160"/>
     </row>
-    <row r="9" spans="1:10" ht="30">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="75" t="s">
         <v>78</v>
       </c>
@@ -13455,7 +13458,7 @@
       <c r="H9" s="142"/>
       <c r="J9" s="160"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="75" t="s">
         <v>81</v>
       </c>
@@ -13480,7 +13483,7 @@
       <c r="H10" s="142"/>
       <c r="J10" s="160"/>
     </row>
-    <row r="11" spans="1:10" ht="30">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="75" t="s">
         <v>84</v>
       </c>
@@ -13505,7 +13508,7 @@
       <c r="H11" s="142"/>
       <c r="J11" s="160"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="90" t="s">
         <v>87</v>
       </c>
@@ -13528,7 +13531,7 @@
       <c r="H12" s="142"/>
       <c r="J12" s="160"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="77" t="s">
         <v>90</v>
       </c>
@@ -13542,7 +13545,7 @@
       <c r="G13" s="138"/>
       <c r="H13" s="142"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H14" s="141"/>
     </row>
   </sheetData>
@@ -13558,13 +13561,13 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="6" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="134" t="s">
         <v>92</v>
       </c>
@@ -13574,7 +13577,7 @@
       <c r="E1" s="134"/>
       <c r="F1" s="134"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="134" t="s">
         <v>93</v>
       </c>
@@ -13584,7 +13587,7 @@
       <c r="E2" s="134"/>
       <c r="F2" s="134"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="134" t="s">
         <v>94</v>
       </c>
@@ -13594,7 +13597,7 @@
       <c r="E3" s="134"/>
       <c r="F3" s="134"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="134" t="s">
         <v>95</v>
       </c>
@@ -13604,7 +13607,7 @@
       <c r="E4" s="134"/>
       <c r="F4" s="134"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="134" t="s">
         <v>96</v>
       </c>
@@ -13614,7 +13617,7 @@
       <c r="E5" s="134"/>
       <c r="F5" s="134"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="134"/>
       <c r="B6" s="134"/>
       <c r="C6" s="134"/>
@@ -13622,7 +13625,7 @@
       <c r="E6" s="134"/>
       <c r="F6" s="134"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="134"/>
       <c r="B7" s="134"/>
       <c r="C7" s="134"/>
@@ -13630,7 +13633,7 @@
       <c r="E7" s="134"/>
       <c r="F7" s="134"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="134"/>
       <c r="B8" s="134"/>
       <c r="C8" s="134"/>
@@ -13638,7 +13641,7 @@
       <c r="E8" s="134"/>
       <c r="F8" s="134"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="134" t="s">
         <v>97</v>
       </c>
@@ -13650,7 +13653,7 @@
       <c r="E9" s="134"/>
       <c r="F9" s="134"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="134" t="s">
         <v>99</v>
       </c>
@@ -13670,7 +13673,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="134"/>
       <c r="B11" s="134" t="s">
         <v>100</v>
@@ -13680,7 +13683,7 @@
       <c r="E11" s="134"/>
       <c r="F11" s="134"/>
     </row>
-    <row r="12" spans="1:6" ht="31.5">
+    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="136" t="s">
         <v>101</v>
       </c>
@@ -13700,7 +13703,7 @@
         <v>35742412</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="31.5">
+    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="136" t="s">
         <v>102</v>
       </c>
@@ -13720,7 +13723,7 @@
         <v>25422635</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5">
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="136" t="s">
         <v>103</v>
       </c>
@@ -13740,7 +13743,7 @@
         <v>23472111</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="47.25">
+    <row r="15" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="136" t="s">
         <v>104</v>
       </c>
@@ -13760,7 +13763,7 @@
         <v>633663</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="31.5">
+    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="136" t="s">
         <v>105</v>
       </c>
@@ -13780,7 +13783,7 @@
         <v>488902</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="136" t="s">
         <v>106</v>
       </c>
@@ -13800,7 +13803,7 @@
         <v>91743</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="136" t="s">
         <v>107</v>
       </c>
@@ -13820,7 +13823,7 @@
         <v>736216</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="136" t="s">
         <v>108</v>
       </c>
@@ -13840,7 +13843,7 @@
         <v>7933361</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="31.5">
+    <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="136" t="s">
         <v>109</v>
       </c>
@@ -13860,7 +13863,7 @@
         <v>2386416</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="134"/>
       <c r="B21" s="134"/>
       <c r="C21" s="134"/>
@@ -13868,7 +13871,7 @@
       <c r="E21" s="134"/>
       <c r="F21" s="134"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="134"/>
       <c r="B22" s="134"/>
       <c r="C22" s="134"/>
@@ -13876,7 +13879,7 @@
       <c r="E22" s="134"/>
       <c r="F22" s="134"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="134"/>
       <c r="B23" s="134"/>
       <c r="C23" s="134"/>
@@ -13884,7 +13887,7 @@
       <c r="E23" s="134"/>
       <c r="F23" s="134"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="134"/>
       <c r="B24" s="134"/>
       <c r="C24" s="134"/>
@@ -13892,7 +13895,7 @@
       <c r="E24" s="134"/>
       <c r="F24" s="134"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75">
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="134" t="s">
         <v>110</v>
       </c>
@@ -13902,7 +13905,7 @@
       <c r="E25" s="134"/>
       <c r="F25" s="134"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="134">
         <v>1</v>
       </c>
@@ -13914,7 +13917,7 @@
       <c r="E26" s="134"/>
       <c r="F26" s="134"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="134">
         <v>2</v>
       </c>
@@ -13926,7 +13929,7 @@
       <c r="E27" s="134"/>
       <c r="F27" s="134"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="134">
         <v>3</v>
       </c>
@@ -13938,7 +13941,7 @@
       <c r="E28" s="134"/>
       <c r="F28" s="134"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="134">
         <v>4</v>
       </c>
@@ -13950,7 +13953,7 @@
       <c r="E29" s="134"/>
       <c r="F29" s="134"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="134"/>
       <c r="B30" s="134"/>
       <c r="C30" s="134"/>
@@ -13958,7 +13961,7 @@
       <c r="E30" s="134"/>
       <c r="F30" s="134"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75">
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="134"/>
       <c r="B31" s="134"/>
       <c r="C31" s="134"/>
@@ -13966,7 +13969,7 @@
       <c r="E31" s="134"/>
       <c r="F31" s="134"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75">
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="134"/>
       <c r="B32" s="134"/>
       <c r="C32" s="134"/>
@@ -13974,7 +13977,7 @@
       <c r="E32" s="134"/>
       <c r="F32" s="134"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75">
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="134" t="s">
         <v>115</v>
       </c>
@@ -13984,7 +13987,7 @@
       <c r="E33" s="134"/>
       <c r="F33" s="134"/>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="134" t="s">
         <v>116</v>
       </c>
@@ -14007,27 +14010,27 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="167" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -14035,7 +14038,7 @@
         <v>4184.4148772128656</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -14043,7 +14046,7 @@
         <v>2317.5851227871344</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>122</v>
       </c>
@@ -14051,7 +14054,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -14059,7 +14062,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>125</v>
       </c>
@@ -14067,7 +14070,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -14075,7 +14078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>127</v>
       </c>
@@ -14083,7 +14086,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>124</v>
       </c>
@@ -14091,7 +14094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>129</v>
       </c>
@@ -14118,12 +14121,12 @@
       <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="18">
+    <row r="2" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="143" t="s">
         <v>130</v>
       </c>
@@ -14150,7 +14153,7 @@
       </c>
       <c r="U2" s="144"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="144"/>
       <c r="B3" s="144"/>
       <c r="C3" s="144"/>
@@ -14174,7 +14177,7 @@
       <c r="U3" s="144"/>
       <c r="V3" s="144"/>
     </row>
-    <row r="4" spans="1:22" ht="15.75">
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="145" t="s">
         <v>98</v>
       </c>
@@ -14199,7 +14202,7 @@
       <c r="T4" s="144"/>
       <c r="U4" s="144"/>
     </row>
-    <row r="5" spans="1:22" ht="15.75">
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="145" t="s">
         <v>132</v>
       </c>
@@ -14224,7 +14227,7 @@
       <c r="T5" s="144"/>
       <c r="U5" s="144"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="144"/>
       <c r="B6" s="144"/>
       <c r="C6" s="144"/>
@@ -14248,7 +14251,7 @@
       <c r="U6" s="144"/>
       <c r="V6" s="144"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="144"/>
       <c r="B7" s="144"/>
       <c r="C7" s="144"/>
@@ -14272,7 +14275,7 @@
       <c r="U7" s="144"/>
       <c r="V7" s="144"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="144"/>
       <c r="B8" s="144"/>
       <c r="C8" s="146">
@@ -14334,7 +14337,7 @@
       </c>
       <c r="V8" s="144"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="147"/>
       <c r="B9" s="144"/>
       <c r="C9" s="144"/>
@@ -14358,7 +14361,7 @@
       <c r="U9" s="144"/>
       <c r="V9" s="144"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="144"/>
       <c r="B10" s="5" t="s">
         <v>133</v>
@@ -14384,7 +14387,7 @@
       <c r="U10" s="144"/>
       <c r="V10" s="144"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="144"/>
       <c r="B11" s="144" t="s">
         <v>15</v>
@@ -14448,7 +14451,7 @@
       </c>
       <c r="V11" s="144"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="144"/>
       <c r="B12" s="144" t="s">
         <v>134</v>
@@ -14512,7 +14515,7 @@
       </c>
       <c r="V12" s="144"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="144"/>
       <c r="B13" s="144" t="s">
         <v>135</v>
@@ -14576,7 +14579,7 @@
       </c>
       <c r="V13" s="144"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="144"/>
       <c r="B14" s="144"/>
       <c r="C14" s="144"/>
@@ -14600,7 +14603,7 @@
       <c r="U14" s="144"/>
       <c r="V14" s="144"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="144"/>
       <c r="B15" s="5" t="s">
         <v>136</v>
@@ -14626,7 +14629,7 @@
       <c r="U15" s="144"/>
       <c r="V15" s="144"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="144"/>
       <c r="B16" s="144" t="s">
         <v>15</v>
@@ -14690,7 +14693,7 @@
       </c>
       <c r="V16" s="144"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="144"/>
       <c r="B17" s="144" t="s">
         <v>134</v>
@@ -14754,7 +14757,7 @@
       </c>
       <c r="V17" s="144"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="144"/>
       <c r="B18" s="144" t="s">
         <v>135</v>
@@ -14818,7 +14821,7 @@
       </c>
       <c r="V18" s="144"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="144"/>
       <c r="B19" s="144"/>
       <c r="C19" s="144"/>
@@ -14842,7 +14845,7 @@
       <c r="U19" s="144"/>
       <c r="V19" s="144"/>
     </row>
-    <row r="20" spans="1:22" ht="63.75">
+    <row r="20" spans="1:22" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A20" s="144"/>
       <c r="B20" s="148" t="s">
         <v>137</v>
@@ -14868,7 +14871,7 @@
       <c r="U20" s="144"/>
       <c r="V20" s="144"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="144"/>
       <c r="B21" s="144" t="s">
         <v>15</v>
@@ -14932,7 +14935,7 @@
       </c>
       <c r="V21" s="144"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="144"/>
       <c r="B22" s="144" t="s">
         <v>134</v>
@@ -14996,7 +14999,7 @@
       </c>
       <c r="V22" s="144"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="144"/>
       <c r="B23" s="144" t="s">
         <v>135</v>
@@ -15060,8 +15063,8 @@
       </c>
       <c r="V23" s="144"/>
     </row>
-    <row r="25" spans="1:22" s="159" customFormat="1"/>
-    <row r="26" spans="1:22">
+    <row r="25" spans="1:22" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>138</v>
       </c>
@@ -15072,7 +15075,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="68" t="s">
         <v>18</v>
       </c>
@@ -15081,7 +15084,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>142</v>
       </c>
@@ -15108,7 +15111,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>150</v>
       </c>
@@ -15128,7 +15131,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>151</v>
       </c>
@@ -15154,7 +15157,7 @@
         <v>18132</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>152</v>
       </c>
@@ -15179,7 +15182,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>153</v>
       </c>
@@ -15219,7 +15222,7 @@
         <v>0.60440000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>154</v>
       </c>
@@ -15252,18 +15255,18 @@
         <v>27252.892701957593</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="113"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>156</v>
       </c>
@@ -15276,7 +15279,7 @@
         <v>0.25812073150046094</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>157</v>
       </c>
@@ -15289,7 +15292,7 @@
         <v>0.29667274676040861</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>158</v>
       </c>
@@ -15302,7 +15305,7 @@
         <v>0.19708695652173913</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>159</v>
       </c>
@@ -15316,7 +15319,7 @@
       </c>
       <c r="E42" s="166"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>160</v>
       </c>
@@ -15325,7 +15328,7 @@
         <v>0.11911956521739131</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="169" t="s">
         <v>161</v>
       </c>
@@ -15334,7 +15337,7 @@
         <v>0.50624029671785231</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="169" t="s">
         <v>162</v>
       </c>
@@ -15360,7 +15363,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
@@ -15368,7 +15371,7 @@
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="18">
+    <row r="2" spans="2:22" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="143" t="s">
         <v>130</v>
       </c>
@@ -15394,7 +15397,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="2:22">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="144"/>
       <c r="C3" s="144"/>
       <c r="D3" s="144"/>
@@ -15417,7 +15420,7 @@
       <c r="U3" s="144"/>
       <c r="V3" s="144"/>
     </row>
-    <row r="4" spans="2:22" ht="15.75">
+    <row r="4" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="145" t="s">
         <v>98</v>
       </c>
@@ -15441,7 +15444,7 @@
       <c r="T4" s="144"/>
       <c r="U4" s="144"/>
     </row>
-    <row r="5" spans="2:22" ht="15.75">
+    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="145" t="s">
         <v>163</v>
       </c>
@@ -15464,7 +15467,7 @@
       <c r="S5" s="144"/>
       <c r="T5" s="144"/>
     </row>
-    <row r="6" spans="2:22">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="144"/>
       <c r="C6" s="144"/>
       <c r="D6" s="144"/>
@@ -15487,7 +15490,7 @@
       <c r="U6" s="144"/>
       <c r="V6" s="144"/>
     </row>
-    <row r="7" spans="2:22">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="144"/>
       <c r="C7" s="144"/>
       <c r="D7" s="144"/>
@@ -15510,7 +15513,7 @@
       <c r="U7" s="144"/>
       <c r="V7" s="144"/>
     </row>
-    <row r="8" spans="2:22">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="144"/>
       <c r="C8" s="144"/>
       <c r="D8" s="146">
@@ -15571,7 +15574,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="2:22">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="147" t="s">
         <v>164</v>
       </c>
@@ -15596,7 +15599,7 @@
       <c r="U9" s="144"/>
       <c r="V9" s="144"/>
     </row>
-    <row r="10" spans="2:22">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="144"/>
       <c r="C10" s="5" t="s">
         <v>165</v>
@@ -15621,7 +15624,7 @@
       <c r="U10" s="144"/>
       <c r="V10" s="144"/>
     </row>
-    <row r="11" spans="2:22">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="144"/>
       <c r="C11" s="144" t="s">
         <v>166</v>
@@ -15684,7 +15687,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="12" spans="2:22">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="144"/>
       <c r="C12" s="144"/>
       <c r="D12" s="144"/>
@@ -15707,7 +15710,7 @@
       <c r="U12" s="144"/>
       <c r="V12" s="144"/>
     </row>
-    <row r="13" spans="2:22">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="144"/>
       <c r="C13" s="144"/>
       <c r="D13" s="144"/>
@@ -15730,7 +15733,7 @@
       <c r="U13" s="144"/>
       <c r="V13" s="144"/>
     </row>
-    <row r="14" spans="2:22">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="144"/>
       <c r="C14" s="144"/>
       <c r="D14" s="144"/>
@@ -15753,7 +15756,7 @@
       <c r="U14" s="144"/>
       <c r="V14" s="144"/>
     </row>
-    <row r="15" spans="2:22">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="144"/>
       <c r="C15" s="5" t="s">
         <v>133</v>
@@ -15778,7 +15781,7 @@
       <c r="U15" s="144"/>
       <c r="V15" s="144"/>
     </row>
-    <row r="16" spans="2:22">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="144"/>
       <c r="C16" s="144" t="s">
         <v>166</v>
@@ -15841,7 +15844,7 @@
         <v>12499</v>
       </c>
     </row>
-    <row r="17" spans="2:22">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="144"/>
       <c r="C17" s="144"/>
       <c r="D17" s="144"/>
@@ -15864,7 +15867,7 @@
       <c r="U17" s="144"/>
       <c r="V17" s="144"/>
     </row>
-    <row r="18" spans="2:22" ht="38.25">
+    <row r="18" spans="2:22" ht="51.75" x14ac:dyDescent="0.25">
       <c r="B18" s="144"/>
       <c r="C18" s="148" t="s">
         <v>137</v>
@@ -15889,7 +15892,7 @@
       <c r="U18" s="144"/>
       <c r="V18" s="144"/>
     </row>
-    <row r="19" spans="2:22">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="147"/>
       <c r="C19" s="144" t="s">
         <v>166</v>
@@ -15952,7 +15955,7 @@
         <v>14859</v>
       </c>
     </row>
-    <row r="20" spans="2:22">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="144"/>
       <c r="C20" s="144"/>
       <c r="D20" s="144"/>
@@ -15975,7 +15978,7 @@
       <c r="U20" s="144"/>
       <c r="V20" s="144"/>
     </row>
-    <row r="21" spans="2:22" ht="51">
+    <row r="21" spans="2:22" ht="51.75" x14ac:dyDescent="0.25">
       <c r="B21" s="144"/>
       <c r="C21" s="148" t="s">
         <v>167</v>
@@ -16000,7 +16003,7 @@
       <c r="U21" s="144"/>
       <c r="V21" s="144"/>
     </row>
-    <row r="22" spans="2:22">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="144"/>
       <c r="C22" s="114" t="s">
         <v>168</v>
@@ -16063,7 +16066,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="23" spans="2:22">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="144"/>
       <c r="C23" s="114" t="s">
         <v>169</v>
@@ -16126,7 +16129,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="24" spans="2:22">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="144"/>
       <c r="C24" s="144"/>
       <c r="D24" s="144"/>
@@ -16149,7 +16152,7 @@
       <c r="U24" s="144"/>
       <c r="V24" s="144"/>
     </row>
-    <row r="25" spans="2:22">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="144" t="s">
         <v>170</v>
       </c>
@@ -16173,7 +16176,7 @@
       <c r="T25" s="144"/>
       <c r="U25" s="144"/>
     </row>
-    <row r="26" spans="2:22">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="144" t="s">
         <v>171</v>
       </c>
@@ -16197,7 +16200,7 @@
       <c r="T26" s="144"/>
       <c r="U26" s="144"/>
     </row>
-    <row r="27" spans="2:22">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="144"/>
       <c r="C27" s="144"/>
       <c r="D27" s="144"/>
@@ -16220,52 +16223,52 @@
       <c r="U27" s="144"/>
       <c r="V27" s="144"/>
     </row>
-    <row r="28" spans="2:22">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="68" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="32" spans="2:22">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>178</v>
       </c>
@@ -16303,12 +16306,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>181</v>
       </c>
@@ -16344,7 +16347,7 @@
       </c>
       <c r="M45" s="164"/>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>182</v>
       </c>
@@ -16380,7 +16383,7 @@
       </c>
       <c r="M46" s="164"/>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>183</v>
       </c>
@@ -16416,7 +16419,7 @@
       </c>
       <c r="M47" s="164"/>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>184</v>
       </c>
@@ -16455,7 +16458,7 @@
         <v>38818</v>
       </c>
     </row>
-    <row r="49" spans="2:13">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>185</v>
       </c>
@@ -16494,7 +16497,7 @@
         <v>117378</v>
       </c>
     </row>
-    <row r="50" spans="2:13">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>186</v>
       </c>
@@ -16533,7 +16536,7 @@
         <v>36714</v>
       </c>
     </row>
-    <row r="51" spans="2:13">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>187</v>
       </c>
@@ -16569,12 +16572,12 @@
       </c>
       <c r="M51" s="164"/>
     </row>
-    <row r="53" spans="2:13">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="2:13">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>1</v>
       </c>
@@ -16582,18 +16585,18 @@
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="59" spans="2:13">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="68" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="2:13" s="159" customFormat="1"/>
-    <row r="63" spans="2:13">
+    <row r="61" spans="2:13" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>191</v>
       </c>
@@ -16604,7 +16607,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="64" spans="2:13">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="I64" t="s">
         <v>194</v>
@@ -16613,7 +16616,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <f>(V16*1000)+M48+M50</f>
         <v>12574532</v>
@@ -16646,18 +16649,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8043710-06E6-4A20-80A3-54F50512D636}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -16673,7 +16676,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>22</v>
       </c>
@@ -16705,12 +16708,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>202</v>
       </c>
@@ -16742,7 +16745,7 @@
         <v>10286</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>13000</v>
       </c>
@@ -16774,7 +16777,7 @@
         <v>3397</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K9" t="s">
         <v>205</v>
       </c>
@@ -16803,7 +16806,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>206</v>
       </c>
@@ -16835,12 +16838,12 @@
         <v>481</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="68" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -16851,7 +16854,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>211</v>
       </c>
@@ -16859,7 +16862,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>212</v>
       </c>
@@ -16867,12 +16870,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>214</v>
       </c>
@@ -16880,23 +16883,23 @@
         <v>522</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="168">
         <f>A8+SUM(C12:C16)</f>
         <v>17151</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>217</v>
       </c>
@@ -16912,23 +16915,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17192,22 +17184,60 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71F50057-726A-4BC4-8C44-CE1F6AC88695}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5AE48E0-79DE-40E5-9CB4-4B07B01A2E36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38D73C74-45AF-408A-9F4F-560597723158}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38D73C74-45AF-408A-9F4F-560597723158}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5AE48E0-79DE-40E5-9CB4-4B07B01A2E36}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71F50057-726A-4BC4-8C44-CE1F6AC88695}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/trans/FoVObE/Fraction of Veh Owned by Entity.xlsx
+++ b/InputData/trans/FoVObE/Fraction of Veh Owned by Entity.xlsx
@@ -16932,8 +16932,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -16959,6 +16959,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -17059,6 +17060,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -17205,7 +17211,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38D73C74-45AF-408A-9F4F-560597723158}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F11ED322-78CD-4F99-9DB7-B440BD24CB88}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
